--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -1222,7 +1222,7 @@
         <v>Scoring scale</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="19">
@@ -1461,7 +1461,7 @@
         <v>Wiley</v>
       </c>
       <c r="I6" s="15" t="str">
-        <v/>
+        <v>2015-01-01 00:00:00</v>
       </c>
       <c r="J6" s="15" t="str">
         <v/>
@@ -1701,7 +1701,7 @@
         <v>IT</v>
       </c>
       <c r="F2" s="7" t="str">
-        <v/>
+        <v>Syllabus, Assignment</v>
       </c>
       <c r="G2" s="37" t="str">
         <v>-Giới thiệu Syllabus
@@ -1740,7 +1740,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J2" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K2" s="7" t="str">
         <v/>
@@ -1765,7 +1765,7 @@
         <v>IT</v>
       </c>
       <c r="F3" s="7" t="str">
-        <v/>
+        <v>Slide1</v>
       </c>
       <c r="G3" s="37" t="str">
         <v>-Slide1
@@ -1795,7 +1795,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J3" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K3" s="7" t="str">
         <v/>
@@ -1818,7 +1818,7 @@
         <v>ITU</v>
       </c>
       <c r="F4" s="7" t="str">
-        <v/>
+        <v>Lab1, Quiz1, Assignment</v>
       </c>
       <c r="G4" s="37" t="str">
         <v>-Lab 1
@@ -1845,7 +1845,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J4" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K4" s="7" t="str">
         <v/>
@@ -1871,7 +1871,7 @@
         <v>TU</v>
       </c>
       <c r="F5" s="7" t="str">
-        <v/>
+        <v>Slide2</v>
       </c>
       <c r="G5" s="37" t="str">
         <v>-Slide2
@@ -1903,7 +1903,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J5" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K5" s="7" t="str">
         <v/>
@@ -1926,7 +1926,7 @@
         <v>ITU</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v/>
+        <v>Lab2, Quiz2</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>-Lab 2
@@ -1957,7 +1957,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J6" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K6" s="7" t="str">
         <v/>
@@ -1983,7 +1983,7 @@
         <v>TU</v>
       </c>
       <c r="F7" s="7" t="str">
-        <v/>
+        <v>Slide3</v>
       </c>
       <c r="G7" s="37" t="str">
         <v>-Slide3(P2)
@@ -2011,7 +2011,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J7" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K7" s="7" t="str">
         <v/>
@@ -2035,7 +2035,8 @@
         <v>ITU</v>
       </c>
       <c r="F8" s="7" t="str">
-        <v/>
+        <v>Lab3, Quiz3
+Assignment GĐ1</v>
       </c>
       <c r="G8" s="37" t="str">
         <v>-Lab3
@@ -2073,7 +2074,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J8" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K8" s="7" t="str">
         <v/>
@@ -2099,7 +2100,7 @@
         <v>TU</v>
       </c>
       <c r="F9" s="7" t="str">
-        <v/>
+        <v>Slide4</v>
       </c>
       <c r="G9" s="37" t="str">
         <v>-Slide4(P2)
@@ -2129,7 +2130,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J9" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K9" s="7" t="str">
         <v/>
@@ -2152,7 +2153,7 @@
         <v>ITU</v>
       </c>
       <c r="F10" s="7" t="str">
-        <v/>
+        <v>Lab4, Quiz4</v>
       </c>
       <c r="G10" s="37" t="str">
         <v>-Lab4
@@ -2183,7 +2184,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J10" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K10" s="7" t="str">
         <v/>
@@ -2208,7 +2209,7 @@
         <v>TU</v>
       </c>
       <c r="F11" s="7" t="str">
-        <v/>
+        <v>Slide5</v>
       </c>
       <c r="G11" s="37" t="str">
         <v>-Slide5(P2)
@@ -2238,7 +2239,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J11" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K11" s="7" t="str">
         <v/>
@@ -2261,7 +2262,7 @@
         <v>ITU</v>
       </c>
       <c r="F12" s="7" t="str">
-        <v/>
+        <v>Lab5, Quiz5</v>
       </c>
       <c r="G12" s="37" t="str">
         <v>-Lab5
@@ -2292,7 +2293,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J12" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K12" s="7" t="str">
         <v/>
@@ -2317,7 +2318,7 @@
         <v>TU</v>
       </c>
       <c r="F13" s="7" t="str">
-        <v/>
+        <v>Slide6</v>
       </c>
       <c r="G13" s="37" t="str">
         <v>-Slide6(P2)
@@ -2347,7 +2348,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J13" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K13" s="7" t="str">
         <v/>
@@ -2371,7 +2372,8 @@
         <v>ITU</v>
       </c>
       <c r="F14" s="7" t="str">
-        <v/>
+        <v>Lab6, Quiz6
+Assignment GĐ2</v>
       </c>
       <c r="G14" s="37" t="str">
         <v>-Lab6
@@ -2405,7 +2407,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J14" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K14" s="7" t="str">
         <v/>
@@ -2430,7 +2432,7 @@
         <v>TU</v>
       </c>
       <c r="F15" s="7" t="str">
-        <v/>
+        <v>Slide7</v>
       </c>
       <c r="G15" s="37" t="str">
         <v>-Slide7
@@ -2460,7 +2462,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J15" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K15" s="7" t="str">
         <v/>
@@ -2483,7 +2485,7 @@
         <v>ITU</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v/>
+        <v>Lab7, Quiz7</v>
       </c>
       <c r="G16" s="37" t="str">
         <v>-Lab7
@@ -2516,7 +2518,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J16" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K16" s="7" t="str">
         <v/>
@@ -2540,7 +2542,7 @@
         <v>ITU</v>
       </c>
       <c r="F17" s="7" t="str">
-        <v/>
+        <v>Assignment </v>
       </c>
       <c r="G17" s="37" t="str">
         <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
@@ -2561,7 +2563,7 @@
  + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J17" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K17" s="7" t="str">
         <v/>
@@ -2601,7 +2603,7 @@
         <v>Ôn tập, giải đáp thắc mắc, trao đổi kiến thức, kỹ năng, thái độ cần thiết khác liên quan đến môn học</v>
       </c>
       <c r="J18" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K18" s="7" t="str">
         <v/>
@@ -2627,7 +2629,7 @@
         <v>U</v>
       </c>
       <c r="F19" s="7" t="str">
-        <v/>
+        <v>Assignment</v>
       </c>
       <c r="G19" s="37" t="str">
         <v>Sinh viên trình bày bằng slide hoặc thi thực hành. Mỗi buổi thi 2 giờ, mỗi sinh viên bảo vệ tối đa 10 phút nếu làm cá nhân và 30 phút nếu làm nhóm.</v>
@@ -2665,7 +2667,7 @@
         <v>U</v>
       </c>
       <c r="F20" s="7" t="str">
-        <v/>
+        <v>Assignment</v>
       </c>
       <c r="G20" s="37" t="str">
         <v>Sinh viên trình bày bằng slide hoặc thi thực hành. Mỗi buổi thi 2 giờ, mỗi sinh viên bảo vệ tối đa 10 phút nếu làm cá nhân và 30 phút nếu làm nhóm.</v>
@@ -2703,7 +2705,7 @@
         <v>U</v>
       </c>
       <c r="F21" s="7" t="str">
-        <v/>
+        <v>Assignment</v>
       </c>
       <c r="G21" s="37" t="str">
         <v>Sinh viên trình bày bằng slide hoặc thi thực hành. Mỗi buổi thi 2 giờ, mỗi sinh viên bảo vệ tối đa 10 phút nếu làm cá nhân và 30 phút nếu làm nhóm.</v>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -198,9 +198,6 @@
     <t>CLO Description</t>
   </si>
   <si>
-    <t>CLO1</t>
-  </si>
-  <si>
     <t>SessionNo</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Lecturer's Materials link</t>
   </si>
   <si>
-    <t>Offline</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -259,12 +253,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>On-going</t>
   </si>
   <si>
     <t>Name</t>
@@ -357,9 +345,6 @@
     <t>{{materials.material_edition}}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>{{CLOs.CLO_name}}</t>
   </si>
   <si>
@@ -421,6 +406,30 @@
   </si>
   <si>
     <t>{{gradingStruture.how_granding_structure}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.clo_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_method_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_type_name}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.no}}</t>
+  </si>
+  <si>
+    <t>{{materials.no}}</t>
+  </si>
+  <si>
+    <t>{{CLOs.no}}</t>
+  </si>
+  <si>
+    <t>{{schedule.class_session_type_name}}</t>
+  </si>
+  <si>
+    <t>{{schedule.CLO_name}}</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1262,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1315,7 @@
       </c>
     </row>
     <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
@@ -1338,8 +1347,8 @@
       </c>
     </row>
     <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="3">
-      <c r="A3" s="6">
-        <v>1</v>
+      <c r="A3" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
         <v>Lab (07)</v>
@@ -1370,8 +1379,8 @@
       </c>
     </row>
     <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="4">
-      <c r="A4" s="6">
-        <v>1</v>
+      <c r="A4" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
         <v>Quiz (07)</v>
@@ -1402,8 +1411,8 @@
       </c>
     </row>
     <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="5">
-      <c r="A5" s="6">
-        <v>1</v>
+      <c r="A5" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
         <v>Assigment (01)</v>
@@ -1434,8 +1443,8 @@
       </c>
     </row>
     <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="6">
-      <c r="A6" s="6">
-        <v>1</v>
+      <c r="A6" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
         <v>Thiết kế hình ảnh với Photoshop (Bộ 2 tập): 
@@ -1477,13 +1486,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="17" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="17" customWidth="1"/>
     <col min="4" max="7" width="8.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="17" customWidth="1"/>
@@ -1502,7 +1511,7 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="2">
-      <c r="A2" s="21" t="str">
+      <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="str">
@@ -1513,8 +1522,8 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="3">
-      <c r="A3" s="21" t="str">
-        <v>1</v>
+      <c r="A3" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="22" t="str">
         <v>CLO2</v>
@@ -1524,8 +1533,8 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="4">
-      <c r="A4" s="21" t="str">
-        <v>1</v>
+      <c r="A4" s="21" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="22" t="str">
         <v>CLO3</v>
@@ -1535,8 +1544,8 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="5">
-      <c r="A5" s="21" t="str">
-        <v>1</v>
+      <c r="A5" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="22" t="str">
         <v>CLO4</v>
@@ -1546,8 +1555,8 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="6">
-      <c r="A6" s="21" t="str">
-        <v>1</v>
+      <c r="A6" s="21" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="22" t="str">
         <v>CLO5</v>
@@ -1557,8 +1566,8 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="21" t="str">
-        <v>1</v>
+      <c r="A7" s="21" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="22" t="str">
         <v>CLO6</v>
@@ -1568,8 +1577,8 @@
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="21" t="str">
-        <v>1</v>
+      <c r="A8" s="21" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="22" t="str">
         <v>CLO7</v>
@@ -1624,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1680,12 +1689,12 @@
       </c>
       <c r="L1" s="30"/>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="2">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="2">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C2" s="7" t="str">
         <v>Giới thiệu môn học: Syllabus, Mục tiêu môn học, Assignment
@@ -1746,12 +1755,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="3">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="3">
       <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C3" s="7" t="str">
         <v>Slide 1: .  Giới thiệu cơ bản về Photoshop 
@@ -1801,12 +1810,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="4">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="4">
       <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C4" s="7" t="str">
         <v>Slide 1: .  Giới thiệu cơ bản về Photoshop</v>
@@ -1851,12 +1860,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="5">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="5">
       <c r="A5" s="31">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C5" s="7" t="str">
         <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop 
@@ -1909,18 +1918,18 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="6">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="6">
       <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C6" s="7" t="str">
         <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop</v>
       </c>
       <c r="D6" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO2</v>
       </c>
       <c r="E6" s="31" t="str">
         <v>ITU</v>
@@ -1963,12 +1972,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="7">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="7">
       <c r="A7" s="31">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C7" s="7" t="str">
         <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
@@ -1977,7 +1986,7 @@
 . Các công cụ quan trọng trong Photoshop </v>
       </c>
       <c r="D7" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO3</v>
       </c>
       <c r="E7" s="31" t="str">
         <v>TU</v>
@@ -2017,19 +2026,21 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="8">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="8">
       <c r="A8" s="31">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C8" s="7" t="str">
         <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
  Nộp bài Assignment giai đoạn 1</v>
       </c>
       <c r="D8" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO1,
+CLO2,
+CLO3</v>
       </c>
       <c r="E8" s="31" t="str">
         <v>ITU</v>
@@ -2080,12 +2091,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="9">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="9">
       <c r="A9" s="31">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C9" s="7" t="str">
         <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop 
@@ -2094,7 +2105,7 @@
 </v>
       </c>
       <c r="D9" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO4</v>
       </c>
       <c r="E9" s="31" t="str">
         <v>TU</v>
@@ -2136,18 +2147,18 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="10">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="10">
       <c r="A10" s="31">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C10" s="7" t="str">
         <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop</v>
       </c>
       <c r="D10" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO4</v>
       </c>
       <c r="E10" s="31" t="str">
         <v>ITU</v>
@@ -2190,12 +2201,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="11">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="11">
       <c r="A11" s="31">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C11" s="7" t="str">
         <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop 
@@ -2203,7 +2214,7 @@
 . Sử dụng layer hiệu quả</v>
       </c>
       <c r="D11" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO5</v>
       </c>
       <c r="E11" s="31" t="str">
         <v>TU</v>
@@ -2245,18 +2256,18 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="12">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="12">
       <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C12" s="7" t="str">
         <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop</v>
       </c>
       <c r="D12" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO5</v>
       </c>
       <c r="E12" s="31" t="str">
         <v>ITU</v>
@@ -2299,12 +2310,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="13">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="13">
       <c r="A13" s="31">
         <v>1</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C13" s="7" t="str">
         <v>Slide 6: -  Làm việc với Smart Object và bộ lọc trong Photoshop 
@@ -2312,7 +2323,7 @@
 . Bộ lọc</v>
       </c>
       <c r="D13" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO6</v>
       </c>
       <c r="E13" s="31" t="str">
         <v>TU</v>
@@ -2354,19 +2365,19 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="14">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="14">
       <c r="A14" s="31">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C14" s="7" t="str">
         <v>Slide 6:  - Làm việc với Smart Object và bộ lọc trong Photoshop 
  Nộp bài Assignment giai đoạn 2</v>
       </c>
       <c r="D14" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO7</v>
       </c>
       <c r="E14" s="31" t="str">
         <v>ITU</v>
@@ -2413,12 +2424,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="15">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="15">
       <c r="A15" s="31">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C15" s="7" t="str">
         <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop 
@@ -2426,7 +2437,7 @@
 . Giới thiệu tính năng 3D</v>
       </c>
       <c r="D15" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO7</v>
       </c>
       <c r="E15" s="31" t="str">
         <v>TU</v>
@@ -2468,18 +2479,18 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="16">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="16">
       <c r="A16" s="31">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C16" s="7" t="str">
         <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop</v>
       </c>
       <c r="D16" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO7</v>
       </c>
       <c r="E16" s="31" t="str">
         <v>ITU</v>
@@ -2524,19 +2535,19 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="17">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="17">
       <c r="A17" s="31">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C17" s="7" t="str">
         <v>Duyệt lại bài Assignment 
 Chuẩn bị bài Assignment hoàn chỉnh nộp lên LMS trước buổi thi 3 ngày</v>
       </c>
       <c r="D17" s="31" t="str">
-        <v>CLO1</v>
+        <v>All CLOs</v>
       </c>
       <c r="E17" s="31" t="str">
         <v>ITU</v>
@@ -2569,12 +2580,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="18">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="18">
       <c r="A18" s="31">
         <v>1</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C18" s="7" t="str">
         <v>Hoạt động mở:
@@ -2585,7 +2596,7 @@
 - Đưa sinh viên đến doanh nghiệp để giao lưu học hỏi</v>
       </c>
       <c r="D18" s="31" t="str">
-        <v>CLO1</v>
+        <v>All CLO</v>
       </c>
       <c r="E18" s="31" t="str">
         <v>U</v>
@@ -2609,12 +2620,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="19">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="19">
       <c r="A19" s="31">
         <v>1</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C19" s="7" t="str">
         <v>Bảo vệ Assignment: Sinh viên phải chứng minh assignment là do mình/nhóm tự làm mà không phải sao chép của bất kỳ ai/nhóm khác. 
@@ -2623,7 +2634,7 @@
 2. Thi thực hành trong phạm vi kiến thức của assignment, giảng viên vấn đáp trên bài thi và assignment.</v>
       </c>
       <c r="D19" s="31" t="str">
-        <v>CLO1</v>
+        <v>All CLOs</v>
       </c>
       <c r="E19" s="31" t="str">
         <v>U</v>
@@ -2647,12 +2658,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="20">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="20">
       <c r="A20" s="31">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C20" s="7" t="str">
         <v>Bảo vệ Assignment: Sinh viên phải chứng minh assignment là do mình/nhóm tự làm mà không phải sao chép của bất kỳ ai/nhóm khác. 
@@ -2661,7 +2672,7 @@
 2. Thi thực hành trong phạm vi kiến thức của assignment, giảng viên vấn đáp trên bài thi và assignment.</v>
       </c>
       <c r="D20" s="31" t="str">
-        <v>CLO1</v>
+        <v>All CLOs</v>
       </c>
       <c r="E20" s="31" t="str">
         <v>U</v>
@@ -2685,12 +2696,12 @@
         <v/>
       </c>
     </row>
-    <row spans="1:12" ht="30" x14ac:dyDescent="0.25" r="21">
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="21">
       <c r="A21" s="31">
         <v>1</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="C21" s="7" t="str">
         <v>Bảo vệ Assignment: Sinh viên phải chứng minh assignment là do mình/nhóm tự làm mà không phải sao chép của bất kỳ ai/nhóm khác. 
@@ -2699,7 +2710,7 @@
 2. Thi thực hành trong phạm vi kiến thức của assignment, giảng viên vấn đáp trên bài thi và assignment.</v>
       </c>
       <c r="D21" s="31" t="str">
-        <v>CLO1</v>
+        <v>All CLOs</v>
       </c>
       <c r="E21" s="31" t="str">
         <v>U</v>
@@ -2732,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2817,7 @@
       <c r="P1" s="35"/>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="2">
-      <c r="A2" s="31">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
@@ -2827,7 +2838,9 @@
       <c r="G2" s="31" t="str">
         <v/>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="31" t="str">
+        <v/>
+      </c>
       <c r="I2" s="31" t="str">
         <v/>
       </c>
@@ -2851,11 +2864,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="3">
-      <c r="A3" s="31">
-        <v>1</v>
+      <c r="A3" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 1</v>
       </c>
       <c r="C3" s="31" t="str">
         <v>On-going</v>
@@ -2872,7 +2885,9 @@
       <c r="G3" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="31" t="str">
+        <v>CLO1</v>
+      </c>
       <c r="I3" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -2897,11 +2912,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="4">
-      <c r="A4" s="31">
-        <v>1</v>
+      <c r="A4" s="31" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 2</v>
       </c>
       <c r="C4" s="31" t="str">
         <v>On-going</v>
@@ -2918,7 +2933,9 @@
       <c r="G4" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="31" t="str">
+        <v>CLO2</v>
+      </c>
       <c r="I4" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -2943,11 +2960,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="5">
-      <c r="A5" s="31">
-        <v>1</v>
+      <c r="A5" s="31" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 3</v>
       </c>
       <c r="C5" s="31" t="str">
         <v>On-going</v>
@@ -2964,7 +2981,9 @@
       <c r="G5" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="31" t="str">
+        <v>CLO3</v>
+      </c>
       <c r="I5" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -2989,11 +3008,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="6">
-      <c r="A6" s="31">
-        <v>1</v>
+      <c r="A6" s="31" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 4</v>
       </c>
       <c r="C6" s="31" t="str">
         <v>On-going</v>
@@ -3010,7 +3029,9 @@
       <c r="G6" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="31" t="str">
+        <v>CLO4</v>
+      </c>
       <c r="I6" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -3035,11 +3056,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="31">
-        <v>1</v>
+      <c r="A7" s="31" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 5</v>
       </c>
       <c r="C7" s="31" t="str">
         <v>On-going</v>
@@ -3056,7 +3077,9 @@
       <c r="G7" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="31" t="str">
+        <v>CLO5</v>
+      </c>
       <c r="I7" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -3081,11 +3104,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="31">
-        <v>1</v>
+      <c r="A8" s="31" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 6</v>
       </c>
       <c r="C8" s="31" t="str">
         <v>On-going</v>
@@ -3102,7 +3125,9 @@
       <c r="G8" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="31" t="str">
+        <v>CLO6</v>
+      </c>
       <c r="I8" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -3127,11 +3152,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="9">
-      <c r="A9" s="31">
-        <v>1</v>
+      <c r="A9" s="31" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="str">
-        <v>Lab</v>
+        <v>Lab 7</v>
       </c>
       <c r="C9" s="31" t="str">
         <v>On-going</v>
@@ -3148,7 +3173,9 @@
       <c r="G9" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="31" t="str">
+        <v>CLO7</v>
+      </c>
       <c r="I9" s="31" t="str">
         <v>Bài tập</v>
       </c>
@@ -3173,11 +3200,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="10">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="31" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz</v>
       </c>
       <c r="C10" s="31" t="str">
         <v>On-going</v>
@@ -3194,7 +3221,9 @@
       <c r="G10" s="31" t="str">
         <v/>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="31" t="str">
+        <v/>
+      </c>
       <c r="I10" s="31" t="str">
         <v/>
       </c>
@@ -3218,11 +3247,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="11">
-      <c r="A11" s="31">
-        <v>1</v>
+      <c r="A11" s="31" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 1</v>
       </c>
       <c r="C11" s="31" t="str">
         <v>On-going</v>
@@ -3239,7 +3268,9 @@
       <c r="G11" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31" t="str">
+        <v>CLO1</v>
+      </c>
       <c r="I11" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3263,11 +3294,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="12">
-      <c r="A12" s="31">
-        <v>1</v>
+      <c r="A12" s="31" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 2</v>
       </c>
       <c r="C12" s="31" t="str">
         <v>On-going</v>
@@ -3284,7 +3315,9 @@
       <c r="G12" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="31" t="str">
+        <v>CLO2</v>
+      </c>
       <c r="I12" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3308,11 +3341,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="13">
-      <c r="A13" s="31">
-        <v>1</v>
+      <c r="A13" s="31" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 3</v>
       </c>
       <c r="C13" s="31" t="str">
         <v>On-going</v>
@@ -3329,7 +3362,9 @@
       <c r="G13" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="31" t="str">
+        <v>CLO3</v>
+      </c>
       <c r="I13" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3353,11 +3388,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="14">
-      <c r="A14" s="31">
-        <v>1</v>
+      <c r="A14" s="31" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 4</v>
       </c>
       <c r="C14" s="31" t="str">
         <v>On-going</v>
@@ -3374,7 +3409,9 @@
       <c r="G14" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="31" t="str">
+        <v>CLO4</v>
+      </c>
       <c r="I14" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3398,11 +3435,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="15">
-      <c r="A15" s="31">
-        <v>1</v>
+      <c r="A15" s="31" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 5</v>
       </c>
       <c r="C15" s="31" t="str">
         <v>On-going</v>
@@ -3419,7 +3456,9 @@
       <c r="G15" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="31" t="str">
+        <v>CLO5</v>
+      </c>
       <c r="I15" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3443,11 +3482,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="16">
-      <c r="A16" s="31">
-        <v>1</v>
+      <c r="A16" s="31" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 6</v>
       </c>
       <c r="C16" s="31" t="str">
         <v>On-going</v>
@@ -3464,7 +3503,9 @@
       <c r="G16" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="31" t="str">
+        <v>CLO6</v>
+      </c>
       <c r="I16" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3488,11 +3529,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="17">
-      <c r="A17" s="31">
-        <v>1</v>
+      <c r="A17" s="31" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Lab</v>
+        <v>Quiz 7</v>
       </c>
       <c r="C17" s="31" t="str">
         <v>On-going</v>
@@ -3509,7 +3550,9 @@
       <c r="G17" s="31" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="31" t="str">
+        <v>CLO7</v>
+      </c>
       <c r="I17" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3533,11 +3576,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="18">
-      <c r="A18" s="31">
-        <v>1</v>
+      <c r="A18" s="31" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Lab</v>
+        <v>Bài học online</v>
       </c>
       <c r="C18" s="31" t="str">
         <v>On-going</v>
@@ -3554,7 +3597,9 @@
       <c r="G18" s="31" t="str">
         <v/>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="31" t="str">
+        <v>All CLOs</v>
+      </c>
       <c r="I18" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
@@ -3578,11 +3623,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="19">
-      <c r="A19" s="31">
-        <v>1</v>
+      <c r="A19" s="31" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Lab</v>
+        <v>Assignment</v>
       </c>
       <c r="C19" s="31" t="str">
         <v>On-going</v>
@@ -3599,7 +3644,9 @@
       <c r="G19" s="31" t="str">
         <v/>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31" t="str">
+        <v/>
+      </c>
       <c r="I19" s="31" t="str">
         <v/>
       </c>
@@ -3623,11 +3670,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="20">
-      <c r="A20" s="31">
-        <v>1</v>
+      <c r="A20" s="31" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Lab</v>
+        <v>Assignment 1</v>
       </c>
       <c r="C20" s="31" t="str">
         <v>On-going</v>
@@ -3644,7 +3691,11 @@
       <c r="G20" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="31" t="str">
+        <v>CLO1,
+CLO2,
+CLO3</v>
+      </c>
       <c r="I20" s="31" t="str">
         <v>Sản phẩm</v>
       </c>
@@ -3668,11 +3719,11 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="21">
-      <c r="A21" s="31">
-        <v>1</v>
+      <c r="A21" s="31" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Lab</v>
+        <v>Assignment 2</v>
       </c>
       <c r="C21" s="31" t="str">
         <v>On-going</v>
@@ -3689,7 +3740,12 @@
       <c r="G21" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="31" t="str">
+        <v>CLO4,
+CLO5,
+CLO6,
+CLO7</v>
+      </c>
       <c r="I21" s="31" t="str">
         <v>Sản phẩm</v>
       </c>
@@ -3713,14 +3769,14 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="22">
-      <c r="A22" s="31">
-        <v>1</v>
+      <c r="A22" s="31" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="str">
-        <v>Lab</v>
+        <v>Bảo vệ assignment</v>
       </c>
       <c r="C22" s="31" t="str">
-        <v>On-going</v>
+        <v>Final Exam</v>
       </c>
       <c r="D22" s="31" t="n">
         <v>40.00</v>
@@ -3734,7 +3790,9 @@
       <c r="G22" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="31" t="str">
+        <v>All CLOs</v>
+      </c>
       <c r="I22" s="31" t="str">
         <v>Sản phẩm, Slide, Document, Đề thi</v>
       </c>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>{{schedule.CLO_name}}</t>
+  </si>
+  <si>
+    <t>{{{{schedule.no}}</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1585,6 +1588,17 @@
       </c>
       <c r="C8" s="23" t="str">
         <v>Thiết kế web thông qua công cụ Photoshop: Tạo ảnh dùng cho web; Tạo video bằng Photoshop</v>
+      </c>
+    </row>
+    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="9">
+      <c r="A9" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="str">
+        <v>cl101</v>
+      </c>
+      <c r="C9" s="23" t="str">
+        <v>10zz</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1690,8 +1704,8 @@
       <c r="L1" s="30"/>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="2">
-      <c r="A2" s="31">
-        <v>1</v>
+      <c r="A2" s="31" t="str">
+        <v>{{1</v>
       </c>
       <c r="B2" s="7" t="str">
         <v>Online</v>
@@ -1756,8 +1770,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="3">
-      <c r="A3" s="31">
-        <v>1</v>
+      <c r="A3" s="31" t="str">
+        <v>{{2</v>
       </c>
       <c r="B3" s="7" t="str">
         <v>Online</v>
@@ -1811,8 +1825,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="4">
-      <c r="A4" s="31">
-        <v>1</v>
+      <c r="A4" s="31" t="str">
+        <v>{{3</v>
       </c>
       <c r="B4" s="7" t="str">
         <v>Online</v>
@@ -1861,8 +1875,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="5">
-      <c r="A5" s="31">
-        <v>1</v>
+      <c r="A5" s="31" t="str">
+        <v>{{4</v>
       </c>
       <c r="B5" s="7" t="str">
         <v>Online</v>
@@ -1919,8 +1933,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="6">
-      <c r="A6" s="31">
-        <v>1</v>
+      <c r="A6" s="31" t="str">
+        <v>{{5</v>
       </c>
       <c r="B6" s="7" t="str">
         <v>Online</v>
@@ -1973,8 +1987,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="31">
-        <v>1</v>
+      <c r="A7" s="31" t="str">
+        <v>{{6</v>
       </c>
       <c r="B7" s="7" t="str">
         <v>Online</v>
@@ -2027,8 +2041,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="31">
-        <v>1</v>
+      <c r="A8" s="31" t="str">
+        <v>{{7</v>
       </c>
       <c r="B8" s="7" t="str">
         <v>Online</v>
@@ -2092,8 +2106,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="9">
-      <c r="A9" s="31">
-        <v>1</v>
+      <c r="A9" s="31" t="str">
+        <v>{{8</v>
       </c>
       <c r="B9" s="7" t="str">
         <v>Online</v>
@@ -2148,8 +2162,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="10">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="31" t="str">
+        <v>{{9</v>
       </c>
       <c r="B10" s="7" t="str">
         <v>Online</v>
@@ -2202,8 +2216,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="11">
-      <c r="A11" s="31">
-        <v>1</v>
+      <c r="A11" s="31" t="str">
+        <v>{{10</v>
       </c>
       <c r="B11" s="7" t="str">
         <v>Online</v>
@@ -2257,8 +2271,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="12">
-      <c r="A12" s="31">
-        <v>1</v>
+      <c r="A12" s="31" t="str">
+        <v>{{11</v>
       </c>
       <c r="B12" s="7" t="str">
         <v>Online</v>
@@ -2311,8 +2325,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="13">
-      <c r="A13" s="31">
-        <v>1</v>
+      <c r="A13" s="31" t="str">
+        <v>{{12</v>
       </c>
       <c r="B13" s="7" t="str">
         <v>Online</v>
@@ -2366,8 +2380,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="14">
-      <c r="A14" s="31">
-        <v>1</v>
+      <c r="A14" s="31" t="str">
+        <v>{{13</v>
       </c>
       <c r="B14" s="7" t="str">
         <v>Online</v>
@@ -2425,8 +2439,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="15">
-      <c r="A15" s="31">
-        <v>1</v>
+      <c r="A15" s="31" t="str">
+        <v>{{14</v>
       </c>
       <c r="B15" s="7" t="str">
         <v>Online</v>
@@ -2480,8 +2494,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="16">
-      <c r="A16" s="31">
-        <v>1</v>
+      <c r="A16" s="31" t="str">
+        <v>{{15</v>
       </c>
       <c r="B16" s="7" t="str">
         <v>Online</v>
@@ -2536,8 +2550,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="17">
-      <c r="A17" s="31">
-        <v>1</v>
+      <c r="A17" s="31" t="str">
+        <v>{{16</v>
       </c>
       <c r="B17" s="7" t="str">
         <v>Online</v>
@@ -2581,8 +2595,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="18">
-      <c r="A18" s="31">
-        <v>1</v>
+      <c r="A18" s="31" t="str">
+        <v>{{17</v>
       </c>
       <c r="B18" s="7" t="str">
         <v>Online</v>
@@ -2621,8 +2635,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="19">
-      <c r="A19" s="31">
-        <v>1</v>
+      <c r="A19" s="31" t="str">
+        <v>{{18</v>
       </c>
       <c r="B19" s="7" t="str">
         <v>Online</v>
@@ -2659,8 +2673,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="20">
-      <c r="A20" s="31">
-        <v>1</v>
+      <c r="A20" s="31" t="str">
+        <v>{{19</v>
       </c>
       <c r="B20" s="7" t="str">
         <v>Online</v>
@@ -2697,8 +2711,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="21">
-      <c r="A21" s="31">
-        <v>1</v>
+      <c r="A21" s="31" t="str">
+        <v>{{20</v>
       </c>
       <c r="B21" s="7" t="str">
         <v>Online</v>
@@ -2731,6 +2745,41 @@
         <v/>
       </c>
       <c r="K21" s="7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="22">
+      <c r="A22" s="31" t="str">
+        <v>{{21</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <v>Online</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <v>a</v>
+      </c>
+      <c r="D22" s="31" t="str">
+        <v/>
+      </c>
+      <c r="E22" s="31" t="str">
+        <v>a</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <v>a</v>
+      </c>
+      <c r="G22" s="37" t="str">
+        <v>a</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <v>a</v>
+      </c>
+      <c r="I22" s="37" t="str">
+        <v>a</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <v>a</v>
+      </c>
+      <c r="K22" s="7" t="str">
         <v/>
       </c>
     </row>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -1486,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1588,17 +1588,6 @@
       </c>
       <c r="C8" s="23" t="str">
         <v>Thiết kế web thông qua công cụ Photoshop: Tạo ảnh dùng cho web; Tạo video bằng Photoshop</v>
-      </c>
-    </row>
-    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="9">
-      <c r="A9" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="str">
-        <v>cl101</v>
-      </c>
-      <c r="C9" s="23" t="str">
-        <v>10zz</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2745,41 +2734,6 @@
         <v/>
       </c>
       <c r="K21" s="7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="22">
-      <c r="A22" s="31" t="str">
-        <v>{{21</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <v>Online</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <v>a</v>
-      </c>
-      <c r="D22" s="31" t="str">
-        <v/>
-      </c>
-      <c r="E22" s="31" t="str">
-        <v>a</v>
-      </c>
-      <c r="F22" s="7" t="str">
-        <v>a</v>
-      </c>
-      <c r="G22" s="37" t="str">
-        <v>a</v>
-      </c>
-      <c r="H22" s="7" t="str">
-        <v>a</v>
-      </c>
-      <c r="I22" s="37" t="str">
-        <v>a</v>
-      </c>
-      <c r="J22" s="7" t="str">
-        <v>a</v>
-      </c>
-      <c r="K22" s="7" t="str">
         <v/>
       </c>
     </row>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -1124,7 +1124,7 @@
         <v>Degree Level</v>
       </c>
       <c r="C10" s="8" t="str">
-        <v>Cao đẳng</v>
+        <v>Associate Degree</v>
       </c>
     </row>
     <row spans="1:3" ht="126.95" customHeight="1" x14ac:dyDescent="0.25" r="11">

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -1124,7 +1124,7 @@
         <v>Degree Level</v>
       </c>
       <c r="C10" s="8" t="str">
-        <v>Cao đẳng</v>
+        <v>Associate Degree</v>
       </c>
     </row>
     <row spans="1:3" ht="126.95" customHeight="1" x14ac:dyDescent="0.25" r="11">
@@ -1262,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1476,6 +1476,166 @@
         <v>2015-01-01 00:00:00</v>
       </c>
       <c r="J6" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="7">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="G7" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
+      <c r="J7" s="15" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="8">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G8" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
+      <c r="J8" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="9">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G9" s="15" t="str">
+        <v>11</v>
+      </c>
+      <c r="H9" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I9" s="15" t="str">
+        <v>2023-11-01 00:00:00</v>
+      </c>
+      <c r="J9" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="10">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G10" s="15" t="str">
+        <v/>
+      </c>
+      <c r="H10" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="15" t="str">
+        <v>2023-11-01 00:00:00</v>
+      </c>
+      <c r="J10" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="11">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="15" t="str">
+        <v/>
+      </c>
+      <c r="F11" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G11" s="15" t="str">
+        <v/>
+      </c>
+      <c r="H11" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I11" s="15" t="str">
+        <v>2023-11-01 00:00:00</v>
+      </c>
+      <c r="J11" s="15" t="str">
         <v/>
       </c>
     </row>
@@ -3630,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Assignment</v>
+        <v>Đánh giá Assignment GĐ 1</v>
       </c>
       <c r="C19" s="31" t="str">
         <v>On-going</v>
@@ -3677,7 +3837,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Assignment 1</v>
+        <v>Đánh giá Assignment GĐ 1 1</v>
       </c>
       <c r="C20" s="31" t="str">
         <v>On-going</v>
@@ -3726,7 +3886,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Assignment 2</v>
+        <v>Đánh giá Assignment GĐ 1 2</v>
       </c>
       <c r="C21" s="31" t="str">
         <v>On-going</v>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -1058,7 +1058,7 @@
         <v>Decision No.</v>
       </c>
       <c r="C4" s="7" t="str">
-        <v>436/QĐ-CĐFPL</v>
+        <v>249/QĐ-CĐFPL</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1069,7 +1069,7 @@
         <v>Course Name</v>
       </c>
       <c r="C5" s="8" t="str">
-        <v>Thiết kế hình ảnh với Photoshop</v>
+        <v>MUL116</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1080,7 +1080,7 @@
         <v>Course Name English</v>
       </c>
       <c r="C6" s="8" t="str">
-        <v>Image Design using Photoshop</v>
+        <v>MUL116</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="7">
@@ -1091,7 +1091,7 @@
         <v>Course Code</v>
       </c>
       <c r="C7" s="8" t="str">
-        <v>MUL1013</v>
+        <v>MUL116</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="8">
@@ -1135,14 +1135,14 @@
         <v>Time Allocation</v>
       </c>
       <c r="C11" s="11" t="str">
-        <v>Tổng thời lượng: 75 giờ
+        <v>Tổng thời lượng: 90 giờ
 1. Trên lớp: 34 giờ
-   + Tích hợp (Script/Lab/Workshop/Casestudy, Quiz, Progress Test, Open Activity): 34 giờ
-2. Bảo vệ, kiểm tra: 2 giờ
-   + Bảo vệ assignment hoặc/và thi cuối môn: 2 giờ
-3. Học qua hướng dẫn của hệ thống: 39 giờ
-   + Học và trả lời câu hỏi trong video trước khi đến lớp: 7 giờ
-   + Thực hiện dự án môn học (Assignment, Project): 32 giờ</v>
+   + Lý thuyết (Slide): 12 giờ
+   + Thực hành (Lab, Workshop, Casestudy, Quiz, Open Activity, Project): 22 giờ
+2. Bảo vệ, kiểm tra: 6 giờ
+   + Bảo vệ và/hoặc thi cuối môn: 6 giờ
+3. Học qua hướng dẫn của hệ thống: 50 giờ
+   + Thực hiện dự án môn học (Assignment): 48 giờ</v>
       </c>
     </row>
     <row spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25" r="12">
@@ -1164,7 +1164,27 @@
         <v>Description</v>
       </c>
       <c r="C13" s="8" t="str">
-        <v>Hướng dẫn sử dụng công cụ xử lý ảnh mạnh mẽ và phổ biến nhất hiện nay - Photoshop. Photoshop được coi là nhà ảo thuật hình ảnh, cung cấp khả năng xử lý ảnh từ những chức năng đơn giản nhất như cắt, thay đổi kích thước tới những xử lý phức tạp dùng các hiệu ứng cho ảnh. Môn học chủ yếu chỉ tập trung vào dạy những kỹ năng xử lý ảnh căn bản để ứng dụng cho việc xử lý ảnh cho trang web sau này.</v>
+        <v>Module/môn học này sẽ đề cập những chủ đề sau : 
+A. Tìm hiểu tổng quan về mỹ thuật và mỹ thuật ứng dụng
+- Lịch sử thiết kế và thiết kế đồ họa.
+- Sự khác nhau giữa nghệ thuật và nghệ thuật ứng dụng
+- Giá trị mang lại của nghệ thuật ứng dụng.
+B. Tìm hiểu về  nguyên lý thị giác  và các  nguyên lý tạo hình  mỹ thuật và mỹ thuật ứng dụng
++ Điểm
++ Đường nét
++ Hình khối
++ Chất liệu
++ Màu sắc
++ Phối cảnh không gian
+C. Tìm hiểu về các dạng thức bố cục và quy luật bố cục trong thiết kế
+trong thiết kế 2D và 3D
++ Luật nhấn mạnh
++ Luật cân bằng
++Luật đồng nhất
++ Luật nhịp điệu
++ Luật đơn giản
+E. Tìm hiểu về các bước hình thành một thiết kế.
+D. Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0</v>
       </c>
     </row>
     <row spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25" r="14">
@@ -1182,7 +1202,6 @@
 - Sử dụng giáo trình, các tài nguyên đi kèm (nếu có) và tìm kiếm thêm các tài nguyên tham khảo từ các nguồn khác nhau để hoàn thiện kiến thức
 - Truy cập website tài nguyên (http://lms.poly.edu.vn) để có thông tin và tài nguyên cập nhật nhất của khóa học
 - Truy cập website quản lý khóa học (http://ap.poly.edu.vn) để có lịch học và kết quả điểm
-- Truy cập website cms.poly.edu.vn để học các bài học online
 - Email cho giảng viên khi có câu hỏi thắc mắc ngoài giờ học.</v>
       </c>
     </row>
@@ -1194,7 +1213,7 @@
         <v>Tools</v>
       </c>
       <c r="C15" s="8" t="str">
-        <v>Photoshop</v>
+        <v>Bút chì từ 2B_4B, thước thẳng, thước góc, thước đo tọa độ, gôm. Giấy vẽ chì loại dày và nhám.</v>
       </c>
     </row>
     <row spans="1:3" ht="15" x14ac:dyDescent="0.25" r="16">
@@ -1208,11 +1227,10 @@
         <v>1. Điều kiện dự thi cuối môn: 
 - Trung bình cộng (theo trọng số) các thành phần điểm quá trình tối thiểu là 5
 - Tham dự tối thiểu 80% số giờ trên lớp
-- Hoàn thành 100% các bài học online trên CMS
 2. Điều kiện qua môn:
 - Điểm đánh giá cuối môn (Final Exam) tối thiểu là 5
 - Tổng điểm môn tối thiểu là 5
-3. Xem thêm phần cơ cấu điểm đánh giá (Grading Structure)</v>
+3. Xem chi tiết ở phần cơ cấu điểm (Grading Structure)</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="17">
@@ -1245,7 +1263,7 @@
         <v>Approved date</v>
       </c>
       <c r="C19" s="13" t="str">
-        <v>2022-11-30 00:00:00</v>
+        <v>2022-06-12 00:00:00</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="20">
@@ -1262,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1322,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <v>Slide (07)</v>
+        <v>Slide (8)</v>
       </c>
       <c r="C2" s="15" t="str">
         <v/>
@@ -1354,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
-        <v>Lab (07)</v>
+        <v>Lab (8)</v>
       </c>
       <c r="C3" s="15" t="str">
         <v/>
@@ -1386,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
-        <v>Quiz (07)</v>
+        <v>Quiz (8)</v>
       </c>
       <c r="C4" s="15" t="str">
         <v/>
@@ -1418,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
-        <v>Assigment (01)</v>
+        <v>Assignment (1)</v>
       </c>
       <c r="C5" s="15" t="str">
         <v/>
@@ -1450,9 +1468,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
-        <v>Thiết kế hình ảnh với Photoshop (Bộ 2 tập): 
-+ Thiết kế hình ảnh cơ bản với Photoshop
-+ Thiết kế hình ảnh nâng cao với Photoshop </v>
+        <v>Tài liệu tổng hợp</v>
       </c>
       <c r="C6" s="15" t="str">
         <v>Textbook</v>
@@ -1461,181 +1477,21 @@
         <v/>
       </c>
       <c r="E6" s="15" t="str">
-        <v>Hardcopy</v>
+        <v>Online</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>Xuất bản chính thức</v>
+        <v>LMS</v>
       </c>
       <c r="G6" s="15" t="str">
         <v/>
       </c>
       <c r="H6" s="15" t="str">
-        <v>Wiley</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
-        <v>2015-01-01 00:00:00</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <v>11</v>
-      </c>
-      <c r="G7" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15" t="str">
-        <v>0001-01-01 00:00:00</v>
-      </c>
-      <c r="J7" s="15" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <v/>
-      </c>
-      <c r="G8" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="str">
-        <v>0001-01-01 00:00:00</v>
-      </c>
-      <c r="J8" s="15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="9">
-      <c r="A9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <v/>
-      </c>
-      <c r="G9" s="15" t="str">
-        <v>11</v>
-      </c>
-      <c r="H9" s="15" t="str">
-        <v/>
-      </c>
-      <c r="I9" s="15" t="str">
-        <v>2023-11-01 00:00:00</v>
-      </c>
-      <c r="J9" s="15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="10">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <v/>
-      </c>
-      <c r="G10" s="15" t="str">
-        <v/>
-      </c>
-      <c r="H10" s="15" t="str">
-        <v/>
-      </c>
-      <c r="I10" s="15" t="str">
-        <v>2023-11-01 00:00:00</v>
-      </c>
-      <c r="J10" s="15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="11">
-      <c r="A11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F11" s="7" t="str">
-        <v/>
-      </c>
-      <c r="G11" s="15" t="str">
-        <v/>
-      </c>
-      <c r="H11" s="15" t="str">
-        <v/>
-      </c>
-      <c r="I11" s="15" t="str">
-        <v>2023-11-01 00:00:00</v>
-      </c>
-      <c r="J11" s="15" t="str">
         <v/>
       </c>
     </row>
@@ -1646,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1681,7 +1537,7 @@
         <v>CLO1</v>
       </c>
       <c r="C2" s="23" t="str">
-        <v>Giới thiệu Photoshop: Làm quen giao diện Photoshop; Giới thiệu một số thay đổi trong CS6</v>
+        <v>Tổng quan về mỹ thuật và mỹ thuật ứng dụng</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="3">
@@ -1692,7 +1548,7 @@
         <v>CLO2</v>
       </c>
       <c r="C3" s="23" t="str">
-        <v>Bridge và các thao tác cơ bản: Làm việc với Bridge; Các thao tác cắt ghép cơ bản</v>
+        <v>Nhận diện thẩm mỹ, thiết kế thị giác, nguyên lý tạo hình: Phân tích đánh giá về thẩm mỹ; có tư duy, kỹ năng tạo hình trong -thiết kế thị giác; Có tư duy sáng tạo trong việc tìm kiếm các giải pháp thiết kế thị giác; Sử dụng nguyên lý tạo hình hiệu quả trong thiết kế; Có kỹ năng và tư duy mầu sắc trong thiết kế trang trí</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="4">
@@ -1703,7 +1559,7 @@
         <v>CLO3</v>
       </c>
       <c r="C4" s="23" t="str">
-        <v>Sử dụng công cụ lựa chọn và công cụ Pen: Làm việc với công cụ Pen; Công cụ quan trọng trng Photoshop</v>
+        <v>Bố cục, phối cảnh, phác thảo ý tưởng, phối hợp chất liệu, phân tích và đánh giá thẩm mỹ: Nắm vững các quy luật bố cục trong thiết kế thị giác; phối cảnh không gian trên 2D và 3D; Có kỹ năng tư duy sáng tạo và phát thảo ý tưởng thiết kế; Hiểu và định hướng được nghề nghiệp trong tương lai để tìm cho mình một giải pháp tối ưu; Vận dụng và phối hợp được các chất liệu trong thiết kế đồ hoạ; Ứng dụng được các yếu tố tạo hình trong thiết kế đồ hoạ; Phân tích và đánh giá thẩm mĩ</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1714,7 +1570,7 @@
         <v>CLO4</v>
       </c>
       <c r="C5" s="23" t="str">
-        <v>Cách tô màu và chỉnh sửa ảnh: Làm việc với công việc tô màu; Phục chế, tạo hiệu ứng hình ảnh</v>
+        <v>Tìm hiểu các bước hình thành một thiết kế</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1725,29 +1581,7 @@
         <v>CLO5</v>
       </c>
       <c r="C6" s="23" t="str">
-        <v>Layer: Làm việc với Layer; Bảng Layer</v>
-      </c>
-    </row>
-    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="str">
-        <v>CLO6</v>
-      </c>
-      <c r="C7" s="23" t="str">
-        <v>Smart Object và bộ lọc trong Photoshop: Đối tượng Smart Object; Tạo bộ lọc</v>
-      </c>
-    </row>
-    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="str">
-        <v>CLO7</v>
-      </c>
-      <c r="C8" s="23" t="str">
-        <v>Thiết kế web thông qua công cụ Photoshop: Tạo ảnh dùng cho web; Tạo video bằng Photoshop</v>
+        <v>Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1861,55 +1695,44 @@
       </c>
       <c r="C2" s="7" t="str">
         <v>Giới thiệu môn học: Syllabus, Mục tiêu môn học, Assignment
- Giới thiệu các bài giảng điện tử và hướng dẫn sinh viên 
-. Giới thiệu cơ bản về Assignment
-. Giới thiệu cơ bản về phần mềm Adobe Photoshop
-</v>
+Slide1.1 : 
+- Lịch sử mỹ thuật
+- Lịch sử mỹ thuật công nghiệp.
+- Design công nghiệp (Industrial design) 
+- Design đồ họa (Graphic design) 
+- Phong cách trẻ - Nghệ thuật mới</v>
       </c>
       <c r="D2" s="31" t="str">
         <v>CLO1</v>
       </c>
       <c r="E2" s="31" t="str">
-        <v>IT</v>
+        <v>ITU</v>
       </c>
       <c r="F2" s="7" t="str">
-        <v>Syllabus, Assignment</v>
+        <v>Slide1</v>
       </c>
       <c r="G2" s="37" t="str">
-        <v>-Giới thiệu Syllabus
--Giới thiệu Assignment
-- Hướng dẫn truy cập LMS và tự học với bài giảng điện tử
-- Giới thiệu bài giảng điện tử tại lớp
-- Hướng dẫn về hình thức và cách làm các bài kiểm tra đánh giá, cấu trúc đánh giá
-- Chia nhóm và giao chủ đề.
-- Giới thiệu phương thức đánh giá
-- Chia nhóm / chọn chuyên đề / đăng ký lịch trình bày.
-- Giới thiệu cách học online và cách tính điểm / điểm danh cho giờ học online
-- Giới thiệu bài học online tiếp theo
-- Giảng viên nên kết hợp nội dung Assignment với các nội dung liên quan trong các buổi học
+        <v>Giới thiệu Sylabus
+- Slide1.1
+- Thực hành làm quen nhóm
 * Phân bổ thời gian:
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (2 giờ): Thực hiện assignment được giao</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H2" s="7" t="str">
-        <v>Syllabus, Assignment</v>
+        <v>Slide1</v>
       </c>
       <c r="I2" s="37" t="str">
-        <v>-Giới thiệu Syllabus
--Giới thiệu Assignment
-- Hướng dẫn truy cập LMS và tự học với bài giảng điện tử
-- Giới thiệu bài giảng điện tử tại lớp
-- Hướng dẫn về hình thức và cách làm các bài kiểm tra đánh giá, cấu trúc đánh giá
-- Chia nhóm và giao chủ đề.
-- Giới thiệu phương thức đánh giá
-- Chia nhóm / chọn chuyên đề / đăng ký lịch trình bày.
-- Giới thiệu cách học online và cách tính điểm / điểm danh cho giờ học online
-- Giới thiệu bài học online tiếp theo
-- Giảng viên nên kết hợp nội dung Assignment với các nội dung liên quan trong các buổi học
+        <v>Giới thiệu Sylabus
+- Slide1.1
+- Thực hành làm quen nhóm
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J2" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1926,45 +1749,45 @@
         <v>Online</v>
       </c>
       <c r="C3" s="7" t="str">
-        <v>Slide 1: .  Giới thiệu cơ bản về Photoshop 
-. Tìm hiểu về Photoshop
-. Tìm hiểu về không gian làm việc</v>
+        <v>Slide1.2
+- Tầm quan trọng của thiết kế đồ họa 
+- Phong  cách và thể hiện phong cách trong thiết kế
+- Thị hiếu thẩm mỹ và phong cách trong thiết kế</v>
       </c>
       <c r="D3" s="31" t="str">
         <v>CLO1</v>
       </c>
       <c r="E3" s="31" t="str">
-        <v>IT</v>
+        <v>ITU</v>
       </c>
       <c r="F3" s="7" t="str">
-        <v>Slide1</v>
+        <v>Slide1
+Lab1
+Quiz1</v>
       </c>
       <c r="G3" s="37" t="str">
-        <v>-Slide1
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Photoshop CS6
-. Không gian làm việc
--Giảng viên dẫn sinh viên thực hiện được được các thao tác cơ bản trên phần mềm sau khi học Bài giảng trên lớp 1. Cho bài tập để sinh viên thực hành tại lớp
+        <v>Slide1.2 
+- Thực hành 
+- Thảo luận về phong cách và thị hiếu thẩm mỹ (nhóm 5-7 sinh viên)
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H3" s="7" t="str">
-        <v>Slide1</v>
+        <v>Slide1
+Lab1
+Quiz1</v>
       </c>
       <c r="I3" s="37" t="str">
-        <v>-Slide1
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Photoshop CS6
-. Không gian làm việc
--Giảng viên dẫn sinh viên thực hiện được được các thao tác cơ bản trên phần mềm sau khi học Bài giảng trên lớp 1. Cho bài tập để sinh viên thực hành tại lớp
+        <v>Slide1.2 
+- Thực hành - thảo luận về phong cách và thị hiêu thẩm mỹ (nhóm 5-7 sinh viên)
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J3" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1981,40 +1804,44 @@
         <v>Online</v>
       </c>
       <c r="C4" s="7" t="str">
-        <v>Slide 1: .  Giới thiệu cơ bản về Photoshop</v>
+        <v>Slide 2.1  
+Nguyên lý thị giác và các nguyên lý tạo hình mỹ thuật và mỹ thuật ứng dụng:
++ Điểm
++ Đường nét
++ Hình khối
++ Chất liệu
++ Màu sắc
++ Phối cảnh không gian</v>
       </c>
       <c r="D4" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO2</v>
       </c>
       <c r="E4" s="31" t="str">
-        <v>ITU</v>
+        <v>T</v>
       </c>
       <c r="F4" s="7" t="str">
-        <v>Lab1, Quiz1, Assignment</v>
+        <v>Slide2</v>
       </c>
       <c r="G4" s="37" t="str">
-        <v>-Lab 1
--Quiz 1
-- Hướng dẫn sinh viên thực hiện được bài lab
-- Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide2.1 
+Lab1 - Sinh viên sưu tầm hình ảnh chân dung và chuẩn bị dụng cụ vẽ
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H4" s="7" t="str">
-        <v>Lab1, Quiz1, Assignment</v>
+        <v>Slide2</v>
       </c>
       <c r="I4" s="37" t="str">
-        <v>-Lab 1
--Quiz 1
-- Hướng dẫn sinh viên thực hiện được bài lab
-- Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide2.1 
+ Lab1 - Sinh viên sưu tầm hình ảnh chân dung và chuẩn bị dụng cụ vẽ
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J4" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2031,48 +1858,43 @@
         <v>Online</v>
       </c>
       <c r="C5" s="7" t="str">
-        <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop 
-. Sử dụng Adobe Bridge
-. Các thao tác cắt ghép cơ bản
-</v>
+        <v>Slide 2.2  
+Ứng dụng nguyên lý tạo hình trong thiết kế và trang trí.</v>
       </c>
       <c r="D5" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO2 
+CLO3</v>
       </c>
       <c r="E5" s="31" t="str">
-        <v>TU</v>
+        <v>ITU</v>
       </c>
       <c r="F5" s="7" t="str">
-        <v>Slide2</v>
+        <v>Slide2
+Lab2
+Quiz2</v>
       </c>
       <c r="G5" s="37" t="str">
-        <v>-Slide2
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Chương 3: Sử dụng Adobe Bridge
-. Hoặc Chương 3: Tận dụng lợi thế của Adobe Bridge
-. Chương 4: Các thao tác cơ bản trong Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 2.2 
+Sửa bài lab2
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H5" s="7" t="str">
-        <v>Slide2</v>
+        <v>Slide2
+Lab2
+Quiz2</v>
       </c>
       <c r="I5" s="37" t="str">
-        <v>-Slide2
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Chương 3: Sử dụng Adobe Bridge
-. Hoặc Chương 3: Tận dụng lợi thế của Adobe Bridge
-. Chương 4: Các thao tác cơ bản trong Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 2.2 
+Sửa bài lab1
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J5" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2089,44 +1911,43 @@
         <v>Online</v>
       </c>
       <c r="C6" s="7" t="str">
-        <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop</v>
+        <v>Slide 3.1 
+- Màu sắc và cảm tâm lý cảm thụ màu sắc.
+- Tâm lý học màu sắc.
+- Những ảnh hưởng màu sắc.
+- Gam màu và tone màu
+- Ý nghĩa của các màu sắc được ứng dụng trên thực tế</v>
       </c>
       <c r="D6" s="31" t="str">
-        <v>CLO2</v>
+        <v>CLO2 
+CLO3</v>
       </c>
       <c r="E6" s="31" t="str">
-        <v>ITU</v>
+        <v>T</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>Lab2, Quiz2</v>
+        <v>Slide3</v>
       </c>
       <c r="G6" s="37" t="str">
-        <v>-Lab 2
--Quiz2
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 3.1 
+Tìm hiểu về xu hướng màu sắc của năm. Tác động của xu hướng màu lên thiết kế.
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H6" s="7" t="str">
-        <v>Lab2, Quiz2</v>
+        <v>Slide3</v>
       </c>
       <c r="I6" s="37" t="str">
-        <v>-Lab 2
--Quiz2
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 3.1 
+Tìm hiểu về xu hướng màu sắc của năm. Tác động của xu hướng màu lên thiết kế.
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J6" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2143,44 +1964,42 @@
         <v>Online</v>
       </c>
       <c r="C7" s="7" t="str">
-        <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
-. Tạo vùng chọn hoàn hảo nhất
-. Sử dụng công cụ Pen
-. Các công cụ quan trọng trong Photoshop </v>
+        <v>Slide 3.2 
+Sử dụng màu sắc trong thiết kế.</v>
       </c>
       <c r="D7" s="31" t="str">
         <v>CLO3</v>
       </c>
       <c r="E7" s="31" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F7" s="7" t="str">
-        <v>Slide3</v>
+        <v>Slide3
+Lab3
+Quiz3</v>
       </c>
       <c r="G7" s="37" t="str">
-        <v>-Slide3(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 5: Tạo vùng chọn hoàn hảo nhất
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 3.2 
+Sửa bài lab3
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H7" s="7" t="str">
-        <v>Slide3</v>
+        <v>Slide3
+Lab3
+Quiz3</v>
       </c>
       <c r="I7" s="37" t="str">
-        <v>-Slide3(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 5: Tạo vùng chọn hoàn hảo nhất
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 3.2 
+Sửa bài lab2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J7" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2197,55 +2016,45 @@
         <v>Online</v>
       </c>
       <c r="C8" s="7" t="str">
-        <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
- Nộp bài Assignment giai đoạn 1</v>
+        <v>Slide 4.1 
+ Nguyên tắc phối mầu trong mỹ thuật và thiết kế
+- Phối mầu không sắc
+- Phối mầu tương đồng
+- Phối mầu bổ xung
+- Phối mầu chỏi
+- Phối mầu trung tính
+- Phối mầu thứ cấp
+</v>
       </c>
       <c r="D8" s="31" t="str">
-        <v>CLO1,
-CLO2,
-CLO3</v>
+        <v>CLO3</v>
       </c>
       <c r="E8" s="31" t="str">
-        <v>ITU</v>
+        <v>T</v>
       </c>
       <c r="F8" s="7" t="str">
-        <v>Lab3, Quiz3
-Assignment GĐ1</v>
+        <v>Slide4</v>
       </c>
       <c r="G8" s="37" t="str">
-        <v>-Lab3
--Quiz3
--Sinh viên
-.Đọc lại các phần lý thuyết trong SGK
-.Trả lời câu hỏi và làm bài tập
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ1
+        <v>Slide 4.1
+Tìm kiếm ý tưởng cho mẫu trang trí màu sắc.
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (2 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H8" s="7" t="str">
-        <v>Lab3, Quiz3
-Assignment GĐ1</v>
+        <v>Slide4</v>
       </c>
       <c r="I8" s="37" t="str">
-        <v>-Lab3
--Quiz3
--Sinh viên
-.Đọc lại các phần lý thuyết trong SGK
-.Trả lời câu hỏi và làm bài tập
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ1
+        <v>Slide 4.1
+Lab3.  tìm kiếm ý tưởng cho mẫu trang trí màu sắc.
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J8" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2262,46 +2071,47 @@
         <v>Online</v>
       </c>
       <c r="C9" s="7" t="str">
-        <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop 
-. Tô màu ảnh
-. Chỉnh sửa ảnh
-</v>
+        <v>Slide 4.2:  Thực hành 3
+- Thực hành các nguyên tắc phối mầu: không sắc; tương đồng; bổ xung
+- Thực hành nguyên tắc phối mầu: tương phản; trung tính; đơn sắc; và phối mầu thứ cấp.
+- GV hướng dẫn và sửa bài</v>
       </c>
       <c r="D9" s="31" t="str">
-        <v>CLO4</v>
+        <v>CLO3</v>
       </c>
       <c r="E9" s="31" t="str">
-        <v>TU</v>
+        <v>ITU</v>
       </c>
       <c r="F9" s="7" t="str">
-        <v>Slide4</v>
+        <v>Slide4
+Lab4
+Quiz4
+Assignment giai đoạn 1</v>
       </c>
       <c r="G9" s="37" t="str">
-        <v>-Slide4(P2)
--Sinh viên đọc trước:
-.Chương 6: Tô màu và chỉnh sửa ảnh
-.Chương 7: Tạo một bức ảnh hoàn hảo
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 4.2
+Thực hành Lab4
+Assignment giai đoạn 1
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H9" s="7" t="str">
-        <v>Slide4</v>
+        <v>Slide4
+Lab4
+Quiz4
+Assignment giai đoạn 1</v>
       </c>
       <c r="I9" s="37" t="str">
-        <v>-Slide4(P2)
--Sinh viên đọc trước:
-.Chương 6: Tô màu và chỉnh sửa ảnh
-.Chương 7: Tạo một bức ảnh hoàn hảo
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 4.2
+Thực hành  Lab3
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J9" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2318,44 +2128,43 @@
         <v>Online</v>
       </c>
       <c r="C10" s="7" t="str">
-        <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop</v>
+        <v>Slide 5.1 : Bố cục và bố cục tạo hình trên mặt phẳng 2D và không gian 3D.
+- Bố cục tỷ lệ vàng và ứng dụng của tỷ lệ vàng
+- Phương pháp tìm kiếm giải pháp bố cục theo bố cục tỷ lệ vàng.
++ Luật nhấn mạnh
++ Luật cân bằng
++ Luật đồng nhất
++ Luật nhịp điệu
++ Luật đơn giản</v>
       </c>
       <c r="D10" s="31" t="str">
-        <v>CLO4</v>
+        <v>CLO3</v>
       </c>
       <c r="E10" s="31" t="str">
         <v>ITU</v>
       </c>
       <c r="F10" s="7" t="str">
-        <v>Lab4, Quiz4</v>
+        <v>Slide5</v>
       </c>
       <c r="G10" s="37" t="str">
-        <v>-Lab4
--Quiz4
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 5.1
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H10" s="7" t="str">
-        <v>Lab4, Quiz4</v>
+        <v>Slide5</v>
       </c>
       <c r="I10" s="37" t="str">
-        <v>-Lab4
--Quiz4
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 5.1
+Thực hành  Lab3
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J10" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2372,45 +2181,42 @@
         <v>Online</v>
       </c>
       <c r="C11" s="7" t="str">
-        <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop 
-. Tìm hiểu về Layer
-. Sử dụng layer hiệu quả</v>
+        <v>Slide 5.2:  Thực hành 5.1
+ - GV hướng dẫn sinh viên vẽ ngoại cảnh góc phố với phối cảnh 3 điểm tụ.(thời gian linh động)</v>
       </c>
       <c r="D11" s="31" t="str">
-        <v>CLO5</v>
+        <v>CLO4</v>
       </c>
       <c r="E11" s="31" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F11" s="7" t="str">
-        <v>Slide5</v>
+        <v>Slide5
+Lab5
+Quiz5</v>
       </c>
       <c r="G11" s="37" t="str">
-        <v>-Slide5(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 8: Tìm hiểu về Layer
-.Chương 9: Sử dụng layer hiệu quả
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 5.2
+Thực hành Lab5
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H11" s="7" t="str">
-        <v>Slide5</v>
+        <v>Slide5
+Lab5
+Quiz5</v>
       </c>
       <c r="I11" s="37" t="str">
-        <v>-Slide5(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 8: Tìm hiểu về Layer
-.Chương 9: Sử dụng layer hiệu quả
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 5.2
+thực hành  Lab3
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J11" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2427,44 +2233,44 @@
         <v>Online</v>
       </c>
       <c r="C12" s="7" t="str">
-        <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop</v>
+        <v>Slide 6.1  Thiết kế và giải pháp thiết kế: 
+- Phương pháp quan sát thiên nhiên và tả thực thiên nhiên hoa lá.
+- Phương pháp tả thực
+- Phương pháp diễn họa mảng
+- Phương pháp diễn họa nét</v>
       </c>
       <c r="D12" s="31" t="str">
-        <v>CLO5</v>
+        <v>CLO4</v>
       </c>
       <c r="E12" s="31" t="str">
         <v>ITU</v>
       </c>
       <c r="F12" s="7" t="str">
-        <v>Lab5, Quiz5</v>
+        <v>Slide6</v>
       </c>
       <c r="G12" s="37" t="str">
-        <v>-Lab5
--Quiz5
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 6.1 
+-Sửa và góp ý thực hành 5
+-Sinh viên tìm và vẽ tả thực hoa lá
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H12" s="7" t="str">
-        <v>Lab5, Quiz5</v>
+        <v>Slide6</v>
       </c>
       <c r="I12" s="37" t="str">
-        <v>-Lab5
--Quiz5
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 6.1 
+Sửa và góp ý thực hành 5.1
+ Lab6 
+ sinh viên tìm và vẽ tả thực hoa lá
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J12" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2481,45 +2287,45 @@
         <v>Online</v>
       </c>
       <c r="C13" s="7" t="str">
-        <v>Slide 6: -  Làm việc với Smart Object và bộ lọc trong Photoshop 
-. Smart Object
-. Bộ lọc</v>
+        <v>
+ Slide 6.2 
+- Phương pháp cách điệu mỹ thuật
+- Phương pháp cách điệu logo
+</v>
       </c>
       <c r="D13" s="31" t="str">
-        <v>CLO6</v>
+        <v>CLO4</v>
       </c>
       <c r="E13" s="31" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F13" s="7" t="str">
-        <v>Slide6</v>
+        <v>Slide6
+Lab6
+Quiz6</v>
       </c>
       <c r="G13" s="37" t="str">
-        <v>-Slide6(P2)
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 10: Làm quen với Smart Object trong Photoshop
-.Chương 11: Sử dụng các bộ lọc trong Adobe Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 6.2
+Sửa và góp ý  Lab6
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H13" s="7" t="str">
-        <v>Slide6</v>
+        <v>Slide6
+Lab6
+Quiz6</v>
       </c>
       <c r="I13" s="37" t="str">
-        <v>-Slide6(P2)
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 10: Làm quen với Smart Object trong Photoshop
-.Chương 11: Sử dụng các bộ lọc trong Adobe Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 6.2
+sửa và góp ý  Lab6
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J13" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2536,49 +2342,38 @@
         <v>Online</v>
       </c>
       <c r="C14" s="7" t="str">
-        <v>Slide 6:  - Làm việc với Smart Object và bộ lọc trong Photoshop 
- Nộp bài Assignment giai đoạn 2</v>
+        <v>Slide 7.1   
+Phương pháp thiết kế 8 bước</v>
       </c>
       <c r="D14" s="31" t="str">
-        <v>CLO7</v>
+        <v>CLO4</v>
       </c>
       <c r="E14" s="31" t="str">
         <v>ITU</v>
       </c>
       <c r="F14" s="7" t="str">
-        <v>Lab6, Quiz6
-Assignment GĐ2</v>
+        <v>Slide7</v>
       </c>
       <c r="G14" s="37" t="str">
-        <v>-Lab6
--Quiz6
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ2
+        <v>Slide 7.1
+sửa và góp ý Lab6 (TT)
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (2 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H14" s="7" t="str">
-        <v>Lab6, Quiz6
-Assignment GĐ2</v>
+        <v>Slide7</v>
       </c>
       <c r="I14" s="37" t="str">
-        <v>-Lab6
--Quiz6
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ2
+        <v>Slide 7.1
+sửa và góp ý Lab6 (TT)
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J14" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2595,45 +2390,44 @@
         <v>Online</v>
       </c>
       <c r="C15" s="7" t="str">
-        <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop 
-. Tạo ảnh cho web và video
-. Giới thiệu tính năng 3D</v>
+        <v>Slide 7.2  
+Thực hành  7.1</v>
       </c>
       <c r="D15" s="31" t="str">
-        <v>CLO7</v>
+        <v>CLO4</v>
       </c>
       <c r="E15" s="31" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F15" s="7" t="str">
-        <v>Slide7</v>
+        <v>Slide7
+Lab7
+Quiz7
+Assignment giai đoạn 2</v>
       </c>
       <c r="G15" s="37" t="str">
-        <v>-Slide7
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 12: Tạo ảnh cho web và video
-.Chương 13: Giới thiệu tính năng 3D
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 7.2
+Thực hành Lab7
+Assignment giai đoạn 2
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H15" s="7" t="str">
-        <v>Slide7</v>
+        <v>Slide7
+Lab7
+Quiz7</v>
       </c>
       <c r="I15" s="37" t="str">
-        <v>-Slide7
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 12: Tạo ảnh cho web và video
-.Chương 13: Giới thiệu tính năng 3D
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 7.2
+Thực hành 7.2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J15" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2650,46 +2444,38 @@
         <v>Online</v>
       </c>
       <c r="C16" s="7" t="str">
-        <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop</v>
+        <v>Slide 8.1: Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0
+ - Cần khuyến khích học sinh thử nghiệm và đổi mới, kích thích tư duy, khả năng giao tiếp, hợp tác, giải quyết vấn đề.</v>
       </c>
       <c r="D16" s="31" t="str">
-        <v>CLO7</v>
+        <v>CLO5</v>
       </c>
       <c r="E16" s="31" t="str">
         <v>ITU</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>Lab7, Quiz7</v>
+        <v>Slide8</v>
       </c>
       <c r="G16" s="37" t="str">
-        <v>-Lab7
--Quiz7
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Nhận xét về sản phẩm assignment
+        <v>Slide 8.1
+sửa và góp ý Thực hành 7.2
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H16" s="7" t="str">
-        <v>Lab7, Quiz7</v>
+        <v>Slide8</v>
       </c>
       <c r="I16" s="37" t="str">
-        <v>-Lab7
--Quiz7
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Nhận xét về sản phẩm assignment
+        <v>Slide 8.1
+sửa và góp ý Thực hành 7.2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J16" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2706,35 +2492,43 @@
         <v>Online</v>
       </c>
       <c r="C17" s="7" t="str">
-        <v>Duyệt lại bài Assignment 
-Chuẩn bị bài Assignment hoàn chỉnh nộp lên LMS trước buổi thi 3 ngày</v>
+        <v>Slide 8.2 
+- Định hướng nghiên cứu và phát triển tổng thể về ngành học cho sinh viên; phương pháp học và tra cứu.
+– Cảm nhận, trao đổi các vấn đề thẩm mỹ thông qua thực hành, sáng tạo và tìm hiểu, khám phá các phong cách, giá trị thẩm mỹ từ những tác phẩm
+ - Phương pháp tra cứu tài liệu.
+</v>
       </c>
       <c r="D17" s="31" t="str">
-        <v>All CLOs</v>
+        <v>CLO5</v>
       </c>
       <c r="E17" s="31" t="str">
         <v>ITU</v>
       </c>
       <c r="F17" s="7" t="str">
-        <v>Assignment </v>
+        <v>Slide8
+Lab8
+Quiz8</v>
       </c>
       <c r="G17" s="37" t="str">
-        <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
--Xem bài Assignment của sinh viên, và góp ý chỉnh sửa cho từng bài
+        <v>Tổng kết môn
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H17" s="7" t="str">
-        <v>Assignment </v>
+        <v>Slide8
+Lab8
+Quiz8</v>
       </c>
       <c r="I17" s="37" t="str">
-        <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
--Xem bài Assignment của sinh viên, và góp ý chỉnh sửa cho từng bài
+        <v>Tổng kết môn
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J17" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2904,7 +2698,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -2990,10 +2784,10 @@
         <v>On-going</v>
       </c>
       <c r="D2" s="31" t="n">
-        <v>21.00</v>
+        <v>28.00</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="31" t="n">
         <v>0</v>
@@ -3037,7 +2831,7 @@
         <v>On-going</v>
       </c>
       <c r="D3" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E3" s="31" t="n">
         <v>1</v>
@@ -3049,7 +2843,7 @@
         <v>2h</v>
       </c>
       <c r="H3" s="31" t="str">
-        <v>CLO1</v>
+        <v>CLO2</v>
       </c>
       <c r="I3" s="31" t="str">
         <v>Bài tập</v>
@@ -3068,7 +2862,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N3" s="36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="15" t="str">
         <v>Lab</v>
@@ -3085,7 +2879,7 @@
         <v>On-going</v>
       </c>
       <c r="D4" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E4" s="31" t="n">
         <v>1</v>
@@ -3116,7 +2910,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N4" s="36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" s="15" t="str">
         <v>Lab</v>
@@ -3133,7 +2927,7 @@
         <v>On-going</v>
       </c>
       <c r="D5" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E5" s="31" t="n">
         <v>1</v>
@@ -3145,7 +2939,7 @@
         <v>2h</v>
       </c>
       <c r="H5" s="31" t="str">
-        <v>CLO3</v>
+        <v>CLO2</v>
       </c>
       <c r="I5" s="31" t="str">
         <v>Bài tập</v>
@@ -3164,7 +2958,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N5" s="36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="15" t="str">
         <v>Lab</v>
@@ -3181,7 +2975,7 @@
         <v>On-going</v>
       </c>
       <c r="D6" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E6" s="31" t="n">
         <v>1</v>
@@ -3193,7 +2987,7 @@
         <v>2h</v>
       </c>
       <c r="H6" s="31" t="str">
-        <v>CLO4</v>
+        <v>CLO2</v>
       </c>
       <c r="I6" s="31" t="str">
         <v>Bài tập</v>
@@ -3212,7 +3006,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N6" s="36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" s="15" t="str">
         <v>Lab</v>
@@ -3229,7 +3023,7 @@
         <v>On-going</v>
       </c>
       <c r="D7" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E7" s="31" t="n">
         <v>1</v>
@@ -3241,7 +3035,7 @@
         <v>2h</v>
       </c>
       <c r="H7" s="31" t="str">
-        <v>CLO5</v>
+        <v>CLO2</v>
       </c>
       <c r="I7" s="31" t="str">
         <v>Bài tập</v>
@@ -3260,7 +3054,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N7" s="36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" s="15" t="str">
         <v>Lab</v>
@@ -3277,7 +3071,7 @@
         <v>On-going</v>
       </c>
       <c r="D8" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E8" s="31" t="n">
         <v>1</v>
@@ -3289,7 +3083,7 @@
         <v>2h</v>
       </c>
       <c r="H8" s="31" t="str">
-        <v>CLO6</v>
+        <v>CLO2</v>
       </c>
       <c r="I8" s="31" t="str">
         <v>Bài tập</v>
@@ -3308,7 +3102,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N8" s="36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="15" t="str">
         <v>Lab</v>
@@ -3325,7 +3119,7 @@
         <v>On-going</v>
       </c>
       <c r="D9" s="31" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E9" s="31" t="n">
         <v>1</v>
@@ -3337,7 +3131,7 @@
         <v>2h</v>
       </c>
       <c r="H9" s="31" t="str">
-        <v>CLO7</v>
+        <v>CLO3</v>
       </c>
       <c r="I9" s="31" t="str">
         <v>Bài tập</v>
@@ -3356,7 +3150,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N9" s="36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="15" t="str">
         <v>Lab</v>
@@ -3367,46 +3161,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Quiz</v>
+        <v>Lab 8</v>
       </c>
       <c r="C10" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D10" s="31" t="n">
-        <v>19.00</v>
+        <v>3.50</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="31" t="str">
-        <v/>
+        <v>2h</v>
       </c>
       <c r="H10" s="31" t="str">
-        <v/>
+        <v>CLO3</v>
       </c>
       <c r="I10" s="31" t="str">
-        <v/>
+        <v>Bài tập</v>
       </c>
       <c r="J10" s="31" t="str">
-        <v/>
+        <v>3-5 bài</v>
       </c>
       <c r="K10" s="7" t="str">
-        <v/>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L10" s="7" t="str">
-        <v/>
+        <v>SV nộp bài để giáo viên chấm
+(thời hạn: cuối giờ hoặc cuối ngày (23h55), hoặc giảng viên quy định phù hợp với thời gian học của lớp)</v>
       </c>
       <c r="M10" s="7" t="str">
-        <v/>
+        <v>Bài nộp trên LMS</v>
       </c>
       <c r="N10" s="36" t="n">
-        <v/>
+        <v>16</v>
       </c>
       <c r="O10" s="15" t="str">
-        <v/>
+        <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="11">
@@ -3414,46 +3209,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Quiz 1</v>
+        <v>Quiz</v>
       </c>
       <c r="C11" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D11" s="31" t="n">
-        <v>2.70</v>
+        <v>12.00</v>
       </c>
       <c r="E11" s="31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="31" t="str">
-        <v>6 phút</v>
+        <v/>
       </c>
       <c r="H11" s="31" t="str">
-        <v>CLO1</v>
+        <v/>
       </c>
       <c r="I11" s="31" t="str">
-        <v>Trắc nghiệm</v>
+        <v/>
       </c>
       <c r="J11" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v/>
       </c>
       <c r="K11" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v/>
       </c>
       <c r="L11" s="7" t="str">
-        <v>Tổ chức tự động trên LMS</v>
+        <v/>
       </c>
       <c r="M11" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v/>
       </c>
       <c r="N11" s="36" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="O11" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="12">
@@ -3461,13 +3256,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Quiz 2</v>
+        <v>Quiz 1</v>
       </c>
       <c r="C12" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D12" s="31" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E12" s="31" t="n">
         <v>1</v>
@@ -3485,7 +3280,7 @@
         <v>Trắc nghiệm</v>
       </c>
       <c r="J12" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K12" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3494,13 +3289,13 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M12" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N12" s="36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O12" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="13">
@@ -3508,13 +3303,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Quiz 3</v>
+        <v>Quiz 2</v>
       </c>
       <c r="C13" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D13" s="31" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E13" s="31" t="n">
         <v>1</v>
@@ -3526,13 +3321,13 @@
         <v>6 phút</v>
       </c>
       <c r="H13" s="31" t="str">
-        <v>CLO3</v>
+        <v>CLO2</v>
       </c>
       <c r="I13" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J13" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K13" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3541,13 +3336,13 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M13" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N13" s="36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O13" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="14">
@@ -3555,13 +3350,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Quiz 4</v>
+        <v>Quiz 3</v>
       </c>
       <c r="C14" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D14" s="31" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E14" s="31" t="n">
         <v>1</v>
@@ -3573,13 +3368,13 @@
         <v>6 phút</v>
       </c>
       <c r="H14" s="31" t="str">
-        <v>CLO4</v>
+        <v>CLO2</v>
       </c>
       <c r="I14" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J14" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K14" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3588,13 +3383,13 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M14" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N14" s="36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O14" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="15">
@@ -3602,13 +3397,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Quiz 5</v>
+        <v>Quiz 4</v>
       </c>
       <c r="C15" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D15" s="31" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E15" s="31" t="n">
         <v>1</v>
@@ -3620,13 +3415,13 @@
         <v>6 phút</v>
       </c>
       <c r="H15" s="31" t="str">
-        <v>CLO5</v>
+        <v>CLO2</v>
       </c>
       <c r="I15" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J15" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K15" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3635,13 +3430,13 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M15" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N15" s="36" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O15" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="16">
@@ -3649,13 +3444,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Quiz 6</v>
+        <v>Quiz 5</v>
       </c>
       <c r="C16" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D16" s="31" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E16" s="31" t="n">
         <v>1</v>
@@ -3667,13 +3462,13 @@
         <v>6 phút</v>
       </c>
       <c r="H16" s="31" t="str">
-        <v>CLO6</v>
+        <v>CLO3</v>
       </c>
       <c r="I16" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J16" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K16" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3682,13 +3477,13 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M16" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N16" s="36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O16" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="17">
@@ -3696,13 +3491,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Quiz 7</v>
+        <v>Quiz 6</v>
       </c>
       <c r="C17" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D17" s="31" t="n">
-        <v>2.80</v>
+        <v>1.50</v>
       </c>
       <c r="E17" s="31" t="n">
         <v>1</v>
@@ -3714,13 +3509,13 @@
         <v>6 phút</v>
       </c>
       <c r="H17" s="31" t="str">
-        <v>CLO7</v>
+        <v>CLO2</v>
       </c>
       <c r="I17" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J17" s="31" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K17" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3729,13 +3524,13 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M17" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N17" s="36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O17" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="18">
@@ -3743,13 +3538,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Bài học online</v>
+        <v>Quiz 7</v>
       </c>
       <c r="C18" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D18" s="31" t="n">
-        <v>0.00</v>
+        <v>1.50</v>
       </c>
       <c r="E18" s="31" t="n">
         <v>1</v>
@@ -3758,31 +3553,31 @@
         <v>0</v>
       </c>
       <c r="G18" s="31" t="str">
-        <v/>
+        <v>6 phút</v>
       </c>
       <c r="H18" s="31" t="str">
-        <v>All CLOs</v>
+        <v>CLO3</v>
       </c>
       <c r="I18" s="31" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J18" s="31" t="str">
-        <v/>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K18" s="7" t="str">
-        <v>Toàn môn học </v>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L18" s="7" t="str">
-        <v>Hoàn thành 100% các bài Quiz online trên hệ thống CMS</v>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M18" s="7" t="str">
-        <v/>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N18" s="36" t="n">
-        <v/>
+        <v>14</v>
       </c>
       <c r="O18" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="19">
@@ -3790,46 +3585,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1</v>
+        <v>Quiz 8</v>
       </c>
       <c r="C19" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D19" s="31" t="n">
-        <v>20.00</v>
+        <v>1.50</v>
       </c>
       <c r="E19" s="31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="31" t="str">
-        <v/>
+        <v>6 phút</v>
       </c>
       <c r="H19" s="31" t="str">
-        <v/>
+        <v>CLO3</v>
       </c>
       <c r="I19" s="31" t="str">
-        <v/>
+        <v>Trắc nghiệm</v>
       </c>
       <c r="J19" s="31" t="str">
-        <v/>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K19" s="7" t="str">
-        <v/>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L19" s="7" t="str">
-        <v/>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M19" s="7" t="str">
-        <v/>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N19" s="36" t="n">
-        <v/>
+        <v>16</v>
       </c>
       <c r="O19" s="15" t="str">
-        <v>Assignment</v>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="20">
@@ -3837,45 +3632,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1 1</v>
+        <v>Assignment</v>
       </c>
       <c r="C20" s="31" t="str">
         <v>On-going</v>
       </c>
       <c r="D20" s="31" t="n">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="E20" s="31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="31" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="31" t="str">
-        <v>2h</v>
+        <v/>
       </c>
       <c r="H20" s="31" t="str">
-        <v>CLO1,
-CLO2,
-CLO3</v>
+        <v/>
       </c>
       <c r="I20" s="31" t="str">
-        <v>Sản phẩm</v>
+        <v/>
       </c>
       <c r="J20" s="31" t="str">
-        <v>1 sản phẩm</v>
+        <v/>
       </c>
       <c r="K20" s="7" t="str">
-        <v>Bài 1 đến bài 3</v>
+        <v/>
       </c>
       <c r="L20" s="7" t="str">
-        <v>Tải từ LMS và chấm đểm ở nhà</v>
+        <v/>
       </c>
       <c r="M20" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
+        <v/>
       </c>
       <c r="N20" s="36" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="O20" s="15" t="str">
         <v>Assignment</v>
@@ -3886,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1 2</v>
+        <v>Assignment 1</v>
       </c>
       <c r="C21" s="31" t="str">
         <v>On-going</v>
@@ -3901,13 +3694,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="31" t="str">
-        <v>2h</v>
+        <v/>
       </c>
       <c r="H21" s="31" t="str">
-        <v>CLO4,
-CLO5,
-CLO6,
-CLO7</v>
+        <v>CLO1-CLO2</v>
       </c>
       <c r="I21" s="31" t="str">
         <v>Sản phẩm</v>
@@ -3916,7 +3706,7 @@
         <v>1 sản phẩm</v>
       </c>
       <c r="K21" s="7" t="str">
-        <v>Bài 4 đến bài 8</v>
+        <v>Bài 1 đến bài 4</v>
       </c>
       <c r="L21" s="7" t="str">
         <v>Tải từ LMS và chấm đểm ở nhà</v>
@@ -3925,7 +3715,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N21" s="36" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O21" s="15" t="str">
         <v>Assignment</v>
@@ -3936,13 +3726,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="str">
-        <v>Bảo vệ assignment</v>
+        <v>Assignment 2</v>
       </c>
       <c r="C22" s="31" t="str">
-        <v>Final Exam</v>
+        <v>On-going</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>40.00</v>
+        <v>10.00</v>
       </c>
       <c r="E22" s="31" t="n">
         <v>1</v>
@@ -3951,32 +3741,128 @@
         <v>0</v>
       </c>
       <c r="G22" s="31" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="31" t="str">
+        <v>CLO3-CLO5</v>
+      </c>
+      <c r="I22" s="31" t="str">
+        <v>Sản phẩm</v>
+      </c>
+      <c r="J22" s="31" t="str">
+        <v>1 sản phẩm</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <v>Bài 4 đến bài 8</v>
+      </c>
+      <c r="L22" s="7" t="str">
+        <v>Tải từ LMS và chấm đểm ở nhà</v>
+      </c>
+      <c r="M22" s="7" t="str">
+        <v>Bài nộp trên LMS</v>
+      </c>
+      <c r="N22" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" s="15" t="str">
+        <v>Assignment</v>
+      </c>
+    </row>
+    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="23">
+      <c r="A23" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <v>Assignment 3</v>
+      </c>
+      <c r="C23" s="31" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>39.00</v>
+      </c>
+      <c r="E23" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="31" t="str">
         <v>2h</v>
       </c>
-      <c r="H22" s="31" t="str">
-        <v>All CLOs</v>
-      </c>
-      <c r="I22" s="31" t="str">
+      <c r="H23" s="31" t="str">
+        <v/>
+      </c>
+      <c r="I23" s="31" t="str">
         <v>Sản phẩm, Slide, Document, Đề thi</v>
       </c>
-      <c r="J22" s="31" t="str">
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
+      <c r="J23" s="31" t="str">
+        <v>Assignment</v>
+      </c>
+      <c r="K23" s="7" t="str">
         <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="L23" s="7" t="str">
         <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
 * Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
 * Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
       </c>
-      <c r="M22" s="7" t="str">
+      <c r="M23" s="7" t="str">
         <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
       </c>
-      <c r="N22" s="36" t="n">
-        <v/>
-      </c>
-      <c r="O22" s="15" t="str">
+      <c r="N23" s="36" t="n">
+        <v/>
+      </c>
+      <c r="O23" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="24">
+      <c r="A24" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <v>Assignment 4</v>
+      </c>
+      <c r="C24" s="31" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1.00</v>
+      </c>
+      <c r="E24" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31" t="str">
+        <v>2h</v>
+      </c>
+      <c r="H24" s="31" t="str">
+        <v/>
+      </c>
+      <c r="I24" s="31" t="str">
+        <v>Sản phẩm, Slide, Document, Đề thi</v>
+      </c>
+      <c r="J24" s="31" t="str">
+        <v>Assignment</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
+      </c>
+      <c r="L24" s="7" t="str">
+        <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
+* Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
+* Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
+      </c>
+      <c r="M24" s="7" t="str">
+        <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
+      </c>
+      <c r="N24" s="36" t="n">
+        <v/>
+      </c>
+      <c r="O24" s="15" t="str">
         <v/>
       </c>
     </row>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -10,10 +10,8 @@
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
     <sheet name="Materials" sheetId="6" r:id="rId2"/>
     <sheet name="CLO" sheetId="5" r:id="rId3"/>
-    <sheet name="Constructivist Question" sheetId="8" r:id="rId4"/>
-    <sheet name="Schedule" sheetId="7" r:id="rId5"/>
-    <sheet name="Grading structure" sheetId="3" r:id="rId6"/>
-    <sheet name="CLO-PLO Mappings" sheetId="9" r:id="rId7"/>
+    <sheet name="Schedule" sheetId="7" r:id="rId4"/>
+    <sheet name="Grading structure" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -97,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -201,9 +199,6 @@
     <t>SessionNo</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>Sess.</t>
   </si>
   <si>
@@ -253,9 +248,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Assessment Component
@@ -432,7 +424,13 @@
     <t>{{schedule.CLO_name}}</t>
   </si>
   <si>
-    <t>{{{{schedule.no}}</t>
+    <t>Learning Resource</t>
+  </si>
+  <si>
+    <t>{{materials.learning_resource_name}}</t>
+  </si>
+  <si>
+    <t>{{schedule.no}}</t>
   </si>
 </sst>
 </file>
@@ -547,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,12 +615,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1004,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1058,7 +1050,7 @@
         <v>Decision No.</v>
       </c>
       <c r="C4" s="7" t="str">
-        <v>249/QĐ-CĐFPL</v>
+        <v>436/QĐ-CĐFPL</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1069,7 +1061,7 @@
         <v>Course Name</v>
       </c>
       <c r="C5" s="8" t="str">
-        <v>MUL116</v>
+        <v>Thiết kế hình ảnh với Photoshop</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1080,7 +1072,7 @@
         <v>Course Name English</v>
       </c>
       <c r="C6" s="8" t="str">
-        <v>MUL116</v>
+        <v>Image Design using Photoshop</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="7">
@@ -1091,7 +1083,7 @@
         <v>Course Code</v>
       </c>
       <c r="C7" s="8" t="str">
-        <v>MUL116</v>
+        <v>MUL1013</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="8">
@@ -1135,14 +1127,14 @@
         <v>Time Allocation</v>
       </c>
       <c r="C11" s="11" t="str">
-        <v>Tổng thời lượng: 90 giờ
+        <v>Tổng thời lượng: 75 giờ
 1. Trên lớp: 34 giờ
-   + Lý thuyết (Slide): 12 giờ
-   + Thực hành (Lab, Workshop, Casestudy, Quiz, Open Activity, Project): 22 giờ
-2. Bảo vệ, kiểm tra: 6 giờ
-   + Bảo vệ và/hoặc thi cuối môn: 6 giờ
-3. Học qua hướng dẫn của hệ thống: 50 giờ
-   + Thực hiện dự án môn học (Assignment): 48 giờ</v>
+   + Tích hợp (Script/Lab/Workshop/Casestudy, Quiz, Progress Test, Open Activity): 34 giờ
+2. Bảo vệ, kiểm tra: 2 giờ
+   + Bảo vệ assignment hoặc/và thi cuối môn: 2 giờ
+3. Học qua hướng dẫn của hệ thống: 39 giờ
+   + Học và trả lời câu hỏi trong video trước khi đến lớp: 7 giờ
+   + Thực hiện dự án môn học (Assignment, Project): 32 giờ</v>
       </c>
     </row>
     <row spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25" r="12">
@@ -1164,27 +1156,7 @@
         <v>Description</v>
       </c>
       <c r="C13" s="8" t="str">
-        <v>Module/môn học này sẽ đề cập những chủ đề sau : 
-A. Tìm hiểu tổng quan về mỹ thuật và mỹ thuật ứng dụng
-- Lịch sử thiết kế và thiết kế đồ họa.
-- Sự khác nhau giữa nghệ thuật và nghệ thuật ứng dụng
-- Giá trị mang lại của nghệ thuật ứng dụng.
-B. Tìm hiểu về  nguyên lý thị giác  và các  nguyên lý tạo hình  mỹ thuật và mỹ thuật ứng dụng
-+ Điểm
-+ Đường nét
-+ Hình khối
-+ Chất liệu
-+ Màu sắc
-+ Phối cảnh không gian
-C. Tìm hiểu về các dạng thức bố cục và quy luật bố cục trong thiết kế
-trong thiết kế 2D và 3D
-+ Luật nhấn mạnh
-+ Luật cân bằng
-+Luật đồng nhất
-+ Luật nhịp điệu
-+ Luật đơn giản
-E. Tìm hiểu về các bước hình thành một thiết kế.
-D. Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0</v>
+        <v>Hướng dẫn sử dụng công cụ xử lý ảnh mạnh mẽ và phổ biến nhất hiện nay - Photoshop. Photoshop được coi là nhà ảo thuật hình ảnh, cung cấp khả năng xử lý ảnh từ những chức năng đơn giản nhất như cắt, thay đổi kích thước tới những xử lý phức tạp dùng các hiệu ứng cho ảnh. Môn học chủ yếu chỉ tập trung vào dạy những kỹ năng xử lý ảnh căn bản để ứng dụng cho việc xử lý ảnh cho trang web sau này.</v>
       </c>
     </row>
     <row spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25" r="14">
@@ -1194,7 +1166,7 @@
       <c r="B14" s="6" t="str">
         <v>Student's task</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="36" t="str">
         <v>- Thực hiện các nhiệm vụ của sinh viên trước giờ học và sau giờ học được nêu chi tiết trong lịch trình học
 - Tích cực tham gia các hoạt động trong giờ học trên lớp
 - Thực hiện đầy đủ các nhiệm vụ giảng viên giao
@@ -1202,6 +1174,7 @@
 - Sử dụng giáo trình, các tài nguyên đi kèm (nếu có) và tìm kiếm thêm các tài nguyên tham khảo từ các nguồn khác nhau để hoàn thiện kiến thức
 - Truy cập website tài nguyên (http://lms.poly.edu.vn) để có thông tin và tài nguyên cập nhật nhất của khóa học
 - Truy cập website quản lý khóa học (http://ap.poly.edu.vn) để có lịch học và kết quả điểm
+- Truy cập website cms.poly.edu.vn để học các bài học online
 - Email cho giảng viên khi có câu hỏi thắc mắc ngoài giờ học.</v>
       </c>
     </row>
@@ -1213,7 +1186,7 @@
         <v>Tools</v>
       </c>
       <c r="C15" s="8" t="str">
-        <v>Bút chì từ 2B_4B, thước thẳng, thước góc, thước đo tọa độ, gôm. Giấy vẽ chì loại dày và nhám.</v>
+        <v>Photoshop</v>
       </c>
     </row>
     <row spans="1:3" ht="15" x14ac:dyDescent="0.25" r="16">
@@ -1227,10 +1200,11 @@
         <v>1. Điều kiện dự thi cuối môn: 
 - Trung bình cộng (theo trọng số) các thành phần điểm quá trình tối thiểu là 5
 - Tham dự tối thiểu 80% số giờ trên lớp
+- Hoàn thành 100% các bài học online trên CMS
 2. Điều kiện qua môn:
 - Điểm đánh giá cuối môn (Final Exam) tối thiểu là 5
 - Tổng điểm môn tối thiểu là 5
-3. Xem chi tiết ở phần cơ cấu điểm (Grading Structure)</v>
+3. Xem thêm phần cơ cấu điểm đánh giá (Grading Structure)</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="17">
@@ -1263,7 +1237,7 @@
         <v>Approved date</v>
       </c>
       <c r="C19" s="13" t="str">
-        <v>2022-06-12 00:00:00</v>
+        <v>2022-12-14 00:00:00</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="20">
@@ -1280,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" activeCellId="1" sqref="K2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1277,7 @@
     <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="1">
+    <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="1">
       <c r="A1" s="3" t="str">
         <v>No</v>
       </c>
@@ -1334,13 +1308,16 @@
       <c r="J1" s="3" t="str">
         <v>Edition</v>
       </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="2">
+      <c r="K1" s="3" t="str">
+        <v>Learning Resource</v>
+      </c>
+    </row>
+    <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="2">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <v>Slide (8)</v>
+        <v>Slide (07)</v>
       </c>
       <c r="C2" s="15" t="str">
         <v/>
@@ -1366,13 +1343,16 @@
       <c r="J2" s="15" t="str">
         <v/>
       </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="3">
+      <c r="K2" s="2" t="str">
+        <v>Self-edited</v>
+      </c>
+    </row>
+    <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="3">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
-        <v>Lab (8)</v>
+        <v>Lab (07)</v>
       </c>
       <c r="C3" s="15" t="str">
         <v/>
@@ -1398,13 +1378,16 @@
       <c r="J3" s="15" t="str">
         <v/>
       </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="4">
+      <c r="K3" s="2" t="str">
+        <v>Open source Internet</v>
+      </c>
+    </row>
+    <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="4">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
-        <v>Quiz (8)</v>
+        <v>Quiz (07)</v>
       </c>
       <c r="C4" s="15" t="str">
         <v/>
@@ -1430,13 +1413,16 @@
       <c r="J4" s="15" t="str">
         <v/>
       </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="5">
+      <c r="K4" s="2" t="str">
+        <v>Free e-book</v>
+      </c>
+    </row>
+    <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="5">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
-        <v>Assignment (1)</v>
+        <v>Assigment (01)</v>
       </c>
       <c r="C5" s="15" t="str">
         <v/>
@@ -1462,13 +1448,18 @@
       <c r="J5" s="15" t="str">
         <v/>
       </c>
-    </row>
-    <row spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="6">
+      <c r="K5" s="2" t="str">
+        <v>Official_publication_books</v>
+      </c>
+    </row>
+    <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="6">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
-        <v>Tài liệu tổng hợp</v>
+        <v>Thiết kế hình ảnh với Photoshop (Bộ 2 tập): 
++ Thiết kế hình ảnh cơ bản với Photoshop
++ Thiết kế hình ảnh nâng cao với Photoshop </v>
       </c>
       <c r="C6" s="15" t="str">
         <v>Textbook</v>
@@ -1477,22 +1468,25 @@
         <v/>
       </c>
       <c r="E6" s="15" t="str">
-        <v>Online</v>
+        <v>Hardcopy</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>LMS</v>
+        <v>Xuất bản chính thức</v>
       </c>
       <c r="G6" s="15" t="str">
         <v/>
       </c>
       <c r="H6" s="15" t="str">
-        <v/>
+        <v>Wiley</v>
       </c>
       <c r="I6" s="15" t="str">
-        <v/>
+        <v>2015-01-01 00:00:00</v>
       </c>
       <c r="J6" s="15" t="str">
         <v/>
+      </c>
+      <c r="K6" s="2" t="str">
+        <v>Books bought outside</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1537,7 +1531,7 @@
         <v>CLO1</v>
       </c>
       <c r="C2" s="23" t="str">
-        <v>Tổng quan về mỹ thuật và mỹ thuật ứng dụng</v>
+        <v>Giới thiệu Photoshop: Làm quen giao diện Photoshop; Giới thiệu một số thay đổi trong CS6</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="3">
@@ -1548,7 +1542,7 @@
         <v>CLO2</v>
       </c>
       <c r="C3" s="23" t="str">
-        <v>Nhận diện thẩm mỹ, thiết kế thị giác, nguyên lý tạo hình: Phân tích đánh giá về thẩm mỹ; có tư duy, kỹ năng tạo hình trong -thiết kế thị giác; Có tư duy sáng tạo trong việc tìm kiếm các giải pháp thiết kế thị giác; Sử dụng nguyên lý tạo hình hiệu quả trong thiết kế; Có kỹ năng và tư duy mầu sắc trong thiết kế trang trí</v>
+        <v>Bridge và các thao tác cơ bản: Làm việc với Bridge; Các thao tác cắt ghép cơ bản</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="4">
@@ -1559,7 +1553,7 @@
         <v>CLO3</v>
       </c>
       <c r="C4" s="23" t="str">
-        <v>Bố cục, phối cảnh, phác thảo ý tưởng, phối hợp chất liệu, phân tích và đánh giá thẩm mỹ: Nắm vững các quy luật bố cục trong thiết kế thị giác; phối cảnh không gian trên 2D và 3D; Có kỹ năng tư duy sáng tạo và phát thảo ý tưởng thiết kế; Hiểu và định hướng được nghề nghiệp trong tương lai để tìm cho mình một giải pháp tối ưu; Vận dụng và phối hợp được các chất liệu trong thiết kế đồ hoạ; Ứng dụng được các yếu tố tạo hình trong thiết kế đồ hoạ; Phân tích và đánh giá thẩm mĩ</v>
+        <v>Sử dụng công cụ lựa chọn và công cụ Pen: Làm việc với công cụ Pen; Công cụ quan trọng trng Photoshop</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1570,7 +1564,7 @@
         <v>CLO4</v>
       </c>
       <c r="C5" s="23" t="str">
-        <v>Tìm hiểu các bước hình thành một thiết kế</v>
+        <v>Cách tô màu và chỉnh sửa ảnh: Làm việc với công việc tô màu; Phục chế, tạo hiệu ứng hình ảnh</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1581,7 +1575,29 @@
         <v>CLO5</v>
       </c>
       <c r="C6" s="23" t="str">
-        <v>Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0</v>
+        <v>Layer: Làm việc với Layer; Bảng Layer</v>
+      </c>
+    </row>
+    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="7">
+      <c r="A7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <v>CLO6</v>
+      </c>
+      <c r="C7" s="23" t="str">
+        <v>Smart Object và bộ lọc trong Photoshop: Đối tượng Smart Object; Tạo bộ lọc</v>
+      </c>
+    </row>
+    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="8">
+      <c r="A8" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <v>CLO7</v>
+      </c>
+      <c r="C8" s="23" t="str">
+        <v>Thiết kế web thông qua công cụ Photoshop: Tạo ảnh dùng cho web; Tạo video bằng Photoshop</v>
       </c>
     </row>
   </sheetData>
@@ -1592,147 +1608,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10" style="24" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row spans="1:4" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25" r="1">
-      <c r="A1" s="18" t="str">
-        <v>No</v>
-      </c>
-      <c r="B1" s="18" t="str">
-        <v>SessionNo</v>
-      </c>
-      <c r="C1" s="18" t="str">
-        <v>Name</v>
-      </c>
-      <c r="D1" s="25" t="str">
-        <v>Detail</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="27" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="46" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="46" style="27" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" style="27" customWidth="1"/>
-    <col min="13" max="16384" width="42.5703125" style="27"/>
+    <col min="1" max="1" width="6.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="25" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="46" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="46" style="25" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" style="25" customWidth="1"/>
+    <col min="13" max="16384" width="42.5703125" style="25"/>
   </cols>
   <sheetData>
     <row spans="1:12" ht="55.35" customHeight="1" x14ac:dyDescent="0.25" r="1">
-      <c r="A1" s="28" t="str">
+      <c r="A1" s="26" t="str">
         <v>Sess.</v>
       </c>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="27" t="str">
         <v>Leaning-Teaching Method</v>
       </c>
-      <c r="C1" s="29" t="str">
+      <c r="C1" s="27" t="str">
         <v>Content</v>
       </c>
-      <c r="D1" s="28" t="str">
+      <c r="D1" s="26" t="str">
         <v>CLO</v>
       </c>
-      <c r="E1" s="28" t="str">
+      <c r="E1" s="26" t="str">
         <v>ITU</v>
       </c>
-      <c r="F1" s="29" t="str">
+      <c r="F1" s="27" t="str">
         <v>Student's materials</v>
       </c>
-      <c r="G1" s="29" t="str">
+      <c r="G1" s="27" t="str">
         <v>Student's task</v>
       </c>
-      <c r="H1" s="29" t="str">
+      <c r="H1" s="27" t="str">
         <v>Lecturer's Materials</v>
       </c>
-      <c r="I1" s="29" t="str">
+      <c r="I1" s="27" t="str">
         <v>Lecturer's task</v>
       </c>
-      <c r="J1" s="29" t="str">
+      <c r="J1" s="27" t="str">
         <v>Student's materials link</v>
       </c>
-      <c r="K1" s="29" t="str">
+      <c r="K1" s="27" t="str">
         <v>Lecturer's Materials link</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="28"/>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="2">
-      <c r="A2" s="31" t="str">
-        <v>{{1</v>
+      <c r="A2" s="29" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C2" s="7" t="str">
         <v>Giới thiệu môn học: Syllabus, Mục tiêu môn học, Assignment
-Slide1.1 : 
-- Lịch sử mỹ thuật
-- Lịch sử mỹ thuật công nghiệp.
-- Design công nghiệp (Industrial design) 
-- Design đồ họa (Graphic design) 
-- Phong cách trẻ - Nghệ thuật mới</v>
-      </c>
-      <c r="D2" s="31" t="str">
+ Giới thiệu các bài giảng điện tử và hướng dẫn sinh viên 
+. Giới thiệu cơ bản về Assignment
+. Giới thiệu cơ bản về phần mềm Adobe Photoshop
+</v>
+      </c>
+      <c r="D2" s="29" t="str">
         <v>CLO1</v>
       </c>
-      <c r="E2" s="31" t="str">
-        <v>ITU</v>
+      <c r="E2" s="29" t="str">
+        <v>IT</v>
       </c>
       <c r="F2" s="7" t="str">
-        <v>Slide1</v>
-      </c>
-      <c r="G2" s="37" t="str">
-        <v>Giới thiệu Sylabus
-- Slide1.1
-- Thực hành làm quen nhóm
+        <v>Syllabus, Assignment</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <v>-Giới thiệu Syllabus
+-Giới thiệu Assignment
+- Hướng dẫn truy cập LMS và tự học với bài giảng điện tử
+- Giới thiệu bài giảng điện tử tại lớp
+- Hướng dẫn về hình thức và cách làm các bài kiểm tra đánh giá, cấu trúc đánh giá
+- Chia nhóm và giao chủ đề.
+- Giới thiệu phương thức đánh giá
+- Chia nhóm / chọn chuyên đề / đăng ký lịch trình bày.
+- Giới thiệu cách học online và cách tính điểm / điểm danh cho giờ học online
+- Giới thiệu bài học online tiếp theo
+- Giảng viên nên kết hợp nội dung Assignment với các nội dung liên quan trong các buổi học
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (2 giờ): Thực hiện assignment được giao</v>
       </c>
       <c r="H2" s="7" t="str">
-        <v>Slide1</v>
-      </c>
-      <c r="I2" s="37" t="str">
-        <v>Giới thiệu Sylabus
-- Slide1.1
-- Thực hành làm quen nhóm
+        <v>Syllabus, Assignment</v>
+      </c>
+      <c r="I2" s="35" t="str">
+        <v>-Giới thiệu Syllabus
+-Giới thiệu Assignment
+- Hướng dẫn truy cập LMS và tự học với bài giảng điện tử
+- Giới thiệu bài giảng điện tử tại lớp
+- Hướng dẫn về hình thức và cách làm các bài kiểm tra đánh giá, cấu trúc đánh giá
+- Chia nhóm và giao chủ đề.
+- Giới thiệu phương thức đánh giá
+- Chia nhóm / chọn chuyên đề / đăng ký lịch trình bày.
+- Giới thiệu cách học online và cách tính điểm / điểm danh cho giờ học online
+- Giới thiệu bài học online tiếp theo
+- Giảng viên nên kết hợp nội dung Assignment với các nội dung liên quan trong các buổi học
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J2" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1742,52 +1733,52 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="3">
-      <c r="A3" s="31" t="str">
-        <v>{{2</v>
+      <c r="A3" s="29" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C3" s="7" t="str">
-        <v>Slide1.2
-- Tầm quan trọng của thiết kế đồ họa 
-- Phong  cách và thể hiện phong cách trong thiết kế
-- Thị hiếu thẩm mỹ và phong cách trong thiết kế</v>
-      </c>
-      <c r="D3" s="31" t="str">
+        <v>Slide 1: .  Giới thiệu cơ bản về Photoshop 
+. Tìm hiểu về Photoshop
+. Tìm hiểu về không gian làm việc</v>
+      </c>
+      <c r="D3" s="29" t="str">
         <v>CLO1</v>
       </c>
-      <c r="E3" s="31" t="str">
-        <v>ITU</v>
+      <c r="E3" s="29" t="str">
+        <v>IT</v>
       </c>
       <c r="F3" s="7" t="str">
-        <v>Slide1
-Lab1
-Quiz1</v>
-      </c>
-      <c r="G3" s="37" t="str">
-        <v>Slide1.2 
-- Thực hành 
-- Thảo luận về phong cách và thị hiếu thẩm mỹ (nhóm 5-7 sinh viên)
+        <v>Slide1</v>
+      </c>
+      <c r="G3" s="35" t="str">
+        <v>-Slide1
+-Sinh viên tìm hiểu, đọc trước các chương trong SGK:
+. Photoshop CS6
+. Không gian làm việc
+-Giảng viên dẫn sinh viên thực hiện được được các thao tác cơ bản trên phần mềm sau khi học Bài giảng trên lớp 1. Cho bài tập để sinh viên thực hành tại lớp
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H3" s="7" t="str">
-        <v>Slide1
-Lab1
-Quiz1</v>
-      </c>
-      <c r="I3" s="37" t="str">
-        <v>Slide1.2 
-- Thực hành - thảo luận về phong cách và thị hiêu thẩm mỹ (nhóm 5-7 sinh viên)
+        <v>Slide1</v>
+      </c>
+      <c r="I3" s="35" t="str">
+        <v>-Slide1
+-Sinh viên tìm hiểu, đọc trước các chương trong SGK:
+. Photoshop CS6
+. Không gian làm việc
+-Giảng viên dẫn sinh viên thực hiện được được các thao tác cơ bản trên phần mềm sau khi học Bài giảng trên lớp 1. Cho bài tập để sinh viên thực hành tại lớp
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J3" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1797,51 +1788,47 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="4">
-      <c r="A4" s="31" t="str">
-        <v>{{3</v>
+      <c r="A4" s="29" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C4" s="7" t="str">
-        <v>Slide 2.1  
-Nguyên lý thị giác và các nguyên lý tạo hình mỹ thuật và mỹ thuật ứng dụng:
-+ Điểm
-+ Đường nét
-+ Hình khối
-+ Chất liệu
-+ Màu sắc
-+ Phối cảnh không gian</v>
-      </c>
-      <c r="D4" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="E4" s="31" t="str">
-        <v>T</v>
+        <v>Slide 1: .  Giới thiệu cơ bản về Photoshop</v>
+      </c>
+      <c r="D4" s="29" t="str">
+        <v>CLO1</v>
+      </c>
+      <c r="E4" s="29" t="str">
+        <v>ITU</v>
       </c>
       <c r="F4" s="7" t="str">
-        <v>Slide2</v>
-      </c>
-      <c r="G4" s="37" t="str">
-        <v>Slide2.1 
-Lab1 - Sinh viên sưu tầm hình ảnh chân dung và chuẩn bị dụng cụ vẽ
+        <v>Lab1, Quiz1, Assignment</v>
+      </c>
+      <c r="G4" s="35" t="str">
+        <v>-Lab 1
+-Quiz 1
+- Hướng dẫn sinh viên thực hiện được bài lab
+- Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H4" s="7" t="str">
-        <v>Slide2</v>
-      </c>
-      <c r="I4" s="37" t="str">
-        <v>Slide2.1 
- Lab1 - Sinh viên sưu tầm hình ảnh chân dung và chuẩn bị dụng cụ vẽ
+        <v>Lab1, Quiz1, Assignment</v>
+      </c>
+      <c r="I4" s="35" t="str">
+        <v>-Lab 1
+-Quiz 1
+- Hướng dẫn sinh viên thực hiện được bài lab
+- Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J4" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1851,50 +1838,55 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="5">
-      <c r="A5" s="31" t="str">
-        <v>{{4</v>
+      <c r="A5" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C5" s="7" t="str">
-        <v>Slide 2.2  
-Ứng dụng nguyên lý tạo hình trong thiết kế và trang trí.</v>
-      </c>
-      <c r="D5" s="31" t="str">
-        <v>CLO2 
-CLO3</v>
-      </c>
-      <c r="E5" s="31" t="str">
-        <v>ITU</v>
+        <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop 
+. Sử dụng Adobe Bridge
+. Các thao tác cắt ghép cơ bản
+</v>
+      </c>
+      <c r="D5" s="29" t="str">
+        <v>CLO1</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <v>TU</v>
       </c>
       <c r="F5" s="7" t="str">
-        <v>Slide2
-Lab2
-Quiz2</v>
-      </c>
-      <c r="G5" s="37" t="str">
-        <v>Slide 2.2 
-Sửa bài lab2
+        <v>Slide2</v>
+      </c>
+      <c r="G5" s="35" t="str">
+        <v>-Slide2
+-Sinh viên tìm hiểu, đọc trước các chương trong SGK:
+. Chương 3: Sử dụng Adobe Bridge
+. Hoặc Chương 3: Tận dụng lợi thế của Adobe Bridge
+. Chương 4: Các thao tác cơ bản trong Photoshop
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H5" s="7" t="str">
-        <v>Slide2
-Lab2
-Quiz2</v>
-      </c>
-      <c r="I5" s="37" t="str">
-        <v>Slide 2.2 
-Sửa bài lab1
+        <v>Slide2</v>
+      </c>
+      <c r="I5" s="35" t="str">
+        <v>-Slide2
+-Sinh viên tìm hiểu, đọc trước các chương trong SGK:
+. Chương 3: Sử dụng Adobe Bridge
+. Hoặc Chương 3: Tận dụng lợi thế của Adobe Bridge
+. Chương 4: Các thao tác cơ bản trong Photoshop
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J5" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1904,50 +1896,51 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="6">
-      <c r="A6" s="31" t="str">
-        <v>{{5</v>
+      <c r="A6" s="29" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C6" s="7" t="str">
-        <v>Slide 3.1 
-- Màu sắc và cảm tâm lý cảm thụ màu sắc.
-- Tâm lý học màu sắc.
-- Những ảnh hưởng màu sắc.
-- Gam màu và tone màu
-- Ý nghĩa của các màu sắc được ứng dụng trên thực tế</v>
-      </c>
-      <c r="D6" s="31" t="str">
-        <v>CLO2 
-CLO3</v>
-      </c>
-      <c r="E6" s="31" t="str">
-        <v>T</v>
+        <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop</v>
+      </c>
+      <c r="D6" s="29" t="str">
+        <v>CLO2</v>
+      </c>
+      <c r="E6" s="29" t="str">
+        <v>ITU</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>Slide3</v>
-      </c>
-      <c r="G6" s="37" t="str">
-        <v>Slide 3.1 
-Tìm hiểu về xu hướng màu sắc của năm. Tác động của xu hướng màu lên thiết kế.
+        <v>Lab2, Quiz2</v>
+      </c>
+      <c r="G6" s="35" t="str">
+        <v>-Lab 2
+-Quiz2
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H6" s="7" t="str">
-        <v>Slide3</v>
-      </c>
-      <c r="I6" s="37" t="str">
-        <v>Slide 3.1 
-Tìm hiểu về xu hướng màu sắc của năm. Tác động của xu hướng màu lên thiết kế.
+        <v>Lab2, Quiz2</v>
+      </c>
+      <c r="I6" s="35" t="str">
+        <v>-Lab 2
+-Quiz2
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J6" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1957,49 +1950,51 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="31" t="str">
-        <v>{{6</v>
+      <c r="A7" s="29" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C7" s="7" t="str">
-        <v>Slide 3.2 
-Sử dụng màu sắc trong thiết kế.</v>
-      </c>
-      <c r="D7" s="31" t="str">
+        <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
+. Tạo vùng chọn hoàn hảo nhất
+. Sử dụng công cụ Pen
+. Các công cụ quan trọng trong Photoshop </v>
+      </c>
+      <c r="D7" s="29" t="str">
         <v>CLO3</v>
       </c>
-      <c r="E7" s="31" t="str">
-        <v>T</v>
+      <c r="E7" s="29" t="str">
+        <v>TU</v>
       </c>
       <c r="F7" s="7" t="str">
-        <v>Slide3
-Lab3
-Quiz3</v>
-      </c>
-      <c r="G7" s="37" t="str">
-        <v>Slide 3.2 
-Sửa bài lab3
+        <v>Slide3</v>
+      </c>
+      <c r="G7" s="35" t="str">
+        <v>-Slide3(P2)
+-Sinh viên đọc trước chương sau trong SGK:
+.Chương 5: Tạo vùng chọn hoàn hảo nhất
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H7" s="7" t="str">
-        <v>Slide3
-Lab3
-Quiz3</v>
-      </c>
-      <c r="I7" s="37" t="str">
-        <v>Slide 3.2 
-Sửa bài lab2
+        <v>Slide3</v>
+      </c>
+      <c r="I7" s="35" t="str">
+        <v>-Slide3(P2)
+-Sinh viên đọc trước chương sau trong SGK:
+.Chương 5: Tạo vùng chọn hoàn hảo nhất
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J7" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2009,52 +2004,62 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="31" t="str">
-        <v>{{7</v>
+      <c r="A8" s="29" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C8" s="7" t="str">
-        <v>Slide 4.1 
- Nguyên tắc phối mầu trong mỹ thuật và thiết kế
-- Phối mầu không sắc
-- Phối mầu tương đồng
-- Phối mầu bổ xung
-- Phối mầu chỏi
-- Phối mầu trung tính
-- Phối mầu thứ cấp
-</v>
-      </c>
-      <c r="D8" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="E8" s="31" t="str">
-        <v>T</v>
+        <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
+ Nộp bài Assignment giai đoạn 1</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <v>CLO1,
+CLO2,
+CLO3</v>
+      </c>
+      <c r="E8" s="29" t="str">
+        <v>ITU</v>
       </c>
       <c r="F8" s="7" t="str">
-        <v>Slide4</v>
-      </c>
-      <c r="G8" s="37" t="str">
-        <v>Slide 4.1
-Tìm kiếm ý tưởng cho mẫu trang trí màu sắc.
+        <v>Lab3, Quiz3
+Assignment GĐ1</v>
+      </c>
+      <c r="G8" s="35" t="str">
+        <v>-Lab3
+-Quiz3
+-Sinh viên
+.Đọc lại các phần lý thuyết trong SGK
+.Trả lời câu hỏi và làm bài tập
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
+.Đánh giá assignment GĐ1
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (2 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H8" s="7" t="str">
-        <v>Slide4</v>
-      </c>
-      <c r="I8" s="37" t="str">
-        <v>Slide 4.1
-Lab3.  tìm kiếm ý tưởng cho mẫu trang trí màu sắc.
+        <v>Lab3, Quiz3
+Assignment GĐ1</v>
+      </c>
+      <c r="I8" s="35" t="str">
+        <v>-Lab3
+-Quiz3
+-Sinh viên
+.Đọc lại các phần lý thuyết trong SGK
+.Trả lời câu hỏi và làm bài tập
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
+.Đánh giá assignment GĐ1
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J8" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2064,54 +2069,53 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="9">
-      <c r="A9" s="31" t="str">
-        <v>{{8</v>
+      <c r="A9" s="29" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C9" s="7" t="str">
-        <v>Slide 4.2:  Thực hành 3
-- Thực hành các nguyên tắc phối mầu: không sắc; tương đồng; bổ xung
-- Thực hành nguyên tắc phối mầu: tương phản; trung tính; đơn sắc; và phối mầu thứ cấp.
-- GV hướng dẫn và sửa bài</v>
-      </c>
-      <c r="D9" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="E9" s="31" t="str">
-        <v>ITU</v>
+        <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop 
+. Tô màu ảnh
+. Chỉnh sửa ảnh
+</v>
+      </c>
+      <c r="D9" s="29" t="str">
+        <v>CLO4</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <v>TU</v>
       </c>
       <c r="F9" s="7" t="str">
-        <v>Slide4
-Lab4
-Quiz4
-Assignment giai đoạn 1</v>
-      </c>
-      <c r="G9" s="37" t="str">
-        <v>Slide 4.2
-Thực hành Lab4
-Assignment giai đoạn 1
+        <v>Slide4</v>
+      </c>
+      <c r="G9" s="35" t="str">
+        <v>-Slide4(P2)
+-Sinh viên đọc trước:
+.Chương 6: Tô màu và chỉnh sửa ảnh
+.Chương 7: Tạo một bức ảnh hoàn hảo
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H9" s="7" t="str">
-        <v>Slide4
-Lab4
-Quiz4
-Assignment giai đoạn 1</v>
-      </c>
-      <c r="I9" s="37" t="str">
-        <v>Slide 4.2
-Thực hành  Lab3
+        <v>Slide4</v>
+      </c>
+      <c r="I9" s="35" t="str">
+        <v>-Slide4(P2)
+-Sinh viên đọc trước:
+.Chương 6: Tô màu và chỉnh sửa ảnh
+.Chương 7: Tạo một bức ảnh hoàn hảo
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J9" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2121,50 +2125,51 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="10">
-      <c r="A10" s="31" t="str">
-        <v>{{9</v>
+      <c r="A10" s="29" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C10" s="7" t="str">
-        <v>Slide 5.1 : Bố cục và bố cục tạo hình trên mặt phẳng 2D và không gian 3D.
-- Bố cục tỷ lệ vàng và ứng dụng của tỷ lệ vàng
-- Phương pháp tìm kiếm giải pháp bố cục theo bố cục tỷ lệ vàng.
-+ Luật nhấn mạnh
-+ Luật cân bằng
-+ Luật đồng nhất
-+ Luật nhịp điệu
-+ Luật đơn giản</v>
-      </c>
-      <c r="D10" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="E10" s="31" t="str">
+        <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <v>CLO4</v>
+      </c>
+      <c r="E10" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F10" s="7" t="str">
-        <v>Slide5</v>
-      </c>
-      <c r="G10" s="37" t="str">
-        <v>Slide 5.1
+        <v>Lab4, Quiz4</v>
+      </c>
+      <c r="G10" s="35" t="str">
+        <v>-Lab4
+-Quiz4
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H10" s="7" t="str">
-        <v>Slide5</v>
-      </c>
-      <c r="I10" s="37" t="str">
-        <v>Slide 5.1
-Thực hành  Lab3
+        <v>Lab4, Quiz4</v>
+      </c>
+      <c r="I10" s="35" t="str">
+        <v>-Lab4
+-Quiz4
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J10" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2174,49 +2179,52 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="11">
-      <c r="A11" s="31" t="str">
-        <v>{{10</v>
+      <c r="A11" s="29" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C11" s="7" t="str">
-        <v>Slide 5.2:  Thực hành 5.1
- - GV hướng dẫn sinh viên vẽ ngoại cảnh góc phố với phối cảnh 3 điểm tụ.(thời gian linh động)</v>
-      </c>
-      <c r="D11" s="31" t="str">
-        <v>CLO4</v>
-      </c>
-      <c r="E11" s="31" t="str">
-        <v>T</v>
+        <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop 
+. Tìm hiểu về Layer
+. Sử dụng layer hiệu quả</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <v>CLO5</v>
+      </c>
+      <c r="E11" s="29" t="str">
+        <v>TU</v>
       </c>
       <c r="F11" s="7" t="str">
-        <v>Slide5
-Lab5
-Quiz5</v>
-      </c>
-      <c r="G11" s="37" t="str">
-        <v>Slide 5.2
-Thực hành Lab5
+        <v>Slide5</v>
+      </c>
+      <c r="G11" s="35" t="str">
+        <v>-Slide5(P2)
+-Sinh viên đọc trước chương sau trong SGK:
+.Chương 8: Tìm hiểu về Layer
+.Chương 9: Sử dụng layer hiệu quả
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H11" s="7" t="str">
-        <v>Slide5
-Lab5
-Quiz5</v>
-      </c>
-      <c r="I11" s="37" t="str">
-        <v>Slide 5.2
-thực hành  Lab3
+        <v>Slide5</v>
+      </c>
+      <c r="I11" s="35" t="str">
+        <v>-Slide5(P2)
+-Sinh viên đọc trước chương sau trong SGK:
+.Chương 8: Tìm hiểu về Layer
+.Chương 9: Sử dụng layer hiệu quả
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J11" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2226,51 +2234,51 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="12">
-      <c r="A12" s="31" t="str">
-        <v>{{11</v>
+      <c r="A12" s="29" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C12" s="7" t="str">
-        <v>Slide 6.1  Thiết kế và giải pháp thiết kế: 
-- Phương pháp quan sát thiên nhiên và tả thực thiên nhiên hoa lá.
-- Phương pháp tả thực
-- Phương pháp diễn họa mảng
-- Phương pháp diễn họa nét</v>
-      </c>
-      <c r="D12" s="31" t="str">
-        <v>CLO4</v>
-      </c>
-      <c r="E12" s="31" t="str">
+        <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop</v>
+      </c>
+      <c r="D12" s="29" t="str">
+        <v>CLO5</v>
+      </c>
+      <c r="E12" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F12" s="7" t="str">
-        <v>Slide6</v>
-      </c>
-      <c r="G12" s="37" t="str">
-        <v>Slide 6.1 
--Sửa và góp ý thực hành 5
--Sinh viên tìm và vẽ tả thực hoa lá
+        <v>Lab5, Quiz5</v>
+      </c>
+      <c r="G12" s="35" t="str">
+        <v>-Lab5
+-Quiz5
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H12" s="7" t="str">
-        <v>Slide6</v>
-      </c>
-      <c r="I12" s="37" t="str">
-        <v>Slide 6.1 
-Sửa và góp ý thực hành 5.1
- Lab6 
- sinh viên tìm và vẽ tả thực hoa lá
+        <v>Lab5, Quiz5</v>
+      </c>
+      <c r="I12" s="35" t="str">
+        <v>-Lab5
+-Quiz5
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J12" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2280,52 +2288,52 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="13">
-      <c r="A13" s="31" t="str">
-        <v>{{12</v>
+      <c r="A13" s="29" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C13" s="7" t="str">
-        <v>
- Slide 6.2 
-- Phương pháp cách điệu mỹ thuật
-- Phương pháp cách điệu logo
-</v>
-      </c>
-      <c r="D13" s="31" t="str">
-        <v>CLO4</v>
-      </c>
-      <c r="E13" s="31" t="str">
-        <v>T</v>
+        <v>Slide 6: -  Làm việc với Smart Object và bộ lọc trong Photoshop 
+. Smart Object
+. Bộ lọc</v>
+      </c>
+      <c r="D13" s="29" t="str">
+        <v>CLO6</v>
+      </c>
+      <c r="E13" s="29" t="str">
+        <v>TU</v>
       </c>
       <c r="F13" s="7" t="str">
-        <v>Slide6
-Lab6
-Quiz6</v>
-      </c>
-      <c r="G13" s="37" t="str">
-        <v>Slide 6.2
-Sửa và góp ý  Lab6
+        <v>Slide6</v>
+      </c>
+      <c r="G13" s="35" t="str">
+        <v>-Slide6(P2)
+-Sinh viên đọc trước các chương sau trong SGK:
+.Chương 10: Làm quen với Smart Object trong Photoshop
+.Chương 11: Sử dụng các bộ lọc trong Adobe Photoshop
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H13" s="7" t="str">
-        <v>Slide6
-Lab6
-Quiz6</v>
-      </c>
-      <c r="I13" s="37" t="str">
-        <v>Slide 6.2
-sửa và góp ý  Lab6
+        <v>Slide6</v>
+      </c>
+      <c r="I13" s="35" t="str">
+        <v>-Slide6(P2)
+-Sinh viên đọc trước các chương sau trong SGK:
+.Chương 10: Làm quen với Smart Object trong Photoshop
+.Chương 11: Sử dụng các bộ lọc trong Adobe Photoshop
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J13" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2335,45 +2343,56 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="14">
-      <c r="A14" s="31" t="str">
-        <v>{{13</v>
+      <c r="A14" s="29" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C14" s="7" t="str">
-        <v>Slide 7.1   
-Phương pháp thiết kế 8 bước</v>
-      </c>
-      <c r="D14" s="31" t="str">
-        <v>CLO4</v>
-      </c>
-      <c r="E14" s="31" t="str">
+        <v>Slide 6:  - Làm việc với Smart Object và bộ lọc trong Photoshop 
+ Nộp bài Assignment giai đoạn 2</v>
+      </c>
+      <c r="D14" s="29" t="str">
+        <v>CLO7</v>
+      </c>
+      <c r="E14" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F14" s="7" t="str">
-        <v>Slide7</v>
-      </c>
-      <c r="G14" s="37" t="str">
-        <v>Slide 7.1
-sửa và góp ý Lab6 (TT)
+        <v>Lab6, Quiz6
+Assignment GĐ2</v>
+      </c>
+      <c r="G14" s="35" t="str">
+        <v>-Lab6
+-Quiz6
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
+.Đánh giá assignment GĐ2
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (2 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H14" s="7" t="str">
-        <v>Slide7</v>
-      </c>
-      <c r="I14" s="37" t="str">
-        <v>Slide 7.1
-sửa và góp ý Lab6 (TT)
+        <v>Lab6, Quiz6
+Assignment GĐ2</v>
+      </c>
+      <c r="I14" s="35" t="str">
+        <v>-Lab6
+-Quiz6
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
+.Đánh giá assignment GĐ2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J14" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2383,51 +2402,52 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="15">
-      <c r="A15" s="31" t="str">
-        <v>{{14</v>
+      <c r="A15" s="29" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C15" s="7" t="str">
-        <v>Slide 7.2  
-Thực hành  7.1</v>
-      </c>
-      <c r="D15" s="31" t="str">
-        <v>CLO4</v>
-      </c>
-      <c r="E15" s="31" t="str">
-        <v>T</v>
+        <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop 
+. Tạo ảnh cho web và video
+. Giới thiệu tính năng 3D</v>
+      </c>
+      <c r="D15" s="29" t="str">
+        <v>CLO7</v>
+      </c>
+      <c r="E15" s="29" t="str">
+        <v>TU</v>
       </c>
       <c r="F15" s="7" t="str">
-        <v>Slide7
-Lab7
-Quiz7
-Assignment giai đoạn 2</v>
-      </c>
-      <c r="G15" s="37" t="str">
-        <v>Slide 7.2
-Thực hành Lab7
-Assignment giai đoạn 2
+        <v>Slide7</v>
+      </c>
+      <c r="G15" s="35" t="str">
+        <v>-Slide7
+-Sinh viên đọc trước các chương sau trong SGK:
+.Chương 12: Tạo ảnh cho web và video
+.Chương 13: Giới thiệu tính năng 3D
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên
+  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
       </c>
       <c r="H15" s="7" t="str">
-        <v>Slide7
-Lab7
-Quiz7</v>
-      </c>
-      <c r="I15" s="37" t="str">
-        <v>Slide 7.2
-Thực hành 7.2
+        <v>Slide7</v>
+      </c>
+      <c r="I15" s="35" t="str">
+        <v>-Slide7
+-Sinh viên đọc trước các chương sau trong SGK:
+.Chương 12: Tạo ảnh cho web và video
+.Chương 13: Giới thiệu tính năng 3D
+-Giảng viên hướng dẫn sinh viên thực hiện được công việc
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
  + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Lấy điểm và nhập vào hệ thống
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J15" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2437,45 +2457,53 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="16">
-      <c r="A16" s="31" t="str">
-        <v>{{15</v>
+      <c r="A16" s="29" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C16" s="7" t="str">
-        <v>Slide 8.1: Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0
- - Cần khuyến khích học sinh thử nghiệm và đổi mới, kích thích tư duy, khả năng giao tiếp, hợp tác, giải quyết vấn đề.</v>
-      </c>
-      <c r="D16" s="31" t="str">
-        <v>CLO5</v>
-      </c>
-      <c r="E16" s="31" t="str">
+        <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <v>CLO7</v>
+      </c>
+      <c r="E16" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>Slide8</v>
-      </c>
-      <c r="G16" s="37" t="str">
-        <v>Slide 8.1
-sửa và góp ý Thực hành 7.2
+        <v>Lab7, Quiz7</v>
+      </c>
+      <c r="G16" s="35" t="str">
+        <v>-Lab7
+-Quiz7
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
+.Nhận xét về sản phẩm assignment
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
+  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
+  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H16" s="7" t="str">
-        <v>Slide8</v>
-      </c>
-      <c r="I16" s="37" t="str">
-        <v>Slide 8.1
-sửa và góp ý Thực hành 7.2
+        <v>Lab7, Quiz7</v>
+      </c>
+      <c r="I16" s="35" t="str">
+        <v>-Lab7
+-Quiz7
+-Sinh viên đọc lại các phần lý thuyết trong SGK
+- Giảng viên
+.Hướng dẫn sinh viên thực hiện được bài lab
+.Nhận xét, góp ý về sản phẩm/ cách làm việc
+.Nhận xét về sản phẩm assignment
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J16" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2485,50 +2513,42 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="17">
-      <c r="A17" s="31" t="str">
-        <v>{{16</v>
+      <c r="A17" s="29" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
         <v>Online</v>
       </c>
       <c r="C17" s="7" t="str">
-        <v>Slide 8.2 
-- Định hướng nghiên cứu và phát triển tổng thể về ngành học cho sinh viên; phương pháp học và tra cứu.
-– Cảm nhận, trao đổi các vấn đề thẩm mỹ thông qua thực hành, sáng tạo và tìm hiểu, khám phá các phong cách, giá trị thẩm mỹ từ những tác phẩm
- - Phương pháp tra cứu tài liệu.
-</v>
-      </c>
-      <c r="D17" s="31" t="str">
-        <v>CLO5</v>
-      </c>
-      <c r="E17" s="31" t="str">
+        <v>Duyệt lại bài Assignment 
+Chuẩn bị bài Assignment hoàn chỉnh nộp lên LMS trước buổi thi 3 ngày</v>
+      </c>
+      <c r="D17" s="29" t="str">
+        <v>All CLOs</v>
+      </c>
+      <c r="E17" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F17" s="7" t="str">
-        <v>Slide8
-Lab8
-Quiz8</v>
-      </c>
-      <c r="G17" s="37" t="str">
-        <v>Tổng kết môn
+        <v>Assignment </v>
+      </c>
+      <c r="G17" s="35" t="str">
+        <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
+-Xem bài Assignment của sinh viên, và góp ý chỉnh sửa cho từng bài
 * Phân bổ thời gian:
-  + (3 giờ): Thực hiện assignment
-  + (1 giờ): Thực hành hoặc thảo luận tính huống
-  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
-  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
+  + (2 giờ): Thực hiện assignment được giao
+  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H17" s="7" t="str">
-        <v>Slide8
-Lab8
-Quiz8</v>
-      </c>
-      <c r="I17" s="37" t="str">
-        <v>Tổng kết môn
+        <v>Assignment </v>
+      </c>
+      <c r="I17" s="35" t="str">
+        <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
+-Xem bài Assignment của sinh viên, và góp ý chỉnh sửa cho từng bài
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện asm qua từng bài học
- + Hướng dẫn, kiểm soát và chấm bài
- + Nhấn mạnh những điểm lý thuyết quan trọng
- + Thuyết giảng theo slide bài giảng</v>
+ + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Thuyết giảng theo slide bài giảng
+ + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
       </c>
       <c r="J17" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2538,8 +2558,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="18">
-      <c r="A18" s="31" t="str">
-        <v>{{17</v>
+      <c r="A18" s="29" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
         <v>Online</v>
@@ -2552,22 +2572,22 @@
 - Mời diễn giả đến thuyết trình chủ đề thực tế liên quan đến môn học hoặc/và 
 - Đưa sinh viên đến doanh nghiệp để giao lưu học hỏi</v>
       </c>
-      <c r="D18" s="31" t="str">
+      <c r="D18" s="29" t="str">
         <v>All CLO</v>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="29" t="str">
         <v>U</v>
       </c>
       <c r="F18" s="7" t="str">
         <v/>
       </c>
-      <c r="G18" s="37" t="str">
+      <c r="G18" s="35" t="str">
         <v>Hệ thống lại kiến thức môn, tiếp thu kiến thức mở từ giảng viên, chuyên gia đến từ doanh nghiệp</v>
       </c>
       <c r="H18" s="7" t="str">
         <v/>
       </c>
-      <c r="I18" s="37" t="str">
+      <c r="I18" s="35" t="str">
         <v>Ôn tập, giải đáp thắc mắc, trao đổi kiến thức, kỹ năng, thái độ cần thiết khác liên quan đến môn học</v>
       </c>
       <c r="J18" s="7" t="str">
@@ -2578,8 +2598,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="19">
-      <c r="A19" s="31" t="str">
-        <v>{{18</v>
+      <c r="A19" s="29" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
         <v>Online</v>
@@ -2590,22 +2610,22 @@
 1. Sinh viên thuyết trình bằng slide, minh họa sản phẩm thực hiện theo yêu cầu của assignment, giảng viên chất vấn sinh viên về kiến thức, kỹ năng trong phạm vi assignment.
 2. Thi thực hành trong phạm vi kiến thức của assignment, giảng viên vấn đáp trên bài thi và assignment.</v>
       </c>
-      <c r="D19" s="31" t="str">
+      <c r="D19" s="29" t="str">
         <v>All CLOs</v>
       </c>
-      <c r="E19" s="31" t="str">
+      <c r="E19" s="29" t="str">
         <v>U</v>
       </c>
       <c r="F19" s="7" t="str">
         <v>Assignment</v>
       </c>
-      <c r="G19" s="37" t="str">
+      <c r="G19" s="35" t="str">
         <v>Sinh viên trình bày bằng slide hoặc thi thực hành. Mỗi buổi thi 2 giờ, mỗi sinh viên bảo vệ tối đa 10 phút nếu làm cá nhân và 30 phút nếu làm nhóm.</v>
       </c>
       <c r="H19" s="7" t="str">
         <v>Assignment</v>
       </c>
-      <c r="I19" s="37" t="str">
+      <c r="I19" s="35" t="str">
         <v>Giảng viên chất vấn theo các tiêu chí của assignment</v>
       </c>
       <c r="J19" s="7" t="str">
@@ -2616,8 +2636,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="20">
-      <c r="A20" s="31" t="str">
-        <v>{{19</v>
+      <c r="A20" s="29" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
         <v>Online</v>
@@ -2628,22 +2648,22 @@
 1. Sinh viên thuyết trình bằng slide, minh họa sản phẩm thực hiện theo yêu cầu của assignment, giảng viên chất vấn sinh viên về kiến thức, kỹ năng trong phạm vi assignment.
 2. Thi thực hành trong phạm vi kiến thức của assignment, giảng viên vấn đáp trên bài thi và assignment.</v>
       </c>
-      <c r="D20" s="31" t="str">
+      <c r="D20" s="29" t="str">
         <v>All CLOs</v>
       </c>
-      <c r="E20" s="31" t="str">
+      <c r="E20" s="29" t="str">
         <v>U</v>
       </c>
       <c r="F20" s="7" t="str">
         <v>Assignment</v>
       </c>
-      <c r="G20" s="37" t="str">
+      <c r="G20" s="35" t="str">
         <v>Sinh viên trình bày bằng slide hoặc thi thực hành. Mỗi buổi thi 2 giờ, mỗi sinh viên bảo vệ tối đa 10 phút nếu làm cá nhân và 30 phút nếu làm nhóm.</v>
       </c>
       <c r="H20" s="7" t="str">
         <v>Assignment</v>
       </c>
-      <c r="I20" s="37" t="str">
+      <c r="I20" s="35" t="str">
         <v>Giảng viên chất vấn theo các tiêu chí của assignment</v>
       </c>
       <c r="J20" s="7" t="str">
@@ -2654,8 +2674,8 @@
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="21">
-      <c r="A21" s="31" t="str">
-        <v>{{20</v>
+      <c r="A21" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
         <v>Online</v>
@@ -2666,22 +2686,22 @@
 1. Sinh viên thuyết trình bằng slide, minh họa sản phẩm thực hiện theo yêu cầu của assignment, giảng viên chất vấn sinh viên về kiến thức, kỹ năng trong phạm vi assignment.
 2. Thi thực hành trong phạm vi kiến thức của assignment, giảng viên vấn đáp trên bài thi và assignment.</v>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="29" t="str">
         <v>All CLOs</v>
       </c>
-      <c r="E21" s="31" t="str">
+      <c r="E21" s="29" t="str">
         <v>U</v>
       </c>
       <c r="F21" s="7" t="str">
         <v>Assignment</v>
       </c>
-      <c r="G21" s="37" t="str">
+      <c r="G21" s="35" t="str">
         <v>Sinh viên trình bày bằng slide hoặc thi thực hành. Mỗi buổi thi 2 giờ, mỗi sinh viên bảo vệ tối đa 10 phút nếu làm cá nhân và 30 phút nếu làm nhóm.</v>
       </c>
       <c r="H21" s="7" t="str">
         <v>Assignment</v>
       </c>
-      <c r="I21" s="37" t="str">
+      <c r="I21" s="35" t="str">
         <v>Giảng viên chất vấn theo các tiêu chí của assignment</v>
       </c>
       <c r="J21" s="7" t="str">
@@ -2696,12 +2716,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2723,85 +2743,85 @@
   </cols>
   <sheetData>
     <row spans="1:16" s="12" customFormat="1" ht="55.35" customHeight="1" x14ac:dyDescent="0.25" r="1">
-      <c r="A1" s="32" t="str">
+      <c r="A1" s="30" t="str">
         <v>#</v>
       </c>
-      <c r="B1" s="33" t="str">
+      <c r="B1" s="31" t="str">
         <v>Assessment Component
 Hạng mục đánh giá</v>
       </c>
-      <c r="C1" s="28" t="str">
+      <c r="C1" s="26" t="str">
         <v>Assessment Type</v>
       </c>
-      <c r="D1" s="28" t="str">
+      <c r="D1" s="26" t="str">
         <v>Weight
 Trọng số %</v>
       </c>
-      <c r="E1" s="28" t="str">
+      <c r="E1" s="26" t="str">
         <v>Part
 Phần</v>
       </c>
-      <c r="F1" s="28" t="str">
+      <c r="F1" s="26" t="str">
         <v>Minimun value to meet Completion Criteria</v>
       </c>
-      <c r="G1" s="28" t="str">
+      <c r="G1" s="26" t="str">
         <v>Duration</v>
       </c>
-      <c r="H1" s="28" t="str">
+      <c r="H1" s="26" t="str">
         <v>CLO</v>
       </c>
-      <c r="I1" s="34" t="str">
+      <c r="I1" s="32" t="str">
         <v>Type of questions</v>
       </c>
-      <c r="J1" s="34" t="str">
+      <c r="J1" s="32" t="str">
         <v>Number of questions</v>
       </c>
-      <c r="K1" s="34" t="str">
+      <c r="K1" s="32" t="str">
         <v>Scope of knowledge and skill of questions</v>
       </c>
-      <c r="L1" s="28" t="str">
+      <c r="L1" s="26" t="str">
         <v>How?</v>
       </c>
-      <c r="M1" s="28" t="str">
+      <c r="M1" s="26" t="str">
         <v>Note</v>
       </c>
-      <c r="N1" s="28" t="str">
+      <c r="N1" s="26" t="str">
         <v>SessionNo</v>
       </c>
-      <c r="O1" s="28" t="str">
+      <c r="O1" s="26" t="str">
         <v>Reference</v>
       </c>
-      <c r="P1" s="35"/>
+      <c r="P1" s="33"/>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="2">
-      <c r="A2" s="31" t="n">
+      <c r="A2" s="29" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
         <v>Lab</v>
       </c>
-      <c r="C2" s="31" t="str">
+      <c r="C2" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D2" s="31" t="n">
-        <v>28.00</v>
-      </c>
-      <c r="E2" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" s="31" t="n">
+      <c r="D2" s="29" t="n">
+        <v>21.00</v>
+      </c>
+      <c r="E2" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="31" t="str">
-        <v/>
-      </c>
-      <c r="H2" s="31" t="str">
-        <v/>
-      </c>
-      <c r="I2" s="31" t="str">
-        <v/>
-      </c>
-      <c r="J2" s="31" t="str">
+      <c r="G2" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="29" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="29" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="29" t="str">
         <v/>
       </c>
       <c r="K2" s="7" t="str">
@@ -2813,7 +2833,7 @@
       <c r="M2" s="7" t="str">
         <v/>
       </c>
-      <c r="N2" s="36" t="n">
+      <c r="N2" s="34" t="n">
         <v/>
       </c>
       <c r="O2" s="15" t="str">
@@ -2821,34 +2841,34 @@
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="3">
-      <c r="A3" s="31" t="n">
+      <c r="A3" s="29" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
         <v>Lab 1</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D3" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E3" s="31" t="n">
+      <c r="D3" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="31" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="31" t="str">
+      <c r="G3" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H3" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I3" s="31" t="str">
+      <c r="H3" s="29" t="str">
+        <v>CLO1</v>
+      </c>
+      <c r="I3" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K3" s="7" t="str">
@@ -2861,42 +2881,42 @@
       <c r="M3" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N3" s="36" t="n">
-        <v>2</v>
+      <c r="N3" s="34" t="n">
+        <v>3</v>
       </c>
       <c r="O3" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="4">
-      <c r="A4" s="31" t="n">
+      <c r="A4" s="29" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
         <v>Lab 2</v>
       </c>
-      <c r="C4" s="31" t="str">
+      <c r="C4" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D4" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E4" s="31" t="n">
+      <c r="D4" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="31" t="str">
+      <c r="G4" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H4" s="31" t="str">
+      <c r="H4" s="29" t="str">
         <v>CLO2</v>
       </c>
-      <c r="I4" s="31" t="str">
+      <c r="I4" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J4" s="31" t="str">
+      <c r="J4" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K4" s="7" t="str">
@@ -2909,42 +2929,42 @@
       <c r="M4" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N4" s="36" t="n">
-        <v>4</v>
+      <c r="N4" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="O4" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="5">
-      <c r="A5" s="31" t="n">
+      <c r="A5" s="29" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
         <v>Lab 3</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D5" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E5" s="31" t="n">
+      <c r="D5" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="31" t="str">
+      <c r="G5" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H5" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I5" s="31" t="str">
+      <c r="H5" s="29" t="str">
+        <v>CLO3</v>
+      </c>
+      <c r="I5" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J5" s="31" t="str">
+      <c r="J5" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K5" s="7" t="str">
@@ -2957,42 +2977,42 @@
       <c r="M5" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N5" s="36" t="n">
-        <v>6</v>
+      <c r="N5" s="34" t="n">
+        <v>7</v>
       </c>
       <c r="O5" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="6">
-      <c r="A6" s="31" t="n">
+      <c r="A6" s="29" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
         <v>Lab 4</v>
       </c>
-      <c r="C6" s="31" t="str">
+      <c r="C6" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D6" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E6" s="31" t="n">
+      <c r="D6" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="31" t="str">
+      <c r="G6" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H6" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I6" s="31" t="str">
+      <c r="H6" s="29" t="str">
+        <v>CLO4</v>
+      </c>
+      <c r="I6" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K6" s="7" t="str">
@@ -3005,42 +3025,42 @@
       <c r="M6" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N6" s="36" t="n">
-        <v>8</v>
+      <c r="N6" s="34" t="n">
+        <v>9</v>
       </c>
       <c r="O6" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="31" t="n">
+      <c r="A7" s="29" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="str">
         <v>Lab 5</v>
       </c>
-      <c r="C7" s="31" t="str">
+      <c r="C7" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D7" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E7" s="31" t="n">
+      <c r="D7" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="31" t="str">
+      <c r="G7" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H7" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I7" s="31" t="str">
+      <c r="H7" s="29" t="str">
+        <v>CLO5</v>
+      </c>
+      <c r="I7" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J7" s="31" t="str">
+      <c r="J7" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K7" s="7" t="str">
@@ -3053,42 +3073,42 @@
       <c r="M7" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N7" s="36" t="n">
-        <v>10</v>
+      <c r="N7" s="34" t="n">
+        <v>11</v>
       </c>
       <c r="O7" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="31" t="n">
+      <c r="A8" s="29" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="str">
         <v>Lab 6</v>
       </c>
-      <c r="C8" s="31" t="str">
+      <c r="C8" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D8" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E8" s="31" t="n">
+      <c r="D8" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E8" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="31" t="str">
+      <c r="G8" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H8" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I8" s="31" t="str">
+      <c r="H8" s="29" t="str">
+        <v>CLO6</v>
+      </c>
+      <c r="I8" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J8" s="31" t="str">
+      <c r="J8" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K8" s="7" t="str">
@@ -3101,42 +3121,42 @@
       <c r="M8" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N8" s="36" t="n">
-        <v>12</v>
+      <c r="N8" s="34" t="n">
+        <v>13</v>
       </c>
       <c r="O8" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="9">
-      <c r="A9" s="31" t="n">
+      <c r="A9" s="29" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="str">
         <v>Lab 7</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D9" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E9" s="31" t="n">
+      <c r="D9" s="29" t="n">
+        <v>3.00</v>
+      </c>
+      <c r="E9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="31" t="str">
+      <c r="G9" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H9" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="I9" s="31" t="str">
+      <c r="H9" s="29" t="str">
+        <v>CLO7</v>
+      </c>
+      <c r="I9" s="29" t="str">
         <v>Bài tập</v>
       </c>
-      <c r="J9" s="31" t="str">
+      <c r="J9" s="29" t="str">
         <v>3-5 bài</v>
       </c>
       <c r="K9" s="7" t="str">
@@ -3149,138 +3169,137 @@
       <c r="M9" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N9" s="36" t="n">
-        <v>14</v>
+      <c r="N9" s="34" t="n">
+        <v>15</v>
       </c>
       <c r="O9" s="15" t="str">
         <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="10">
-      <c r="A10" s="31" t="n">
+      <c r="A10" s="29" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Lab 8</v>
-      </c>
-      <c r="C10" s="31" t="str">
+        <v>Quiz</v>
+      </c>
+      <c r="C10" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D10" s="31" t="n">
-        <v>3.50</v>
-      </c>
-      <c r="E10" s="31" t="n">
+      <c r="D10" s="29" t="n">
+        <v>19.00</v>
+      </c>
+      <c r="E10" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H10" s="29" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="29" t="str">
+        <v/>
+      </c>
+      <c r="J10" s="29" t="str">
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <v/>
+      </c>
+      <c r="L10" s="7" t="str">
+        <v/>
+      </c>
+      <c r="M10" s="7" t="str">
+        <v/>
+      </c>
+      <c r="N10" s="34" t="n">
+        <v/>
+      </c>
+      <c r="O10" s="15" t="str">
+        <v>Quiz</v>
+      </c>
+    </row>
+    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="11">
+      <c r="A11" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <v>Quiz 1</v>
+      </c>
+      <c r="C11" s="29" t="str">
+        <v>On-going</v>
+      </c>
+      <c r="D11" s="29" t="n">
+        <v>2.70</v>
+      </c>
+      <c r="E11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="31" t="n">
+      <c r="F11" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="31" t="str">
-        <v>2h</v>
-      </c>
-      <c r="H10" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="I10" s="31" t="str">
-        <v>Bài tập</v>
-      </c>
-      <c r="J10" s="31" t="str">
-        <v>3-5 bài</v>
-      </c>
-      <c r="K10" s="7" t="str">
+      <c r="G11" s="29" t="str">
+        <v>6 phút</v>
+      </c>
+      <c r="H11" s="29" t="str">
+        <v>CLO1</v>
+      </c>
+      <c r="I11" s="29" t="str">
+        <v>Trắc nghiệm</v>
+      </c>
+      <c r="J11" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
+      </c>
+      <c r="K11" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
-      <c r="L10" s="7" t="str">
-        <v>SV nộp bài để giáo viên chấm
-(thời hạn: cuối giờ hoặc cuối ngày (23h55), hoặc giảng viên quy định phù hợp với thời gian học của lớp)</v>
-      </c>
-      <c r="M10" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
-      </c>
-      <c r="N10" s="36" t="n">
-        <v>16</v>
-      </c>
-      <c r="O10" s="15" t="str">
-        <v>Lab</v>
-      </c>
-    </row>
-    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="11">
-      <c r="A11" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <v>Quiz</v>
-      </c>
-      <c r="C11" s="31" t="str">
-        <v>On-going</v>
-      </c>
-      <c r="D11" s="31" t="n">
-        <v>12.00</v>
-      </c>
-      <c r="E11" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31" t="str">
-        <v/>
-      </c>
-      <c r="H11" s="31" t="str">
-        <v/>
-      </c>
-      <c r="I11" s="31" t="str">
-        <v/>
-      </c>
-      <c r="J11" s="31" t="str">
-        <v/>
-      </c>
-      <c r="K11" s="7" t="str">
-        <v/>
-      </c>
       <c r="L11" s="7" t="str">
-        <v/>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M11" s="7" t="str">
-        <v/>
-      </c>
-      <c r="N11" s="36" t="n">
-        <v/>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N11" s="34" t="n">
+        <v>3</v>
       </c>
       <c r="O11" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="12">
-      <c r="A12" s="31" t="n">
+      <c r="A12" s="29" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Quiz 1</v>
-      </c>
-      <c r="C12" s="31" t="str">
+        <v>Quiz 2</v>
+      </c>
+      <c r="C12" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D12" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E12" s="31" t="n">
+      <c r="D12" s="29" t="n">
+        <v>2.70</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="31" t="n">
+      <c r="F12" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="31" t="str">
+      <c r="G12" s="29" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H12" s="31" t="str">
+      <c r="H12" s="29" t="str">
         <v>CLO2</v>
       </c>
-      <c r="I12" s="31" t="str">
+      <c r="I12" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J12" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J12" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
       </c>
       <c r="K12" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3289,45 +3308,45 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M12" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N12" s="36" t="n">
-        <v>2</v>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N12" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="O12" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="13">
-      <c r="A13" s="31" t="n">
+      <c r="A13" s="29" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Quiz 2</v>
-      </c>
-      <c r="C13" s="31" t="str">
+        <v>Quiz 3</v>
+      </c>
+      <c r="C13" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D13" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E13" s="31" t="n">
+      <c r="D13" s="29" t="n">
+        <v>2.70</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="31" t="n">
+      <c r="F13" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="31" t="str">
+      <c r="G13" s="29" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H13" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I13" s="31" t="str">
+      <c r="H13" s="29" t="str">
+        <v>CLO3</v>
+      </c>
+      <c r="I13" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J13" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J13" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
       </c>
       <c r="K13" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3336,45 +3355,45 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M13" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N13" s="36" t="n">
-        <v>4</v>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N13" s="34" t="n">
+        <v>7</v>
       </c>
       <c r="O13" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="14">
-      <c r="A14" s="31" t="n">
+      <c r="A14" s="29" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Quiz 3</v>
-      </c>
-      <c r="C14" s="31" t="str">
+        <v>Quiz 4</v>
+      </c>
+      <c r="C14" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D14" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E14" s="31" t="n">
+      <c r="D14" s="29" t="n">
+        <v>2.70</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="31" t="n">
+      <c r="F14" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="29" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H14" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I14" s="31" t="str">
+      <c r="H14" s="29" t="str">
+        <v>CLO4</v>
+      </c>
+      <c r="I14" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J14" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J14" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
       </c>
       <c r="K14" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3383,45 +3402,45 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M14" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N14" s="36" t="n">
-        <v>6</v>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N14" s="34" t="n">
+        <v>9</v>
       </c>
       <c r="O14" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="15">
-      <c r="A15" s="31" t="n">
+      <c r="A15" s="29" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Quiz 4</v>
-      </c>
-      <c r="C15" s="31" t="str">
+        <v>Quiz 5</v>
+      </c>
+      <c r="C15" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E15" s="31" t="n">
+      <c r="D15" s="29" t="n">
+        <v>2.70</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="31" t="n">
+      <c r="F15" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="31" t="str">
+      <c r="G15" s="29" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H15" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I15" s="31" t="str">
+      <c r="H15" s="29" t="str">
+        <v>CLO5</v>
+      </c>
+      <c r="I15" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J15" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J15" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
       </c>
       <c r="K15" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3430,45 +3449,45 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M15" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N15" s="36" t="n">
-        <v>8</v>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N15" s="34" t="n">
+        <v>11</v>
       </c>
       <c r="O15" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="16">
-      <c r="A16" s="31" t="n">
+      <c r="A16" s="29" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Quiz 5</v>
-      </c>
-      <c r="C16" s="31" t="str">
+        <v>Quiz 6</v>
+      </c>
+      <c r="C16" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D16" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E16" s="31" t="n">
+      <c r="D16" s="29" t="n">
+        <v>2.70</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="31" t="n">
+      <c r="F16" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="31" t="str">
+      <c r="G16" s="29" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H16" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="I16" s="31" t="str">
+      <c r="H16" s="29" t="str">
+        <v>CLO6</v>
+      </c>
+      <c r="I16" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J16" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J16" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
       </c>
       <c r="K16" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3477,45 +3496,45 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M16" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N16" s="36" t="n">
-        <v>10</v>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N16" s="34" t="n">
+        <v>13</v>
       </c>
       <c r="O16" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="17">
-      <c r="A17" s="31" t="n">
+      <c r="A17" s="29" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Quiz 6</v>
-      </c>
-      <c r="C17" s="31" t="str">
+        <v>Quiz 7</v>
+      </c>
+      <c r="C17" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D17" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E17" s="31" t="n">
+      <c r="D17" s="29" t="n">
+        <v>2.80</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="31" t="n">
+      <c r="F17" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="31" t="str">
+      <c r="G17" s="29" t="str">
         <v>6 phút</v>
       </c>
-      <c r="H17" s="31" t="str">
-        <v>CLO2</v>
-      </c>
-      <c r="I17" s="31" t="str">
+      <c r="H17" s="29" t="str">
+        <v>CLO7</v>
+      </c>
+      <c r="I17" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J17" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J17" s="29" t="str">
+        <v>10 câu hỏi/quiz</v>
       </c>
       <c r="K17" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3524,189 +3543,194 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M17" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N17" s="36" t="n">
-        <v>12</v>
+        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+      </c>
+      <c r="N17" s="34" t="n">
+        <v>15</v>
       </c>
       <c r="O17" s="15" t="str">
         <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="18">
-      <c r="A18" s="31" t="n">
+      <c r="A18" s="29" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Quiz 7</v>
-      </c>
-      <c r="C18" s="31" t="str">
+        <v>Bài học online</v>
+      </c>
+      <c r="C18" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D18" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E18" s="31" t="n">
+      <c r="D18" s="29" t="n">
+        <v>0.00</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="31" t="n">
+      <c r="F18" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="31" t="str">
-        <v>6 phút</v>
-      </c>
-      <c r="H18" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="I18" s="31" t="str">
+      <c r="G18" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H18" s="29" t="str">
+        <v>All CLOs</v>
+      </c>
+      <c r="I18" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
-      <c r="J18" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
+      <c r="J18" s="29" t="str">
+        <v/>
       </c>
       <c r="K18" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v>Toàn môn học </v>
       </c>
       <c r="L18" s="7" t="str">
-        <v>Tổ chức tự động trên LMS</v>
+        <v>Hoàn thành 100% các bài Quiz online trên hệ thống CMS</v>
       </c>
       <c r="M18" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N18" s="36" t="n">
-        <v>14</v>
+        <v/>
+      </c>
+      <c r="N18" s="34" t="n">
+        <v/>
       </c>
       <c r="O18" s="15" t="str">
-        <v>Quiz</v>
+        <v/>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="19">
-      <c r="A19" s="31" t="n">
+      <c r="A19" s="29" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Quiz 8</v>
-      </c>
-      <c r="C19" s="31" t="str">
+        <v>Đánh giá Assignment GĐ 1</v>
+      </c>
+      <c r="C19" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D19" s="31" t="n">
-        <v>1.50</v>
-      </c>
-      <c r="E19" s="31" t="n">
+      <c r="D19" s="29" t="n">
+        <v>20.00</v>
+      </c>
+      <c r="E19" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H19" s="29" t="str">
+        <v/>
+      </c>
+      <c r="I19" s="29" t="str">
+        <v/>
+      </c>
+      <c r="J19" s="29" t="str">
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <v/>
+      </c>
+      <c r="L19" s="7" t="str">
+        <v/>
+      </c>
+      <c r="M19" s="7" t="str">
+        <v/>
+      </c>
+      <c r="N19" s="34" t="n">
+        <v/>
+      </c>
+      <c r="O19" s="15" t="str">
+        <v>Assignment</v>
+      </c>
+    </row>
+    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="20">
+      <c r="A20" s="29" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <v>Đánh giá Assignment GĐ 1 1</v>
+      </c>
+      <c r="C20" s="29" t="str">
+        <v>On-going</v>
+      </c>
+      <c r="D20" s="29" t="n">
+        <v>10.00</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F20" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="31" t="str">
-        <v>6 phút</v>
-      </c>
-      <c r="H19" s="31" t="str">
-        <v>CLO3</v>
-      </c>
-      <c r="I19" s="31" t="str">
-        <v>Trắc nghiệm</v>
-      </c>
-      <c r="J19" s="31" t="str">
-        <v>20 câu hỏi/quiz</v>
-      </c>
-      <c r="K19" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
-      </c>
-      <c r="L19" s="7" t="str">
-        <v>Tổ chức tự động trên LMS</v>
-      </c>
-      <c r="M19" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
-      </c>
-      <c r="N19" s="36" t="n">
-        <v>16</v>
-      </c>
-      <c r="O19" s="15" t="str">
-        <v>Quiz</v>
-      </c>
-    </row>
-    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="20">
-      <c r="A20" s="31" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <v>Assignment</v>
-      </c>
-      <c r="C20" s="31" t="str">
-        <v>On-going</v>
-      </c>
-      <c r="D20" s="31" t="n">
-        <v>20.00</v>
-      </c>
-      <c r="E20" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="31" t="str">
-        <v/>
-      </c>
-      <c r="H20" s="31" t="str">
-        <v/>
-      </c>
-      <c r="I20" s="31" t="str">
-        <v/>
-      </c>
-      <c r="J20" s="31" t="str">
-        <v/>
+      <c r="G20" s="29" t="str">
+        <v>2h</v>
+      </c>
+      <c r="H20" s="29" t="str">
+        <v>CLO1,
+CLO2,
+CLO3</v>
+      </c>
+      <c r="I20" s="29" t="str">
+        <v>Sản phẩm</v>
+      </c>
+      <c r="J20" s="29" t="str">
+        <v>1 sản phẩm</v>
       </c>
       <c r="K20" s="7" t="str">
-        <v/>
+        <v>Bài 1 đến bài 3</v>
       </c>
       <c r="L20" s="7" t="str">
-        <v/>
+        <v>Tải từ LMS và chấm đểm ở nhà</v>
       </c>
       <c r="M20" s="7" t="str">
-        <v/>
-      </c>
-      <c r="N20" s="36" t="n">
-        <v/>
+        <v>Bài nộp trên LMS</v>
+      </c>
+      <c r="N20" s="34" t="n">
+        <v>7</v>
       </c>
       <c r="O20" s="15" t="str">
         <v>Assignment</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="21">
-      <c r="A21" s="31" t="n">
+      <c r="A21" s="29" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Assignment 1</v>
-      </c>
-      <c r="C21" s="31" t="str">
+        <v>Đánh giá Assignment GĐ 1 2</v>
+      </c>
+      <c r="C21" s="29" t="str">
         <v>On-going</v>
       </c>
-      <c r="D21" s="31" t="n">
+      <c r="D21" s="29" t="n">
         <v>10.00</v>
       </c>
-      <c r="E21" s="31" t="n">
+      <c r="E21" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="31" t="n">
+      <c r="F21" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="31" t="str">
-        <v/>
-      </c>
-      <c r="H21" s="31" t="str">
-        <v>CLO1-CLO2</v>
-      </c>
-      <c r="I21" s="31" t="str">
+      <c r="G21" s="29" t="str">
+        <v>2h</v>
+      </c>
+      <c r="H21" s="29" t="str">
+        <v>CLO4,
+CLO5,
+CLO6,
+CLO7</v>
+      </c>
+      <c r="I21" s="29" t="str">
         <v>Sản phẩm</v>
       </c>
-      <c r="J21" s="31" t="str">
+      <c r="J21" s="29" t="str">
         <v>1 sản phẩm</v>
       </c>
       <c r="K21" s="7" t="str">
-        <v>Bài 1 đến bài 4</v>
+        <v>Bài 4 đến bài 8</v>
       </c>
       <c r="L21" s="7" t="str">
         <v>Tải từ LMS và chấm đểm ở nhà</v>
@@ -3714,155 +3738,59 @@
       <c r="M21" s="7" t="str">
         <v>Bài nộp trên LMS</v>
       </c>
-      <c r="N21" s="36" t="n">
-        <v>8</v>
+      <c r="N21" s="34" t="n">
+        <v>13</v>
       </c>
       <c r="O21" s="15" t="str">
         <v>Assignment</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="22">
-      <c r="A22" s="31" t="n">
+      <c r="A22" s="29" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="str">
-        <v>Assignment 2</v>
-      </c>
-      <c r="C22" s="31" t="str">
-        <v>On-going</v>
-      </c>
-      <c r="D22" s="31" t="n">
-        <v>10.00</v>
-      </c>
-      <c r="E22" s="31" t="n">
+        <v>Bảo vệ assignment</v>
+      </c>
+      <c r="C22" s="29" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="D22" s="29" t="n">
+        <v>40.00</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="31" t="n">
+      <c r="F22" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="31" t="str">
-        <v/>
-      </c>
-      <c r="H22" s="31" t="str">
-        <v>CLO3-CLO5</v>
-      </c>
-      <c r="I22" s="31" t="str">
-        <v>Sản phẩm</v>
-      </c>
-      <c r="J22" s="31" t="str">
-        <v>1 sản phẩm</v>
+      <c r="G22" s="29" t="str">
+        <v>2h</v>
+      </c>
+      <c r="H22" s="29" t="str">
+        <v>All CLOs</v>
+      </c>
+      <c r="I22" s="29" t="str">
+        <v>Sản phẩm, Slide, Document, Đề thi</v>
+      </c>
+      <c r="J22" s="29" t="str">
+        <v>Assignment</v>
       </c>
       <c r="K22" s="7" t="str">
-        <v>Bài 4 đến bài 8</v>
+        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
       </c>
       <c r="L22" s="7" t="str">
-        <v>Tải từ LMS và chấm đểm ở nhà</v>
-      </c>
-      <c r="M22" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
-      </c>
-      <c r="N22" s="36" t="n">
-        <v>14</v>
-      </c>
-      <c r="O22" s="15" t="str">
-        <v>Assignment</v>
-      </c>
-    </row>
-    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="23">
-      <c r="A23" s="31" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <v>Assignment 3</v>
-      </c>
-      <c r="C23" s="31" t="str">
-        <v>Final Exam</v>
-      </c>
-      <c r="D23" s="31" t="n">
-        <v>39.00</v>
-      </c>
-      <c r="E23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31" t="str">
-        <v>2h</v>
-      </c>
-      <c r="H23" s="31" t="str">
-        <v/>
-      </c>
-      <c r="I23" s="31" t="str">
-        <v>Sản phẩm, Slide, Document, Đề thi</v>
-      </c>
-      <c r="J23" s="31" t="str">
-        <v>Assignment</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
-      </c>
-      <c r="L23" s="7" t="str">
         <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
 * Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
 * Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
       </c>
-      <c r="M23" s="7" t="str">
+      <c r="M22" s="7" t="str">
         <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
       </c>
-      <c r="N23" s="36" t="n">
-        <v/>
-      </c>
-      <c r="O23" s="15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="24">
-      <c r="A24" s="31" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="str">
-        <v>Assignment 4</v>
-      </c>
-      <c r="C24" s="31" t="str">
-        <v>Final Exam</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1.00</v>
-      </c>
-      <c r="E24" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="31" t="str">
-        <v>2h</v>
-      </c>
-      <c r="H24" s="31" t="str">
-        <v/>
-      </c>
-      <c r="I24" s="31" t="str">
-        <v>Sản phẩm, Slide, Document, Đề thi</v>
-      </c>
-      <c r="J24" s="31" t="str">
-        <v>Assignment</v>
-      </c>
-      <c r="K24" s="7" t="str">
-        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
-      </c>
-      <c r="L24" s="7" t="str">
-        <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
-* Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
-* Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
-      </c>
-      <c r="M24" s="7" t="str">
-        <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
-      </c>
-      <c r="N24" s="36" t="n">
-        <v/>
-      </c>
-      <c r="O24" s="15" t="str">
+      <c r="N22" s="34" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="15" t="str">
         <v/>
       </c>
     </row>
@@ -3874,18 +3802,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>{{schedule.student_material_link}}</t>
   </si>
   <si>
-    <t>{{lecturer_material_link}}</t>
-  </si>
-  <si>
     <t>{{gradingStruture.grading_weight}}</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>{{schedule.no}}</t>
+  </si>
+  <si>
+    <t>{{schedule.lecturer_material_link}}</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C2" s="7" t="str">
         <v>Giới thiệu môn học: Syllabus, Mục tiêu môn học, Assignment
@@ -1729,7 +1729,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K2" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="3">
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C3" s="7" t="str">
         <v>Slide 1: .  Giới thiệu cơ bản về Photoshop 
@@ -1784,7 +1784,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K3" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="4">
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C4" s="7" t="str">
         <v>Slide 1: .  Giới thiệu cơ bản về Photoshop</v>
@@ -1834,7 +1834,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K4" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="5">
@@ -1842,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C5" s="7" t="str">
         <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop 
@@ -1892,7 +1892,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K5" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="6">
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C6" s="7" t="str">
         <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop</v>
@@ -1946,7 +1946,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K6" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="7">
@@ -1954,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C7" s="7" t="str">
         <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
@@ -2000,7 +2000,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K7" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="8">
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C8" s="7" t="str">
         <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
@@ -2065,7 +2065,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K8" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="9">
@@ -2073,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C9" s="7" t="str">
         <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop 
@@ -2121,7 +2121,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K9" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="10">
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C10" s="7" t="str">
         <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop</v>
@@ -2175,7 +2175,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K10" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="11">
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C11" s="7" t="str">
         <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop 
@@ -2230,7 +2230,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K11" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="12">
@@ -2238,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C12" s="7" t="str">
         <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop</v>
@@ -2284,7 +2284,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K12" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="13">
@@ -2292,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C13" s="7" t="str">
         <v>Slide 6: -  Làm việc với Smart Object và bộ lọc trong Photoshop 
@@ -2339,7 +2339,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K13" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="14">
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C14" s="7" t="str">
         <v>Slide 6:  - Làm việc với Smart Object và bộ lọc trong Photoshop 
@@ -2398,7 +2398,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K14" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="15">
@@ -2406,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C15" s="7" t="str">
         <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop 
@@ -2453,7 +2453,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K15" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="16">
@@ -2461,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C16" s="7" t="str">
         <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop</v>
@@ -2509,7 +2509,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K16" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="17">
@@ -2517,7 +2517,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C17" s="7" t="str">
         <v>Duyệt lại bài Assignment 
@@ -2554,7 +2554,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K17" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="18">
@@ -2562,7 +2562,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Online</v>
+        <v>ORIT</v>
       </c>
       <c r="C18" s="7" t="str">
         <v>Hoạt động mở:
@@ -2594,7 +2594,7 @@
         <v>https://lms.poly.edu.vn</v>
       </c>
       <c r="K18" s="7" t="str">
-        <v/>
+        <v>https://lms.poly.edu.vn</v>
       </c>
     </row>
     <row spans="1:12" ht="60" x14ac:dyDescent="0.25" r="19">
@@ -2602,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C19" s="7" t="str">
         <v>Bảo vệ Assignment: Sinh viên phải chứng minh assignment là do mình/nhóm tự làm mà không phải sao chép của bất kỳ ai/nhóm khác. 
@@ -2640,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C20" s="7" t="str">
         <v>Bảo vệ Assignment: Sinh viên phải chứng minh assignment là do mình/nhóm tự làm mà không phải sao chép của bất kỳ ai/nhóm khác. 
@@ -2678,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="C21" s="7" t="str">
         <v>Bảo vệ Assignment: Sinh viên phải chứng minh assignment là do mình/nhóm tự làm mà không phải sao chép của bất kỳ ai/nhóm khác. 
@@ -2720,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,6 @@
     <t>{{gradingStruture.clo_name}}</t>
   </si>
   <si>
-    <t>{{gradingStruture.assessment_method_name}}</t>
-  </si>
-  <si>
-    <t>{{gradingStruture.assessment_type_name}}</t>
-  </si>
-  <si>
     <t>{{gradingStruture.no}}</t>
   </si>
   <si>
@@ -431,6 +425,12 @@
   </si>
   <si>
     <t>{{schedule.lecturer_material_link}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_component}}</t>
+  </si>
+  <si>
+    <t>{{gradingStruture.assessment_type}}</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
         <v>Decision No.</v>
       </c>
       <c r="C4" s="7" t="str">
-        <v>436/QĐ-CĐFPL</v>
+        <v>249/QĐ-CĐFPL</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1061,7 +1061,7 @@
         <v>Course Name</v>
       </c>
       <c r="C5" s="8" t="str">
-        <v>Thiết kế hình ảnh với Photoshop</v>
+        <v>Nhập môn đồ họa</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1072,7 +1072,7 @@
         <v>Course Name English</v>
       </c>
       <c r="C6" s="8" t="str">
-        <v>Image Design using Photoshop</v>
+        <v>Graphic Introduction</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="7">
@@ -1083,7 +1083,7 @@
         <v>Course Code</v>
       </c>
       <c r="C7" s="8" t="str">
-        <v>MUL1013</v>
+        <v>MUL116</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="8">
@@ -1127,14 +1127,14 @@
         <v>Time Allocation</v>
       </c>
       <c r="C11" s="11" t="str">
-        <v>Tổng thời lượng: 75 giờ
+        <v>Tổng thời lượng: 90 giờ
 1. Trên lớp: 34 giờ
-   + Tích hợp (Script/Lab/Workshop/Casestudy, Quiz, Progress Test, Open Activity): 34 giờ
-2. Bảo vệ, kiểm tra: 2 giờ
-   + Bảo vệ assignment hoặc/và thi cuối môn: 2 giờ
-3. Học qua hướng dẫn của hệ thống: 39 giờ
-   + Học và trả lời câu hỏi trong video trước khi đến lớp: 7 giờ
-   + Thực hiện dự án môn học (Assignment, Project): 32 giờ</v>
+   + Lý thuyết (Slide): 12 giờ
+   + Thực hành (Lab, Workshop, Casestudy, Quiz, Open Activity, Project): 22 giờ
+2. Bảo vệ, kiểm tra: 6 giờ
+   + Bảo vệ và/hoặc thi cuối môn: 6 giờ
+3. Học qua hướng dẫn của hệ thống: 50 giờ
+   + Thực hiện dự án môn học (Assignment): 48 giờ</v>
       </c>
     </row>
     <row spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.25" r="12">
@@ -1156,7 +1156,27 @@
         <v>Description</v>
       </c>
       <c r="C13" s="8" t="str">
-        <v>Hướng dẫn sử dụng công cụ xử lý ảnh mạnh mẽ và phổ biến nhất hiện nay - Photoshop. Photoshop được coi là nhà ảo thuật hình ảnh, cung cấp khả năng xử lý ảnh từ những chức năng đơn giản nhất như cắt, thay đổi kích thước tới những xử lý phức tạp dùng các hiệu ứng cho ảnh. Môn học chủ yếu chỉ tập trung vào dạy những kỹ năng xử lý ảnh căn bản để ứng dụng cho việc xử lý ảnh cho trang web sau này.</v>
+        <v>Module/môn học này sẽ đề cập những chủ đề sau : 
+A. Tìm hiểu tổng quan về mỹ thuật và mỹ thuật ứng dụng
+- Lịch sử thiết kế và thiết kế đồ họa.
+- Sự khác nhau giữa nghệ thuật và nghệ thuật ứng dụng
+- Giá trị mang lại của nghệ thuật ứng dụng.
+B. Tìm hiểu về  nguyên lý thị giác  và các  nguyên lý tạo hình  mỹ thuật và mỹ thuật ứng dụng
++ Điểm
++ Đường nét
++ Hình khối
++ Chất liệu
++ Màu sắc
++ Phối cảnh không gian
+C. Tìm hiểu về các dạng thức bố cục và quy luật bố cục trong thiết kế
+trong thiết kế 2D và 3D
++ Luật nhấn mạnh
++ Luật cân bằng
++Luật đồng nhất
++ Luật nhịp điệu
++ Luật đơn giản
+E. Tìm hiểu về các bước hình thành một thiết kế.
+D. Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0</v>
       </c>
     </row>
     <row spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.25" r="14">
@@ -1174,7 +1194,6 @@
 - Sử dụng giáo trình, các tài nguyên đi kèm (nếu có) và tìm kiếm thêm các tài nguyên tham khảo từ các nguồn khác nhau để hoàn thiện kiến thức
 - Truy cập website tài nguyên (http://lms.poly.edu.vn) để có thông tin và tài nguyên cập nhật nhất của khóa học
 - Truy cập website quản lý khóa học (http://ap.poly.edu.vn) để có lịch học và kết quả điểm
-- Truy cập website cms.poly.edu.vn để học các bài học online
 - Email cho giảng viên khi có câu hỏi thắc mắc ngoài giờ học.</v>
       </c>
     </row>
@@ -1186,7 +1205,7 @@
         <v>Tools</v>
       </c>
       <c r="C15" s="8" t="str">
-        <v>Photoshop</v>
+        <v>Bút chì từ 2B_4B, thước thẳng, thước góc, thước đo tọa độ, gôm. Giấy vẽ chì loại dày và nhám.</v>
       </c>
     </row>
     <row spans="1:3" ht="15" x14ac:dyDescent="0.25" r="16">
@@ -1200,11 +1219,10 @@
         <v>1. Điều kiện dự thi cuối môn: 
 - Trung bình cộng (theo trọng số) các thành phần điểm quá trình tối thiểu là 5
 - Tham dự tối thiểu 80% số giờ trên lớp
-- Hoàn thành 100% các bài học online trên CMS
 2. Điều kiện qua môn:
 - Điểm đánh giá cuối môn (Final Exam) tối thiểu là 5
 - Tổng điểm môn tối thiểu là 5
-3. Xem thêm phần cơ cấu điểm đánh giá (Grading Structure)</v>
+3. Xem chi tiết ở phần cơ cấu điểm (Grading Structure)</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="17">
@@ -1237,7 +1255,7 @@
         <v>Approved date</v>
       </c>
       <c r="C19" s="13" t="str">
-        <v>2022-12-14 00:00:00</v>
+        <v>12/06/2022</v>
       </c>
     </row>
     <row spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25" r="20">
@@ -1317,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <v>Slide (07)</v>
+        <v>Slide (8)</v>
       </c>
       <c r="C2" s="15" t="str">
         <v/>
@@ -1344,7 +1362,7 @@
         <v/>
       </c>
       <c r="K2" s="2" t="str">
-        <v>Self-edited</v>
+        <v>Internet</v>
       </c>
     </row>
     <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="3">
@@ -1352,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="str">
-        <v>Lab (07)</v>
+        <v>Lab (8)</v>
       </c>
       <c r="C3" s="15" t="str">
         <v/>
@@ -1379,7 +1397,7 @@
         <v/>
       </c>
       <c r="K3" s="2" t="str">
-        <v>Open source Internet</v>
+        <v>Internet</v>
       </c>
     </row>
     <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="4">
@@ -1387,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
-        <v>Quiz (07)</v>
+        <v>Quiz (8)</v>
       </c>
       <c r="C4" s="15" t="str">
         <v/>
@@ -1414,7 +1432,7 @@
         <v/>
       </c>
       <c r="K4" s="2" t="str">
-        <v>Free e-book</v>
+        <v>Internet</v>
       </c>
     </row>
     <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1422,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
-        <v>Assigment (01)</v>
+        <v>Assignment (1)</v>
       </c>
       <c r="C5" s="15" t="str">
         <v/>
@@ -1449,7 +1467,7 @@
         <v/>
       </c>
       <c r="K5" s="2" t="str">
-        <v>Official_publication_books</v>
+        <v>Internet</v>
       </c>
     </row>
     <row spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1457,9 +1475,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
-        <v>Thiết kế hình ảnh với Photoshop (Bộ 2 tập): 
-+ Thiết kế hình ảnh cơ bản với Photoshop
-+ Thiết kế hình ảnh nâng cao với Photoshop </v>
+        <v>Tài liệu tổng hợp</v>
       </c>
       <c r="C6" s="15" t="str">
         <v>Textbook</v>
@@ -1468,25 +1484,25 @@
         <v/>
       </c>
       <c r="E6" s="15" t="str">
-        <v>Hardcopy</v>
+        <v>Online</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>Xuất bản chính thức</v>
+        <v>LMS</v>
       </c>
       <c r="G6" s="15" t="str">
         <v/>
       </c>
       <c r="H6" s="15" t="str">
-        <v>Wiley</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
-        <v>2015-01-01 00:00:00</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
         <v/>
       </c>
       <c r="K6" s="2" t="str">
-        <v>Books bought outside</v>
+        <v>Free e-book</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1531,7 +1547,7 @@
         <v>CLO1</v>
       </c>
       <c r="C2" s="23" t="str">
-        <v>Giới thiệu Photoshop: Làm quen giao diện Photoshop; Giới thiệu một số thay đổi trong CS6</v>
+        <v>Tổng quan về mỹ thuật và mỹ thuật ứng dụng</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="3">
@@ -1542,7 +1558,7 @@
         <v>CLO2</v>
       </c>
       <c r="C3" s="23" t="str">
-        <v>Bridge và các thao tác cơ bản: Làm việc với Bridge; Các thao tác cắt ghép cơ bản</v>
+        <v>Nhận diện thẩm mỹ, thiết kế thị giác, nguyên lý tạo hình: Phân tích đánh giá về thẩm mỹ; có tư duy, kỹ năng tạo hình trong -thiết kế thị giác; Có tư duy sáng tạo trong việc tìm kiếm các giải pháp thiết kế thị giác; Sử dụng nguyên lý tạo hình hiệu quả trong thiết kế; Có kỹ năng và tư duy mầu sắc trong thiết kế trang trí</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="4">
@@ -1553,7 +1569,7 @@
         <v>CLO3</v>
       </c>
       <c r="C4" s="23" t="str">
-        <v>Sử dụng công cụ lựa chọn và công cụ Pen: Làm việc với công cụ Pen; Công cụ quan trọng trng Photoshop</v>
+        <v>Bố cục, phối cảnh, phác thảo ý tưởng, phối hợp chất liệu, phân tích và đánh giá thẩm mỹ: Nắm vững các quy luật bố cục trong thiết kế thị giác; phối cảnh không gian trên 2D và 3D; Có kỹ năng tư duy sáng tạo và phát thảo ý tưởng thiết kế; Hiểu và định hướng được nghề nghiệp trong tương lai để tìm cho mình một giải pháp tối ưu; Vận dụng và phối hợp được các chất liệu trong thiết kế đồ hoạ; Ứng dụng được các yếu tố tạo hình trong thiết kế đồ hoạ; Phân tích và đánh giá thẩm mĩ</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="5">
@@ -1564,7 +1580,7 @@
         <v>CLO4</v>
       </c>
       <c r="C5" s="23" t="str">
-        <v>Cách tô màu và chỉnh sửa ảnh: Làm việc với công việc tô màu; Phục chế, tạo hiệu ứng hình ảnh</v>
+        <v>Tìm hiểu các bước hình thành một thiết kế</v>
       </c>
     </row>
     <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="6">
@@ -1575,29 +1591,7 @@
         <v>CLO5</v>
       </c>
       <c r="C6" s="23" t="str">
-        <v>Layer: Làm việc với Layer; Bảng Layer</v>
-      </c>
-    </row>
-    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="7">
-      <c r="A7" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="str">
-        <v>CLO6</v>
-      </c>
-      <c r="C7" s="23" t="str">
-        <v>Smart Object và bộ lọc trong Photoshop: Đối tượng Smart Object; Tạo bộ lọc</v>
-      </c>
-    </row>
-    <row spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25" r="8">
-      <c r="A8" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="str">
-        <v>CLO7</v>
-      </c>
-      <c r="C8" s="23" t="str">
-        <v>Thiết kế web thông qua công cụ Photoshop: Tạo ảnh dùng cho web; Tạo video bằng Photoshop</v>
+        <v>Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1675,55 +1669,44 @@
       </c>
       <c r="C2" s="7" t="str">
         <v>Giới thiệu môn học: Syllabus, Mục tiêu môn học, Assignment
- Giới thiệu các bài giảng điện tử và hướng dẫn sinh viên 
-. Giới thiệu cơ bản về Assignment
-. Giới thiệu cơ bản về phần mềm Adobe Photoshop
-</v>
+Slide1.1 : 
+- Lịch sử mỹ thuật
+- Lịch sử mỹ thuật công nghiệp.
+- Design công nghiệp (Industrial design) 
+- Design đồ họa (Graphic design) 
+- Phong cách trẻ - Nghệ thuật mới</v>
       </c>
       <c r="D2" s="29" t="str">
         <v>CLO1</v>
       </c>
       <c r="E2" s="29" t="str">
-        <v>IT</v>
+        <v>ITU</v>
       </c>
       <c r="F2" s="7" t="str">
-        <v>Syllabus, Assignment</v>
+        <v>Slide1</v>
       </c>
       <c r="G2" s="35" t="str">
-        <v>-Giới thiệu Syllabus
--Giới thiệu Assignment
-- Hướng dẫn truy cập LMS và tự học với bài giảng điện tử
-- Giới thiệu bài giảng điện tử tại lớp
-- Hướng dẫn về hình thức và cách làm các bài kiểm tra đánh giá, cấu trúc đánh giá
-- Chia nhóm và giao chủ đề.
-- Giới thiệu phương thức đánh giá
-- Chia nhóm / chọn chuyên đề / đăng ký lịch trình bày.
-- Giới thiệu cách học online và cách tính điểm / điểm danh cho giờ học online
-- Giới thiệu bài học online tiếp theo
-- Giảng viên nên kết hợp nội dung Assignment với các nội dung liên quan trong các buổi học
+        <v>Giới thiệu Sylabus
+- Slide1.1
+- Thực hành làm quen nhóm
 * Phân bổ thời gian:
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (2 giờ): Thực hiện assignment được giao</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H2" s="7" t="str">
-        <v>Syllabus, Assignment</v>
+        <v>Slide1</v>
       </c>
       <c r="I2" s="35" t="str">
-        <v>-Giới thiệu Syllabus
--Giới thiệu Assignment
-- Hướng dẫn truy cập LMS và tự học với bài giảng điện tử
-- Giới thiệu bài giảng điện tử tại lớp
-- Hướng dẫn về hình thức và cách làm các bài kiểm tra đánh giá, cấu trúc đánh giá
-- Chia nhóm và giao chủ đề.
-- Giới thiệu phương thức đánh giá
-- Chia nhóm / chọn chuyên đề / đăng ký lịch trình bày.
-- Giới thiệu cách học online và cách tính điểm / điểm danh cho giờ học online
-- Giới thiệu bài học online tiếp theo
-- Giảng viên nên kết hợp nội dung Assignment với các nội dung liên quan trong các buổi học
+        <v>Giới thiệu Sylabus
+- Slide1.1
+- Thực hành làm quen nhóm
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J2" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1740,45 +1723,45 @@
         <v>Offline</v>
       </c>
       <c r="C3" s="7" t="str">
-        <v>Slide 1: .  Giới thiệu cơ bản về Photoshop 
-. Tìm hiểu về Photoshop
-. Tìm hiểu về không gian làm việc</v>
+        <v>Slide1.2
+- Tầm quan trọng của thiết kế đồ họa 
+- Phong  cách và thể hiện phong cách trong thiết kế
+- Thị hiếu thẩm mỹ và phong cách trong thiết kế</v>
       </c>
       <c r="D3" s="29" t="str">
         <v>CLO1</v>
       </c>
       <c r="E3" s="29" t="str">
-        <v>IT</v>
+        <v>ITU</v>
       </c>
       <c r="F3" s="7" t="str">
-        <v>Slide1</v>
+        <v>Slide1
+Lab1
+Quiz1</v>
       </c>
       <c r="G3" s="35" t="str">
-        <v>-Slide1
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Photoshop CS6
-. Không gian làm việc
--Giảng viên dẫn sinh viên thực hiện được được các thao tác cơ bản trên phần mềm sau khi học Bài giảng trên lớp 1. Cho bài tập để sinh viên thực hành tại lớp
+        <v>Slide1.2 
+- Thực hành 
+- Thảo luận về phong cách và thị hiếu thẩm mỹ (nhóm 5-7 sinh viên)
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H3" s="7" t="str">
-        <v>Slide1</v>
+        <v>Slide1
+Lab1
+Quiz1</v>
       </c>
       <c r="I3" s="35" t="str">
-        <v>-Slide1
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Photoshop CS6
-. Không gian làm việc
--Giảng viên dẫn sinh viên thực hiện được được các thao tác cơ bản trên phần mềm sau khi học Bài giảng trên lớp 1. Cho bài tập để sinh viên thực hành tại lớp
+        <v>Slide1.2 
+- Thực hành - thảo luận về phong cách và thị hiêu thẩm mỹ (nhóm 5-7 sinh viên)
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J3" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1795,40 +1778,44 @@
         <v>Offline</v>
       </c>
       <c r="C4" s="7" t="str">
-        <v>Slide 1: .  Giới thiệu cơ bản về Photoshop</v>
+        <v>Slide 2.1  
+Nguyên lý thị giác và các nguyên lý tạo hình mỹ thuật và mỹ thuật ứng dụng:
++ Điểm
++ Đường nét
++ Hình khối
++ Chất liệu
++ Màu sắc
++ Phối cảnh không gian</v>
       </c>
       <c r="D4" s="29" t="str">
-        <v>CLO1</v>
+        <v>CLO2</v>
       </c>
       <c r="E4" s="29" t="str">
-        <v>ITU</v>
+        <v>T</v>
       </c>
       <c r="F4" s="7" t="str">
-        <v>Lab1, Quiz1, Assignment</v>
+        <v>Slide2</v>
       </c>
       <c r="G4" s="35" t="str">
-        <v>-Lab 1
--Quiz 1
-- Hướng dẫn sinh viên thực hiện được bài lab
-- Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide2.1 
+Lab1 - Sinh viên sưu tầm hình ảnh chân dung và chuẩn bị dụng cụ vẽ
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H4" s="7" t="str">
-        <v>Lab1, Quiz1, Assignment</v>
+        <v>Slide2</v>
       </c>
       <c r="I4" s="35" t="str">
-        <v>-Lab 1
--Quiz 1
-- Hướng dẫn sinh viên thực hiện được bài lab
-- Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide2.1 
+ Lab1 - Sinh viên sưu tầm hình ảnh chân dung và chuẩn bị dụng cụ vẽ
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J4" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1845,48 +1832,43 @@
         <v>Offline</v>
       </c>
       <c r="C5" s="7" t="str">
-        <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop 
-. Sử dụng Adobe Bridge
-. Các thao tác cắt ghép cơ bản
-</v>
+        <v>Slide 2.2  
+Ứng dụng nguyên lý tạo hình trong thiết kế và trang trí.</v>
       </c>
       <c r="D5" s="29" t="str">
-        <v>CLO1</v>
+        <v>CLO2 
+CLO3</v>
       </c>
       <c r="E5" s="29" t="str">
-        <v>TU</v>
+        <v>ITU</v>
       </c>
       <c r="F5" s="7" t="str">
-        <v>Slide2</v>
+        <v>Slide2
+Lab2
+Quiz2</v>
       </c>
       <c r="G5" s="35" t="str">
-        <v>-Slide2
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Chương 3: Sử dụng Adobe Bridge
-. Hoặc Chương 3: Tận dụng lợi thế của Adobe Bridge
-. Chương 4: Các thao tác cơ bản trong Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 2.2 
+Sửa bài lab2
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H5" s="7" t="str">
-        <v>Slide2</v>
+        <v>Slide2
+Lab2
+Quiz2</v>
       </c>
       <c r="I5" s="35" t="str">
-        <v>-Slide2
--Sinh viên tìm hiểu, đọc trước các chương trong SGK:
-. Chương 3: Sử dụng Adobe Bridge
-. Hoặc Chương 3: Tận dụng lợi thế của Adobe Bridge
-. Chương 4: Các thao tác cơ bản trong Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 2.2 
+Sửa bài lab1
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J5" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1903,44 +1885,43 @@
         <v>Offline</v>
       </c>
       <c r="C6" s="7" t="str">
-        <v>Slide 2:   - Sử dụng chương trình Adobe Bridge và những thao tác cơ bản khi làm việc với Photoshop</v>
+        <v>Slide 3.1 
+- Màu sắc và cảm tâm lý cảm thụ màu sắc.
+- Tâm lý học màu sắc.
+- Những ảnh hưởng màu sắc.
+- Gam màu và tone màu
+- Ý nghĩa của các màu sắc được ứng dụng trên thực tế</v>
       </c>
       <c r="D6" s="29" t="str">
-        <v>CLO2</v>
+        <v>CLO2 
+CLO3</v>
       </c>
       <c r="E6" s="29" t="str">
-        <v>ITU</v>
+        <v>T</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>Lab2, Quiz2</v>
+        <v>Slide3</v>
       </c>
       <c r="G6" s="35" t="str">
-        <v>-Lab 2
--Quiz2
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 3.1 
+Tìm hiểu về xu hướng màu sắc của năm. Tác động của xu hướng màu lên thiết kế.
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H6" s="7" t="str">
-        <v>Lab2, Quiz2</v>
+        <v>Slide3</v>
       </c>
       <c r="I6" s="35" t="str">
-        <v>-Lab 2
--Quiz2
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 3.1 
+Tìm hiểu về xu hướng màu sắc của năm. Tác động của xu hướng màu lên thiết kế.
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J6" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -1957,44 +1938,42 @@
         <v>Offline</v>
       </c>
       <c r="C7" s="7" t="str">
-        <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
-. Tạo vùng chọn hoàn hảo nhất
-. Sử dụng công cụ Pen
-. Các công cụ quan trọng trong Photoshop </v>
+        <v>Slide 3.2 
+Sử dụng màu sắc trong thiết kế.</v>
       </c>
       <c r="D7" s="29" t="str">
         <v>CLO3</v>
       </c>
       <c r="E7" s="29" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F7" s="7" t="str">
-        <v>Slide3</v>
+        <v>Slide3
+Lab3
+Quiz3</v>
       </c>
       <c r="G7" s="35" t="str">
-        <v>-Slide3(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 5: Tạo vùng chọn hoàn hảo nhất
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 3.2 
+Sửa bài lab3
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H7" s="7" t="str">
-        <v>Slide3</v>
+        <v>Slide3
+Lab3
+Quiz3</v>
       </c>
       <c r="I7" s="35" t="str">
-        <v>-Slide3(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 5: Tạo vùng chọn hoàn hảo nhất
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 3.2 
+Sửa bài lab2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J7" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2011,55 +1990,45 @@
         <v>Offline</v>
       </c>
       <c r="C8" s="7" t="str">
-        <v>Slide 3:  - Sử dụng các công cụ lựa chọn và công cụ Pen trong Photoshop 
- Nộp bài Assignment giai đoạn 1</v>
+        <v>Slide 4.1 
+ Nguyên tắc phối mầu trong mỹ thuật và thiết kế
+- Phối mầu không sắc
+- Phối mầu tương đồng
+- Phối mầu bổ xung
+- Phối mầu chỏi
+- Phối mầu trung tính
+- Phối mầu thứ cấp
+</v>
       </c>
       <c r="D8" s="29" t="str">
-        <v>CLO1,
-CLO2,
-CLO3</v>
+        <v>CLO3</v>
       </c>
       <c r="E8" s="29" t="str">
-        <v>ITU</v>
+        <v>T</v>
       </c>
       <c r="F8" s="7" t="str">
-        <v>Lab3, Quiz3
-Assignment GĐ1</v>
+        <v>Slide4</v>
       </c>
       <c r="G8" s="35" t="str">
-        <v>-Lab3
--Quiz3
--Sinh viên
-.Đọc lại các phần lý thuyết trong SGK
-.Trả lời câu hỏi và làm bài tập
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ1
+        <v>Slide 4.1
+Tìm kiếm ý tưởng cho mẫu trang trí màu sắc.
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (2 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H8" s="7" t="str">
-        <v>Lab3, Quiz3
-Assignment GĐ1</v>
+        <v>Slide4</v>
       </c>
       <c r="I8" s="35" t="str">
-        <v>-Lab3
--Quiz3
--Sinh viên
-.Đọc lại các phần lý thuyết trong SGK
-.Trả lời câu hỏi và làm bài tập
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ1
+        <v>Slide 4.1
+Lab3.  tìm kiếm ý tưởng cho mẫu trang trí màu sắc.
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J8" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2076,46 +2045,47 @@
         <v>Offline</v>
       </c>
       <c r="C9" s="7" t="str">
-        <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop 
-. Tô màu ảnh
-. Chỉnh sửa ảnh
-</v>
+        <v>Slide 4.2:  Thực hành 3
+- Thực hành các nguyên tắc phối mầu: không sắc; tương đồng; bổ xung
+- Thực hành nguyên tắc phối mầu: tương phản; trung tính; đơn sắc; và phối mầu thứ cấp.
+- GV hướng dẫn và sửa bài</v>
       </c>
       <c r="D9" s="29" t="str">
-        <v>CLO4</v>
+        <v>CLO3</v>
       </c>
       <c r="E9" s="29" t="str">
-        <v>TU</v>
+        <v>ITU</v>
       </c>
       <c r="F9" s="7" t="str">
-        <v>Slide4</v>
+        <v>Slide4
+Lab4
+Quiz4
+Assignment giai đoạn 1</v>
       </c>
       <c r="G9" s="35" t="str">
-        <v>-Slide4(P2)
--Sinh viên đọc trước:
-.Chương 6: Tô màu và chỉnh sửa ảnh
-.Chương 7: Tạo một bức ảnh hoàn hảo
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 4.2
+Thực hành Lab4
+Assignment giai đoạn 1
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H9" s="7" t="str">
-        <v>Slide4</v>
+        <v>Slide4
+Lab4
+Quiz4
+Assignment giai đoạn 1</v>
       </c>
       <c r="I9" s="35" t="str">
-        <v>-Slide4(P2)
--Sinh viên đọc trước:
-.Chương 6: Tô màu và chỉnh sửa ảnh
-.Chương 7: Tạo một bức ảnh hoàn hảo
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 4.2
+Thực hành  Lab3
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J9" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2132,44 +2102,43 @@
         <v>Offline</v>
       </c>
       <c r="C10" s="7" t="str">
-        <v>Slide 4:  -  Cách tô màu và chỉnh sửa ảnh trong Photoshop</v>
+        <v>Slide 5.1 : Bố cục và bố cục tạo hình trên mặt phẳng 2D và không gian 3D.
+- Bố cục tỷ lệ vàng và ứng dụng của tỷ lệ vàng
+- Phương pháp tìm kiếm giải pháp bố cục theo bố cục tỷ lệ vàng.
++ Luật nhấn mạnh
++ Luật cân bằng
++ Luật đồng nhất
++ Luật nhịp điệu
++ Luật đơn giản</v>
       </c>
       <c r="D10" s="29" t="str">
-        <v>CLO4</v>
+        <v>CLO3</v>
       </c>
       <c r="E10" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F10" s="7" t="str">
-        <v>Lab4, Quiz4</v>
+        <v>Slide5</v>
       </c>
       <c r="G10" s="35" t="str">
-        <v>-Lab4
--Quiz4
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 5.1
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H10" s="7" t="str">
-        <v>Lab4, Quiz4</v>
+        <v>Slide5</v>
       </c>
       <c r="I10" s="35" t="str">
-        <v>-Lab4
--Quiz4
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 5.1
+Thực hành  Lab3
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J10" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2186,45 +2155,42 @@
         <v>Offline</v>
       </c>
       <c r="C11" s="7" t="str">
-        <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop 
-. Tìm hiểu về Layer
-. Sử dụng layer hiệu quả</v>
+        <v>Slide 5.2:  Thực hành 5.1
+ - GV hướng dẫn sinh viên vẽ ngoại cảnh góc phố với phối cảnh 3 điểm tụ.(thời gian linh động)</v>
       </c>
       <c r="D11" s="29" t="str">
-        <v>CLO5</v>
+        <v>CLO4</v>
       </c>
       <c r="E11" s="29" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F11" s="7" t="str">
-        <v>Slide5</v>
+        <v>Slide5
+Lab5
+Quiz5</v>
       </c>
       <c r="G11" s="35" t="str">
-        <v>-Slide5(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 8: Tìm hiểu về Layer
-.Chương 9: Sử dụng layer hiệu quả
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 5.2
+Thực hành Lab5
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H11" s="7" t="str">
-        <v>Slide5</v>
+        <v>Slide5
+Lab5
+Quiz5</v>
       </c>
       <c r="I11" s="35" t="str">
-        <v>-Slide5(P2)
--Sinh viên đọc trước chương sau trong SGK:
-.Chương 8: Tìm hiểu về Layer
-.Chương 9: Sử dụng layer hiệu quả
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 5.2
+thực hành  Lab3
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J11" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2241,44 +2207,44 @@
         <v>Offline</v>
       </c>
       <c r="C12" s="7" t="str">
-        <v>Slide 5:   - Tìm hiểu và làm việc với Layer trong Photoshop</v>
+        <v>Slide 6.1  Thiết kế và giải pháp thiết kế: 
+- Phương pháp quan sát thiên nhiên và tả thực thiên nhiên hoa lá.
+- Phương pháp tả thực
+- Phương pháp diễn họa mảng
+- Phương pháp diễn họa nét</v>
       </c>
       <c r="D12" s="29" t="str">
-        <v>CLO5</v>
+        <v>CLO4</v>
       </c>
       <c r="E12" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F12" s="7" t="str">
-        <v>Lab5, Quiz5</v>
+        <v>Slide6</v>
       </c>
       <c r="G12" s="35" t="str">
-        <v>-Lab5
--Quiz5
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 6.1 
+-Sửa và góp ý thực hành 5
+-Sinh viên tìm và vẽ tả thực hoa lá
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H12" s="7" t="str">
-        <v>Lab5, Quiz5</v>
+        <v>Slide6</v>
       </c>
       <c r="I12" s="35" t="str">
-        <v>-Lab5
--Quiz5
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
+        <v>Slide 6.1 
+Sửa và góp ý thực hành 5.1
+ Lab6 
+ sinh viên tìm và vẽ tả thực hoa lá
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J12" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2295,45 +2261,45 @@
         <v>Offline</v>
       </c>
       <c r="C13" s="7" t="str">
-        <v>Slide 6: -  Làm việc với Smart Object và bộ lọc trong Photoshop 
-. Smart Object
-. Bộ lọc</v>
+        <v>
+ Slide 6.2 
+- Phương pháp cách điệu mỹ thuật
+- Phương pháp cách điệu logo
+</v>
       </c>
       <c r="D13" s="29" t="str">
-        <v>CLO6</v>
+        <v>CLO4</v>
       </c>
       <c r="E13" s="29" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F13" s="7" t="str">
-        <v>Slide6</v>
+        <v>Slide6
+Lab6
+Quiz6</v>
       </c>
       <c r="G13" s="35" t="str">
-        <v>-Slide6(P2)
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 10: Làm quen với Smart Object trong Photoshop
-.Chương 11: Sử dụng các bộ lọc trong Adobe Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 6.2
+Sửa và góp ý  Lab6
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H13" s="7" t="str">
-        <v>Slide6</v>
+        <v>Slide6
+Lab6
+Quiz6</v>
       </c>
       <c r="I13" s="35" t="str">
-        <v>-Slide6(P2)
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 10: Làm quen với Smart Object trong Photoshop
-.Chương 11: Sử dụng các bộ lọc trong Adobe Photoshop
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 6.2
+sửa và góp ý  Lab6
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J13" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2350,49 +2316,38 @@
         <v>Offline</v>
       </c>
       <c r="C14" s="7" t="str">
-        <v>Slide 6:  - Làm việc với Smart Object và bộ lọc trong Photoshop 
- Nộp bài Assignment giai đoạn 2</v>
+        <v>Slide 7.1   
+Phương pháp thiết kế 8 bước</v>
       </c>
       <c r="D14" s="29" t="str">
-        <v>CLO7</v>
+        <v>CLO4</v>
       </c>
       <c r="E14" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F14" s="7" t="str">
-        <v>Lab6, Quiz6
-Assignment GĐ2</v>
+        <v>Slide7</v>
       </c>
       <c r="G14" s="35" t="str">
-        <v>-Lab6
--Quiz6
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ2
+        <v>Slide 7.1
+sửa và góp ý Lab6 (TT)
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (2 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H14" s="7" t="str">
-        <v>Lab6, Quiz6
-Assignment GĐ2</v>
+        <v>Slide7</v>
       </c>
       <c r="I14" s="35" t="str">
-        <v>-Lab6
--Quiz6
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Đánh giá assignment GĐ2
+        <v>Slide 7.1
+sửa và góp ý Lab6 (TT)
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J14" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2409,45 +2364,44 @@
         <v>Offline</v>
       </c>
       <c r="C15" s="7" t="str">
-        <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop 
-. Tạo ảnh cho web và video
-. Giới thiệu tính năng 3D</v>
+        <v>Slide 7.2  
+Thực hành  7.1</v>
       </c>
       <c r="D15" s="29" t="str">
-        <v>CLO7</v>
+        <v>CLO4</v>
       </c>
       <c r="E15" s="29" t="str">
-        <v>TU</v>
+        <v>T</v>
       </c>
       <c r="F15" s="7" t="str">
-        <v>Slide7</v>
+        <v>Slide7
+Lab7
+Quiz7
+Assignment giai đoạn 2</v>
       </c>
       <c r="G15" s="35" t="str">
-        <v>-Slide7
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 12: Tạo ảnh cho web và video
-.Chương 13: Giới thiệu tính năng 3D
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 7.2
+Thực hành Lab7
+Assignment giai đoạn 2
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên
-  + (1 giờ): Xem bài thuyết giảng của giảng viên qua video trên LMS/CMS</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H15" s="7" t="str">
-        <v>Slide7</v>
+        <v>Slide7
+Lab7
+Quiz7</v>
       </c>
       <c r="I15" s="35" t="str">
-        <v>-Slide7
--Sinh viên đọc trước các chương sau trong SGK:
-.Chương 12: Tạo ảnh cho web và video
-.Chương 13: Giới thiệu tính năng 3D
--Giảng viên hướng dẫn sinh viên thực hiện được công việc
+        <v>Slide 7.2
+Thực hành 7.2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
  + Hướng dẫn, kiểm soát và chấm bài
- + Lấy điểm và nhập vào hệ thống
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J15" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2464,46 +2418,38 @@
         <v>Offline</v>
       </c>
       <c r="C16" s="7" t="str">
-        <v>Slide 7:  - Tạo ảnh dùng cho web và video bằng Photoshop</v>
+        <v>Slide 8.1: Định hướng nghề nghiệp về ngành thiết kế; những cơ hội và thách thức trong thời đại 4.0
+ - Cần khuyến khích học sinh thử nghiệm và đổi mới, kích thích tư duy, khả năng giao tiếp, hợp tác, giải quyết vấn đề.</v>
       </c>
       <c r="D16" s="29" t="str">
-        <v>CLO7</v>
+        <v>CLO5</v>
       </c>
       <c r="E16" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>Lab7, Quiz7</v>
+        <v>Slide8</v>
       </c>
       <c r="G16" s="35" t="str">
-        <v>-Lab7
--Quiz7
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Nhận xét về sản phẩm assignment
+        <v>Slide 8.1
+sửa và góp ý Thực hành 7.2
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ 30 phút): Thực hành hoặc thảo luận tình huống
-  + (30 phút): Làm bài trắc nghiệm trên LMS/CMS
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H16" s="7" t="str">
-        <v>Lab7, Quiz7</v>
+        <v>Slide8</v>
       </c>
       <c r="I16" s="35" t="str">
-        <v>-Lab7
--Quiz7
--Sinh viên đọc lại các phần lý thuyết trong SGK
-- Giảng viên
-.Hướng dẫn sinh viên thực hiện được bài lab
-.Nhận xét, góp ý về sản phẩm/ cách làm việc
-.Nhận xét về sản phẩm assignment
+        <v>Slide 8.1
+sửa và góp ý Thực hành 7.2
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J16" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2520,35 +2466,43 @@
         <v>Offline</v>
       </c>
       <c r="C17" s="7" t="str">
-        <v>Duyệt lại bài Assignment 
-Chuẩn bị bài Assignment hoàn chỉnh nộp lên LMS trước buổi thi 3 ngày</v>
+        <v>Slide 8.2 
+- Định hướng nghiên cứu và phát triển tổng thể về ngành học cho sinh viên; phương pháp học và tra cứu.
+– Cảm nhận, trao đổi các vấn đề thẩm mỹ thông qua thực hành, sáng tạo và tìm hiểu, khám phá các phong cách, giá trị thẩm mỹ từ những tác phẩm
+ - Phương pháp tra cứu tài liệu.
+</v>
       </c>
       <c r="D17" s="29" t="str">
-        <v>All CLOs</v>
+        <v>CLO5</v>
       </c>
       <c r="E17" s="29" t="str">
         <v>ITU</v>
       </c>
       <c r="F17" s="7" t="str">
-        <v>Assignment </v>
+        <v>Slide8
+Lab8
+Quiz8</v>
       </c>
       <c r="G17" s="35" t="str">
-        <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
--Xem bài Assignment của sinh viên, và góp ý chỉnh sửa cho từng bài
+        <v>Tổng kết môn
 * Phân bổ thời gian:
-  + (2 giờ): Thực hiện assignment được giao
-  + (1 giờ): Học theo sự giảng dạy của giảng viên</v>
+  + (3 giờ): Thực hiện assignment
+  + (1 giờ): Thực hành hoặc thảo luận tính huống
+  + (15 phút): Thực hiện trắc nghiệm trên LMS/CMS
+  + (45 phút): Học theo sự giảng dạy của giảng viên</v>
       </c>
       <c r="H17" s="7" t="str">
-        <v>Assignment </v>
+        <v>Slide8
+Lab8
+Quiz8</v>
       </c>
       <c r="I17" s="35" t="str">
-        <v>-Hoàn thiện bài Assignment, nộp bản Draft trước buổi học
--Xem bài Assignment của sinh viên, và góp ý chỉnh sửa cho từng bài
+        <v>Tổng kết môn
 * Thực hiện các công việc:
- + Hướng dẫn sinh viên thực hiện assignment suốt quá trình môn học
- + Thuyết giảng theo slide bài giảng
- + Hướng dẫn, ôn bài, chỉ rõ những điểm quan trọng trong video</v>
+ + Hướng dẫn sinh viên thực hiện asm qua từng bài học
+ + Hướng dẫn, kiểm soát và chấm bài
+ + Nhấn mạnh những điểm lý thuyết quan trọng
+ + Thuyết giảng theo slide bài giảng</v>
       </c>
       <c r="J17" s="7" t="str">
         <v>https://lms.poly.edu.vn</v>
@@ -2562,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>ORIT</v>
+        <v>Offline</v>
       </c>
       <c r="C18" s="7" t="str">
         <v>Hoạt động mở:
@@ -2718,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.140625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2804,10 +2758,10 @@
         <v>On-going</v>
       </c>
       <c r="D2" s="29" t="n">
-        <v>21.00</v>
+        <v>28.00</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" s="29" t="n">
         <v>0</v>
@@ -2851,7 +2805,7 @@
         <v>On-going</v>
       </c>
       <c r="D3" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E3" s="29" t="n">
         <v>1</v>
@@ -2863,7 +2817,7 @@
         <v>2h</v>
       </c>
       <c r="H3" s="29" t="str">
-        <v>CLO1</v>
+        <v>CLO2</v>
       </c>
       <c r="I3" s="29" t="str">
         <v>Bài tập</v>
@@ -2882,7 +2836,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N3" s="34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="15" t="str">
         <v>Lab</v>
@@ -2899,7 +2853,7 @@
         <v>On-going</v>
       </c>
       <c r="D4" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E4" s="29" t="n">
         <v>1</v>
@@ -2930,7 +2884,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" s="15" t="str">
         <v>Lab</v>
@@ -2947,7 +2901,7 @@
         <v>On-going</v>
       </c>
       <c r="D5" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E5" s="29" t="n">
         <v>1</v>
@@ -2959,7 +2913,7 @@
         <v>2h</v>
       </c>
       <c r="H5" s="29" t="str">
-        <v>CLO3</v>
+        <v>CLO2</v>
       </c>
       <c r="I5" s="29" t="str">
         <v>Bài tập</v>
@@ -2978,7 +2932,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N5" s="34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="15" t="str">
         <v>Lab</v>
@@ -2995,7 +2949,7 @@
         <v>On-going</v>
       </c>
       <c r="D6" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E6" s="29" t="n">
         <v>1</v>
@@ -3007,7 +2961,7 @@
         <v>2h</v>
       </c>
       <c r="H6" s="29" t="str">
-        <v>CLO4</v>
+        <v>CLO2</v>
       </c>
       <c r="I6" s="29" t="str">
         <v>Bài tập</v>
@@ -3026,7 +2980,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N6" s="34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" s="15" t="str">
         <v>Lab</v>
@@ -3043,7 +2997,7 @@
         <v>On-going</v>
       </c>
       <c r="D7" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E7" s="29" t="n">
         <v>1</v>
@@ -3055,7 +3009,7 @@
         <v>2h</v>
       </c>
       <c r="H7" s="29" t="str">
-        <v>CLO5</v>
+        <v>CLO2</v>
       </c>
       <c r="I7" s="29" t="str">
         <v>Bài tập</v>
@@ -3074,7 +3028,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" s="15" t="str">
         <v>Lab</v>
@@ -3091,7 +3045,7 @@
         <v>On-going</v>
       </c>
       <c r="D8" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E8" s="29" t="n">
         <v>1</v>
@@ -3103,7 +3057,7 @@
         <v>2h</v>
       </c>
       <c r="H8" s="29" t="str">
-        <v>CLO6</v>
+        <v>CLO2</v>
       </c>
       <c r="I8" s="29" t="str">
         <v>Bài tập</v>
@@ -3122,7 +3076,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N8" s="34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="15" t="str">
         <v>Lab</v>
@@ -3139,7 +3093,7 @@
         <v>On-going</v>
       </c>
       <c r="D9" s="29" t="n">
-        <v>3.00</v>
+        <v>3.50</v>
       </c>
       <c r="E9" s="29" t="n">
         <v>1</v>
@@ -3151,7 +3105,7 @@
         <v>2h</v>
       </c>
       <c r="H9" s="29" t="str">
-        <v>CLO7</v>
+        <v>CLO3</v>
       </c>
       <c r="I9" s="29" t="str">
         <v>Bài tập</v>
@@ -3170,7 +3124,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N9" s="34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="15" t="str">
         <v>Lab</v>
@@ -3181,46 +3135,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Quiz</v>
+        <v>Lab 8</v>
       </c>
       <c r="C10" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D10" s="29" t="n">
-        <v>19.00</v>
+        <v>3.50</v>
       </c>
       <c r="E10" s="29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="29" t="str">
-        <v/>
+        <v>2h</v>
       </c>
       <c r="H10" s="29" t="str">
-        <v/>
+        <v>CLO3</v>
       </c>
       <c r="I10" s="29" t="str">
-        <v/>
+        <v>Bài tập</v>
       </c>
       <c r="J10" s="29" t="str">
-        <v/>
+        <v>3-5 bài</v>
       </c>
       <c r="K10" s="7" t="str">
-        <v/>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L10" s="7" t="str">
-        <v/>
+        <v>SV nộp bài để giáo viên chấm
+(thời hạn: cuối giờ hoặc cuối ngày (23h55), hoặc giảng viên quy định phù hợp với thời gian học của lớp)</v>
       </c>
       <c r="M10" s="7" t="str">
-        <v/>
+        <v>Bài nộp trên LMS</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v/>
+        <v>16</v>
       </c>
       <c r="O10" s="15" t="str">
-        <v>Quiz</v>
+        <v>Lab</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="11">
@@ -3228,43 +3183,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Quiz 1</v>
+        <v>Quiz</v>
       </c>
       <c r="C11" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D11" s="29" t="n">
-        <v>2.70</v>
+        <v>12.00</v>
       </c>
       <c r="E11" s="29" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F11" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="29" t="str">
-        <v>6 phút</v>
+        <v/>
       </c>
       <c r="H11" s="29" t="str">
-        <v>CLO1</v>
+        <v/>
       </c>
       <c r="I11" s="29" t="str">
-        <v>Trắc nghiệm</v>
+        <v/>
       </c>
       <c r="J11" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v/>
       </c>
       <c r="K11" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v/>
       </c>
       <c r="L11" s="7" t="str">
-        <v>Tổ chức tự động trên LMS</v>
+        <v/>
       </c>
       <c r="M11" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v/>
       </c>
       <c r="N11" s="34" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="O11" s="15" t="str">
         <v>Quiz</v>
@@ -3275,13 +3230,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Quiz 2</v>
+        <v>Quiz 1</v>
       </c>
       <c r="C12" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D12" s="29" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E12" s="29" t="n">
         <v>1</v>
@@ -3299,7 +3254,7 @@
         <v>Trắc nghiệm</v>
       </c>
       <c r="J12" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K12" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3308,10 +3263,10 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M12" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N12" s="34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O12" s="15" t="str">
         <v>Quiz</v>
@@ -3322,13 +3277,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Quiz 3</v>
+        <v>Quiz 2</v>
       </c>
       <c r="C13" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D13" s="29" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E13" s="29" t="n">
         <v>1</v>
@@ -3340,13 +3295,13 @@
         <v>6 phút</v>
       </c>
       <c r="H13" s="29" t="str">
-        <v>CLO3</v>
+        <v>CLO2</v>
       </c>
       <c r="I13" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J13" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K13" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3355,10 +3310,10 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M13" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N13" s="34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O13" s="15" t="str">
         <v>Quiz</v>
@@ -3369,13 +3324,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Quiz 4</v>
+        <v>Quiz 3</v>
       </c>
       <c r="C14" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D14" s="29" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E14" s="29" t="n">
         <v>1</v>
@@ -3387,13 +3342,13 @@
         <v>6 phút</v>
       </c>
       <c r="H14" s="29" t="str">
-        <v>CLO4</v>
+        <v>CLO2</v>
       </c>
       <c r="I14" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J14" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K14" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3402,10 +3357,10 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M14" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N14" s="34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O14" s="15" t="str">
         <v>Quiz</v>
@@ -3416,13 +3371,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Quiz 5</v>
+        <v>Quiz 4</v>
       </c>
       <c r="C15" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D15" s="29" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E15" s="29" t="n">
         <v>1</v>
@@ -3434,13 +3389,13 @@
         <v>6 phút</v>
       </c>
       <c r="H15" s="29" t="str">
-        <v>CLO5</v>
+        <v>CLO2</v>
       </c>
       <c r="I15" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J15" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K15" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3449,10 +3404,10 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M15" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N15" s="34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O15" s="15" t="str">
         <v>Quiz</v>
@@ -3463,13 +3418,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Quiz 6</v>
+        <v>Quiz 5</v>
       </c>
       <c r="C16" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D16" s="29" t="n">
-        <v>2.70</v>
+        <v>1.50</v>
       </c>
       <c r="E16" s="29" t="n">
         <v>1</v>
@@ -3481,13 +3436,13 @@
         <v>6 phút</v>
       </c>
       <c r="H16" s="29" t="str">
-        <v>CLO6</v>
+        <v>CLO3</v>
       </c>
       <c r="I16" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J16" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K16" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3496,10 +3451,10 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M16" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N16" s="34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O16" s="15" t="str">
         <v>Quiz</v>
@@ -3510,13 +3465,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Quiz 7</v>
+        <v>Quiz 6</v>
       </c>
       <c r="C17" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D17" s="29" t="n">
-        <v>2.80</v>
+        <v>1.50</v>
       </c>
       <c r="E17" s="29" t="n">
         <v>1</v>
@@ -3528,13 +3483,13 @@
         <v>6 phút</v>
       </c>
       <c r="H17" s="29" t="str">
-        <v>CLO7</v>
+        <v>CLO2</v>
       </c>
       <c r="I17" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J17" s="29" t="str">
-        <v>10 câu hỏi/quiz</v>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K17" s="7" t="str">
         <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
@@ -3543,10 +3498,10 @@
         <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M17" s="7" t="str">
-        <v>- GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N17" s="34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O17" s="15" t="str">
         <v>Quiz</v>
@@ -3557,13 +3512,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Bài học online</v>
+        <v>Quiz 7</v>
       </c>
       <c r="C18" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D18" s="29" t="n">
-        <v>0.00</v>
+        <v>1.50</v>
       </c>
       <c r="E18" s="29" t="n">
         <v>1</v>
@@ -3572,31 +3527,31 @@
         <v>0</v>
       </c>
       <c r="G18" s="29" t="str">
-        <v/>
+        <v>6 phút</v>
       </c>
       <c r="H18" s="29" t="str">
-        <v>All CLOs</v>
+        <v>CLO3</v>
       </c>
       <c r="I18" s="29" t="str">
         <v>Trắc nghiệm</v>
       </c>
       <c r="J18" s="29" t="str">
-        <v/>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K18" s="7" t="str">
-        <v>Toàn môn học </v>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L18" s="7" t="str">
-        <v>Hoàn thành 100% các bài Quiz online trên hệ thống CMS</v>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M18" s="7" t="str">
-        <v/>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N18" s="34" t="n">
-        <v/>
+        <v>14</v>
       </c>
       <c r="O18" s="15" t="str">
-        <v/>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="19">
@@ -3604,46 +3559,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1</v>
+        <v>Quiz 8</v>
       </c>
       <c r="C19" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D19" s="29" t="n">
-        <v>20.00</v>
+        <v>1.50</v>
       </c>
       <c r="E19" s="29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="29" t="str">
-        <v/>
+        <v>6 phút</v>
       </c>
       <c r="H19" s="29" t="str">
-        <v/>
+        <v>CLO3</v>
       </c>
       <c r="I19" s="29" t="str">
-        <v/>
+        <v>Trắc nghiệm</v>
       </c>
       <c r="J19" s="29" t="str">
-        <v/>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K19" s="7" t="str">
-        <v/>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L19" s="7" t="str">
-        <v/>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M19" s="7" t="str">
-        <v/>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N19" s="34" t="n">
-        <v/>
+        <v>16</v>
       </c>
       <c r="O19" s="15" t="str">
-        <v>Assignment</v>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="20">
@@ -3651,45 +3606,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1 1</v>
+        <v>Assignment</v>
       </c>
       <c r="C20" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D20" s="29" t="n">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="E20" s="29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="29" t="str">
-        <v>2h</v>
+        <v/>
       </c>
       <c r="H20" s="29" t="str">
-        <v>CLO1,
-CLO2,
-CLO3</v>
+        <v/>
       </c>
       <c r="I20" s="29" t="str">
-        <v>Sản phẩm</v>
+        <v/>
       </c>
       <c r="J20" s="29" t="str">
-        <v>1 sản phẩm</v>
+        <v/>
       </c>
       <c r="K20" s="7" t="str">
-        <v>Bài 1 đến bài 3</v>
+        <v/>
       </c>
       <c r="L20" s="7" t="str">
-        <v>Tải từ LMS và chấm đểm ở nhà</v>
+        <v/>
       </c>
       <c r="M20" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
+        <v/>
       </c>
       <c r="N20" s="34" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="O20" s="15" t="str">
         <v>Assignment</v>
@@ -3700,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1 2</v>
+        <v>Đánh giá Assignment GĐ 1</v>
       </c>
       <c r="C21" s="29" t="str">
         <v>On-going</v>
@@ -3715,13 +3668,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="29" t="str">
-        <v>2h</v>
+        <v/>
       </c>
       <c r="H21" s="29" t="str">
-        <v>CLO4,
-CLO5,
-CLO6,
-CLO7</v>
+        <v>CLO1-CLO2</v>
       </c>
       <c r="I21" s="29" t="str">
         <v>Sản phẩm</v>
@@ -3730,7 +3680,7 @@
         <v>1 sản phẩm</v>
       </c>
       <c r="K21" s="7" t="str">
-        <v>Bài 4 đến bài 8</v>
+        <v>Bài 1 đến bài 4</v>
       </c>
       <c r="L21" s="7" t="str">
         <v>Tải từ LMS và chấm đểm ở nhà</v>
@@ -3739,7 +3689,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N21" s="34" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O21" s="15" t="str">
         <v>Assignment</v>
@@ -3750,13 +3700,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="str">
-        <v>Bảo vệ assignment</v>
+        <v>Đánh giá Assignment GĐ 2</v>
       </c>
       <c r="C22" s="29" t="str">
-        <v>Final Exam</v>
+        <v>On-going</v>
       </c>
       <c r="D22" s="29" t="n">
-        <v>40.00</v>
+        <v>10.00</v>
       </c>
       <c r="E22" s="29" t="n">
         <v>1</v>
@@ -3765,33 +3715,80 @@
         <v>0</v>
       </c>
       <c r="G22" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="29" t="str">
+        <v>CLO3-CLO5</v>
+      </c>
+      <c r="I22" s="29" t="str">
+        <v>Sản phẩm</v>
+      </c>
+      <c r="J22" s="29" t="str">
+        <v>1 sản phẩm</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <v>Bài 4 đến bài 8</v>
+      </c>
+      <c r="L22" s="7" t="str">
+        <v>Tải từ LMS và chấm đểm ở nhà</v>
+      </c>
+      <c r="M22" s="7" t="str">
+        <v>Bài nộp trên LMS</v>
+      </c>
+      <c r="N22" s="34" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" s="15" t="str">
+        <v>Assignment</v>
+      </c>
+    </row>
+    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="23">
+      <c r="A23" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <v>Bảo vệ Assignment</v>
+      </c>
+      <c r="C23" s="29" t="str">
+        <v>Final Exam</v>
+      </c>
+      <c r="D23" s="29" t="n">
+        <v>40.00</v>
+      </c>
+      <c r="E23" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29" t="str">
         <v>2h</v>
       </c>
-      <c r="H22" s="29" t="str">
-        <v>All CLOs</v>
-      </c>
-      <c r="I22" s="29" t="str">
+      <c r="H23" s="29" t="str">
+        <v/>
+      </c>
+      <c r="I23" s="29" t="str">
         <v>Sản phẩm, Slide, Document, Đề thi</v>
       </c>
-      <c r="J22" s="29" t="str">
+      <c r="J23" s="29" t="str">
         <v>Assignment</v>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="K23" s="7" t="str">
         <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="L23" s="7" t="str">
         <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
 * Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
 * Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
       </c>
-      <c r="M22" s="7" t="str">
+      <c r="M23" s="7" t="str">
         <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
       </c>
-      <c r="N22" s="34" t="n">
-        <v/>
-      </c>
-      <c r="O22" s="15" t="str">
-        <v/>
+      <c r="N23" s="34" t="n">
+        <v/>
+      </c>
+      <c r="O23" s="15" t="str">
+        <v>Assignment</v>
       </c>
     </row>
   </sheetData>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -2672,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
@@ -2758,10 +2758,10 @@
         <v>On-going</v>
       </c>
       <c r="D2" s="29" t="n">
-        <v>28.00</v>
+        <v>24.50</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2" s="29" t="n">
         <v>0</v>
@@ -3135,47 +3135,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Lab 8</v>
+        <v>Quiz</v>
       </c>
       <c r="C10" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D10" s="29" t="n">
-        <v>3.50</v>
+        <v>12.00</v>
       </c>
       <c r="E10" s="29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="29" t="str">
-        <v>2h</v>
+        <v/>
       </c>
       <c r="H10" s="29" t="str">
-        <v>CLO3</v>
+        <v/>
       </c>
       <c r="I10" s="29" t="str">
-        <v>Bài tập</v>
+        <v/>
       </c>
       <c r="J10" s="29" t="str">
-        <v>3-5 bài</v>
+        <v/>
       </c>
       <c r="K10" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v/>
       </c>
       <c r="L10" s="7" t="str">
-        <v>SV nộp bài để giáo viên chấm
-(thời hạn: cuối giờ hoặc cuối ngày (23h55), hoặc giảng viên quy định phù hợp với thời gian học của lớp)</v>
+        <v/>
       </c>
       <c r="M10" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
+        <v/>
       </c>
       <c r="N10" s="34" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="O10" s="15" t="str">
-        <v>Lab</v>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="11">
@@ -3183,43 +3182,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Quiz</v>
+        <v>Quiz 1</v>
       </c>
       <c r="C11" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D11" s="29" t="n">
-        <v>12.00</v>
+        <v>1.50</v>
       </c>
       <c r="E11" s="29" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F11" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="29" t="str">
-        <v/>
+        <v>6 phút</v>
       </c>
       <c r="H11" s="29" t="str">
-        <v/>
+        <v>CLO2</v>
       </c>
       <c r="I11" s="29" t="str">
-        <v/>
+        <v>Trắc nghiệm</v>
       </c>
       <c r="J11" s="29" t="str">
-        <v/>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K11" s="7" t="str">
-        <v/>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L11" s="7" t="str">
-        <v/>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M11" s="7" t="str">
-        <v/>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N11" s="34" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="O11" s="15" t="str">
         <v>Quiz</v>
@@ -3230,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Quiz 1</v>
+        <v>Quiz 2</v>
       </c>
       <c r="C12" s="29" t="str">
         <v>On-going</v>
@@ -3266,7 +3265,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N12" s="34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" s="15" t="str">
         <v>Quiz</v>
@@ -3277,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Quiz 2</v>
+        <v>Quiz 3</v>
       </c>
       <c r="C13" s="29" t="str">
         <v>On-going</v>
@@ -3313,7 +3312,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N13" s="34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O13" s="15" t="str">
         <v>Quiz</v>
@@ -3324,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Quiz 3</v>
+        <v>Quiz 4</v>
       </c>
       <c r="C14" s="29" t="str">
         <v>On-going</v>
@@ -3360,7 +3359,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N14" s="34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O14" s="15" t="str">
         <v>Quiz</v>
@@ -3371,7 +3370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Quiz 4</v>
+        <v>Quiz 5</v>
       </c>
       <c r="C15" s="29" t="str">
         <v>On-going</v>
@@ -3389,7 +3388,7 @@
         <v>6 phút</v>
       </c>
       <c r="H15" s="29" t="str">
-        <v>CLO2</v>
+        <v>CLO3</v>
       </c>
       <c r="I15" s="29" t="str">
         <v>Trắc nghiệm</v>
@@ -3407,7 +3406,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N15" s="34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" s="15" t="str">
         <v>Quiz</v>
@@ -3418,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Quiz 5</v>
+        <v>Quiz 6</v>
       </c>
       <c r="C16" s="29" t="str">
         <v>On-going</v>
@@ -3436,7 +3435,7 @@
         <v>6 phút</v>
       </c>
       <c r="H16" s="29" t="str">
-        <v>CLO3</v>
+        <v>CLO2</v>
       </c>
       <c r="I16" s="29" t="str">
         <v>Trắc nghiệm</v>
@@ -3454,7 +3453,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N16" s="34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O16" s="15" t="str">
         <v>Quiz</v>
@@ -3465,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Quiz 6</v>
+        <v>Quiz 7</v>
       </c>
       <c r="C17" s="29" t="str">
         <v>On-going</v>
@@ -3483,7 +3482,7 @@
         <v>6 phút</v>
       </c>
       <c r="H17" s="29" t="str">
-        <v>CLO2</v>
+        <v>CLO3</v>
       </c>
       <c r="I17" s="29" t="str">
         <v>Trắc nghiệm</v>
@@ -3501,7 +3500,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N17" s="34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O17" s="15" t="str">
         <v>Quiz</v>
@@ -3512,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Quiz 7</v>
+        <v>Quiz 8</v>
       </c>
       <c r="C18" s="29" t="str">
         <v>On-going</v>
@@ -3548,7 +3547,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N18" s="34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O18" s="15" t="str">
         <v>Quiz</v>
@@ -3559,46 +3558,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Quiz 8</v>
+        <v>Assignment</v>
       </c>
       <c r="C19" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D19" s="29" t="n">
-        <v>1.50</v>
+        <v>20.00</v>
       </c>
       <c r="E19" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="29" t="str">
-        <v>6 phút</v>
+        <v/>
       </c>
       <c r="H19" s="29" t="str">
-        <v>CLO3</v>
+        <v/>
       </c>
       <c r="I19" s="29" t="str">
-        <v>Trắc nghiệm</v>
+        <v/>
       </c>
       <c r="J19" s="29" t="str">
-        <v>20 câu hỏi/quiz</v>
+        <v/>
       </c>
       <c r="K19" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v/>
       </c>
       <c r="L19" s="7" t="str">
-        <v>Tổ chức tự động trên LMS</v>
+        <v/>
       </c>
       <c r="M19" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v/>
       </c>
       <c r="N19" s="34" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="O19" s="15" t="str">
-        <v>Quiz</v>
+        <v>Assignment</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="20">
@@ -3606,16 +3605,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Assignment</v>
+        <v>Đánh giá Assignment GĐ 1</v>
       </c>
       <c r="C20" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D20" s="29" t="n">
-        <v>20.00</v>
+        <v>10.00</v>
       </c>
       <c r="E20" s="29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0</v>
@@ -3624,25 +3623,25 @@
         <v/>
       </c>
       <c r="H20" s="29" t="str">
-        <v/>
+        <v>CLO1-CLO2</v>
       </c>
       <c r="I20" s="29" t="str">
-        <v/>
+        <v>Sản phẩm</v>
       </c>
       <c r="J20" s="29" t="str">
-        <v/>
+        <v>1 sản phẩm</v>
       </c>
       <c r="K20" s="7" t="str">
-        <v/>
+        <v>Bài 1 đến bài 4</v>
       </c>
       <c r="L20" s="7" t="str">
-        <v/>
+        <v>Tải từ LMS và chấm đểm ở nhà</v>
       </c>
       <c r="M20" s="7" t="str">
-        <v/>
+        <v>Bài nộp trên LMS</v>
       </c>
       <c r="N20" s="34" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="O20" s="15" t="str">
         <v>Assignment</v>
@@ -3653,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1</v>
+        <v>Đánh giá Assignment GĐ 2</v>
       </c>
       <c r="C21" s="29" t="str">
         <v>On-going</v>
@@ -3671,7 +3670,7 @@
         <v/>
       </c>
       <c r="H21" s="29" t="str">
-        <v>CLO1-CLO2</v>
+        <v>CLO3-CLO5</v>
       </c>
       <c r="I21" s="29" t="str">
         <v>Sản phẩm</v>
@@ -3680,7 +3679,7 @@
         <v>1 sản phẩm</v>
       </c>
       <c r="K21" s="7" t="str">
-        <v>Bài 1 đến bài 4</v>
+        <v>Bài 4 đến bài 8</v>
       </c>
       <c r="L21" s="7" t="str">
         <v>Tải từ LMS và chấm đểm ở nhà</v>
@@ -3689,7 +3688,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N21" s="34" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O21" s="15" t="str">
         <v>Assignment</v>
@@ -3700,94 +3699,47 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 2</v>
+        <v>Bảo vệ Assignment</v>
       </c>
       <c r="C22" s="29" t="str">
-        <v>On-going</v>
+        <v>Final Exam</v>
       </c>
       <c r="D22" s="29" t="n">
-        <v>10.00</v>
+        <v>40.00</v>
       </c>
       <c r="E22" s="29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="29" t="str">
-        <v/>
+        <v>2h</v>
       </c>
       <c r="H22" s="29" t="str">
-        <v>CLO3-CLO5</v>
+        <v/>
       </c>
       <c r="I22" s="29" t="str">
-        <v>Sản phẩm</v>
+        <v>Sản phẩm, Slide, Document, Đề thi</v>
       </c>
       <c r="J22" s="29" t="str">
-        <v>1 sản phẩm</v>
+        <v>Assignment</v>
       </c>
       <c r="K22" s="7" t="str">
-        <v>Bài 4 đến bài 8</v>
+        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
       </c>
       <c r="L22" s="7" t="str">
-        <v>Tải từ LMS và chấm đểm ở nhà</v>
-      </c>
-      <c r="M22" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
-      </c>
-      <c r="N22" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="O22" s="15" t="str">
-        <v>Assignment</v>
-      </c>
-    </row>
-    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="23">
-      <c r="A23" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <v>Bảo vệ Assignment</v>
-      </c>
-      <c r="C23" s="29" t="str">
-        <v>Final Exam</v>
-      </c>
-      <c r="D23" s="29" t="n">
-        <v>40.00</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29" t="str">
-        <v>2h</v>
-      </c>
-      <c r="H23" s="29" t="str">
-        <v/>
-      </c>
-      <c r="I23" s="29" t="str">
-        <v>Sản phẩm, Slide, Document, Đề thi</v>
-      </c>
-      <c r="J23" s="29" t="str">
-        <v>Assignment</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
-      </c>
-      <c r="L23" s="7" t="str">
         <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
 * Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
 * Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
       </c>
-      <c r="M23" s="7" t="str">
+      <c r="M22" s="7" t="str">
         <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
       </c>
-      <c r="N23" s="34" t="n">
-        <v/>
-      </c>
-      <c r="O23" s="15" t="str">
+      <c r="N22" s="34" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="15" t="str">
         <v>Assignment</v>
       </c>
     </row>

--- a/CurriculumManagementSystemWebAPI/exported.xlsx
+++ b/CurriculumManagementSystemWebAPI/exported.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>Pre-requisite</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>{{gradingStruture.assessment_type}}</t>
+  </si>
+  <si>
+    <t>{{pre_requiredText}}</t>
   </si>
 </sst>
 </file>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,8 @@
         <v>Pre-requisite</v>
       </c>
       <c r="C12" s="8" t="str">
-        <v/>
+        <v>Recommended: MUL116 - Graphic Introduction
+</v>
       </c>
     </row>
     <row spans="1:3" s="12" customFormat="1" ht="79.7" customHeight="1" x14ac:dyDescent="0.25" r="13">
@@ -2672,9 +2673,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -2758,10 +2759,10 @@
         <v>On-going</v>
       </c>
       <c r="D2" s="29" t="n">
-        <v>24.50</v>
+        <v>18.50</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="29" t="n">
         <v>0</v>
@@ -3045,7 +3046,7 @@
         <v>On-going</v>
       </c>
       <c r="D8" s="29" t="n">
-        <v>3.50</v>
+        <v>1.00</v>
       </c>
       <c r="E8" s="29" t="n">
         <v>1</v>
@@ -3087,47 +3088,46 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="str">
-        <v>Lab 7</v>
+        <v>Quiz</v>
       </c>
       <c r="C9" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D9" s="29" t="n">
-        <v>3.50</v>
+        <v>12.00</v>
       </c>
       <c r="E9" s="29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="29" t="str">
-        <v>2h</v>
+        <v/>
       </c>
       <c r="H9" s="29" t="str">
-        <v>CLO3</v>
+        <v/>
       </c>
       <c r="I9" s="29" t="str">
-        <v>Bài tập</v>
+        <v/>
       </c>
       <c r="J9" s="29" t="str">
-        <v>3-5 bài</v>
+        <v/>
       </c>
       <c r="K9" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v/>
       </c>
       <c r="L9" s="7" t="str">
-        <v>SV nộp bài để giáo viên chấm
-(thời hạn: cuối giờ hoặc cuối ngày (23h55), hoặc giảng viên quy định phù hợp với thời gian học của lớp)</v>
+        <v/>
       </c>
       <c r="M9" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
+        <v/>
       </c>
       <c r="N9" s="34" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="O9" s="15" t="str">
-        <v>Lab</v>
+        <v>Quiz</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="10">
@@ -3135,43 +3135,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
-        <v>Quiz</v>
+        <v>Quiz 1</v>
       </c>
       <c r="C10" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D10" s="29" t="n">
-        <v>12.00</v>
+        <v>1.50</v>
       </c>
       <c r="E10" s="29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="29" t="str">
-        <v/>
+        <v>6 phút</v>
       </c>
       <c r="H10" s="29" t="str">
-        <v/>
+        <v>CLO2</v>
       </c>
       <c r="I10" s="29" t="str">
-        <v/>
+        <v>Trắc nghiệm</v>
       </c>
       <c r="J10" s="29" t="str">
-        <v/>
+        <v>20 câu hỏi/quiz</v>
       </c>
       <c r="K10" s="7" t="str">
-        <v/>
+        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
       </c>
       <c r="L10" s="7" t="str">
-        <v/>
+        <v>Tổ chức tự động trên LMS</v>
       </c>
       <c r="M10" s="7" t="str">
-        <v/>
+        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="O10" s="15" t="str">
         <v>Quiz</v>
@@ -3182,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
-        <v>Quiz 1</v>
+        <v>Quiz 2</v>
       </c>
       <c r="C11" s="29" t="str">
         <v>On-going</v>
@@ -3218,7 +3218,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N11" s="34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O11" s="15" t="str">
         <v>Quiz</v>
@@ -3229,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
-        <v>Quiz 2</v>
+        <v>Quiz 3</v>
       </c>
       <c r="C12" s="29" t="str">
         <v>On-going</v>
@@ -3265,7 +3265,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N12" s="34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" s="15" t="str">
         <v>Quiz</v>
@@ -3276,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
-        <v>Quiz 3</v>
+        <v>Quiz 4</v>
       </c>
       <c r="C13" s="29" t="str">
         <v>On-going</v>
@@ -3312,7 +3312,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N13" s="34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O13" s="15" t="str">
         <v>Quiz</v>
@@ -3323,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
-        <v>Quiz 4</v>
+        <v>Quiz 5</v>
       </c>
       <c r="C14" s="29" t="str">
         <v>On-going</v>
@@ -3341,7 +3341,7 @@
         <v>6 phút</v>
       </c>
       <c r="H14" s="29" t="str">
-        <v>CLO2</v>
+        <v>CLO3</v>
       </c>
       <c r="I14" s="29" t="str">
         <v>Trắc nghiệm</v>
@@ -3359,7 +3359,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N14" s="34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O14" s="15" t="str">
         <v>Quiz</v>
@@ -3370,7 +3370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
-        <v>Quiz 5</v>
+        <v>Quiz 6</v>
       </c>
       <c r="C15" s="29" t="str">
         <v>On-going</v>
@@ -3388,7 +3388,7 @@
         <v>6 phút</v>
       </c>
       <c r="H15" s="29" t="str">
-        <v>CLO3</v>
+        <v>CLO2</v>
       </c>
       <c r="I15" s="29" t="str">
         <v>Trắc nghiệm</v>
@@ -3406,7 +3406,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N15" s="34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O15" s="15" t="str">
         <v>Quiz</v>
@@ -3417,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
-        <v>Quiz 6</v>
+        <v>Quiz 7</v>
       </c>
       <c r="C16" s="29" t="str">
         <v>On-going</v>
@@ -3435,7 +3435,7 @@
         <v>6 phút</v>
       </c>
       <c r="H16" s="29" t="str">
-        <v>CLO2</v>
+        <v>CLO3</v>
       </c>
       <c r="I16" s="29" t="str">
         <v>Trắc nghiệm</v>
@@ -3453,7 +3453,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N16" s="34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O16" s="15" t="str">
         <v>Quiz</v>
@@ -3464,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
-        <v>Quiz 7</v>
+        <v>Quiz 8</v>
       </c>
       <c r="C17" s="29" t="str">
         <v>On-going</v>
@@ -3500,7 +3500,7 @@
         <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
       </c>
       <c r="N17" s="34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O17" s="15" t="str">
         <v>Quiz</v>
@@ -3511,46 +3511,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
-        <v>Quiz 8</v>
+        <v>Assignment</v>
       </c>
       <c r="C18" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D18" s="29" t="n">
-        <v>1.50</v>
+        <v>20.00</v>
       </c>
       <c r="E18" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="29" t="str">
-        <v>6 phút</v>
+        <v/>
       </c>
       <c r="H18" s="29" t="str">
-        <v>CLO3</v>
+        <v/>
       </c>
       <c r="I18" s="29" t="str">
-        <v>Trắc nghiệm</v>
+        <v/>
       </c>
       <c r="J18" s="29" t="str">
-        <v>20 câu hỏi/quiz</v>
+        <v/>
       </c>
       <c r="K18" s="7" t="str">
-        <v>Nội dung trong Giáo trình, Slide, Lab, Assignment và các tài nguyên tham khảo trong Syllabus</v>
+        <v/>
       </c>
       <c r="L18" s="7" t="str">
-        <v>Tổ chức tự động trên LMS</v>
+        <v/>
       </c>
       <c r="M18" s="7" t="str">
-        <v>GV phải điều chỉnh thời gian bắt đầu cho bài quiz</v>
+        <v/>
       </c>
       <c r="N18" s="34" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="O18" s="15" t="str">
-        <v>Quiz</v>
+        <v>Assignment</v>
       </c>
     </row>
     <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="19">
@@ -3558,16 +3558,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
-        <v>Assignment</v>
+        <v>Đánh giá Assignment GĐ 1</v>
       </c>
       <c r="C19" s="29" t="str">
         <v>On-going</v>
       </c>
       <c r="D19" s="29" t="n">
-        <v>20.00</v>
+        <v>10.00</v>
       </c>
       <c r="E19" s="29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0</v>
@@ -3576,25 +3576,25 @@
         <v/>
       </c>
       <c r="H19" s="29" t="str">
-        <v/>
+        <v>CLO1-CLO2</v>
       </c>
       <c r="I19" s="29" t="str">
-        <v/>
+        <v>Sản phẩm</v>
       </c>
       <c r="J19" s="29" t="str">
-        <v/>
+        <v>1 sản phẩm</v>
       </c>
       <c r="K19" s="7" t="str">
-        <v/>
+        <v>Bài 1 đến bài 4</v>
       </c>
       <c r="L19" s="7" t="str">
-        <v/>
+        <v>Tải từ LMS và chấm đểm ở nhà</v>
       </c>
       <c r="M19" s="7" t="str">
-        <v/>
+        <v>Bài nộp trên LMS</v>
       </c>
       <c r="N19" s="34" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="O19" s="15" t="str">
         <v>Assignment</v>
@@ -3605,7 +3605,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 1</v>
+        <v>Đánh giá Assignment GĐ 2</v>
       </c>
       <c r="C20" s="29" t="str">
         <v>On-going</v>
@@ -3623,7 +3623,7 @@
         <v/>
       </c>
       <c r="H20" s="29" t="str">
-        <v>CLO1-CLO2</v>
+        <v>CLO3-CLO5</v>
       </c>
       <c r="I20" s="29" t="str">
         <v>Sản phẩm</v>
@@ -3632,7 +3632,7 @@
         <v>1 sản phẩm</v>
       </c>
       <c r="K20" s="7" t="str">
-        <v>Bài 1 đến bài 4</v>
+        <v>Bài 4 đến bài 8</v>
       </c>
       <c r="L20" s="7" t="str">
         <v>Tải từ LMS và chấm đểm ở nhà</v>
@@ -3641,7 +3641,7 @@
         <v>Bài nộp trên LMS</v>
       </c>
       <c r="N20" s="34" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O20" s="15" t="str">
         <v>Assignment</v>
@@ -3652,13 +3652,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
-        <v>Đánh giá Assignment GĐ 2</v>
+        <v>Bảo vệ Assignment</v>
       </c>
       <c r="C21" s="29" t="str">
-        <v>On-going</v>
+        <v>Final Exam</v>
       </c>
       <c r="D21" s="29" t="n">
-        <v>10.00</v>
+        <v>40.00</v>
       </c>
       <c r="E21" s="29" t="n">
         <v>1</v>
@@ -3667,79 +3667,32 @@
         <v>0</v>
       </c>
       <c r="G21" s="29" t="str">
-        <v/>
+        <v>2h</v>
       </c>
       <c r="H21" s="29" t="str">
-        <v>CLO3-CLO5</v>
+        <v/>
       </c>
       <c r="I21" s="29" t="str">
-        <v>Sản phẩm</v>
+        <v>Sản phẩm, Slide, Document, Đề thi</v>
       </c>
       <c r="J21" s="29" t="str">
-        <v>1 sản phẩm</v>
+        <v>Assignment</v>
       </c>
       <c r="K21" s="7" t="str">
-        <v>Bài 4 đến bài 8</v>
+        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
       </c>
       <c r="L21" s="7" t="str">
-        <v>Tải từ LMS và chấm đểm ở nhà</v>
-      </c>
-      <c r="M21" s="7" t="str">
-        <v>Bài nộp trên LMS</v>
-      </c>
-      <c r="N21" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="O21" s="15" t="str">
-        <v>Assignment</v>
-      </c>
-    </row>
-    <row spans="1:16" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25" r="22">
-      <c r="A22" s="29" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <v>Bảo vệ Assignment</v>
-      </c>
-      <c r="C22" s="29" t="str">
-        <v>Final Exam</v>
-      </c>
-      <c r="D22" s="29" t="n">
-        <v>40.00</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29" t="str">
-        <v>2h</v>
-      </c>
-      <c r="H22" s="29" t="str">
-        <v/>
-      </c>
-      <c r="I22" s="29" t="str">
-        <v>Sản phẩm, Slide, Document, Đề thi</v>
-      </c>
-      <c r="J22" s="29" t="str">
-        <v>Assignment</v>
-      </c>
-      <c r="K22" s="7" t="str">
-        <v>Toàn bộ kiến thức, kỹ năng và thái độ được yêu cầu trong assignment</v>
-      </c>
-      <c r="L22" s="7" t="str">
         <v>* Hội đồng bảo vệ gồm 2 giảng viên (đứng lớp và phản biện)
 * Trước buổi bảo vệ: Giảng viên chấm document, slide PowerPoint (nếu thuyết trình) và xem qua sản phẩm hoàn chỉnh do sinh viên nộp
 * Tại buổi bảo vệ: Trình bày theo nhóm hoặc cá nhân. Hội đồng phỏng vấn từng sinh viên.</v>
       </c>
-      <c r="M22" s="7" t="str">
+      <c r="M21" s="7" t="str">
         <v>Sinh viên nộp sản phẩm đúng nơi quy định. Giảng viên hội đồng tải sản phẩm của sinh viên và xem trước ngày bảo vệ</v>
       </c>
-      <c r="N22" s="34" t="n">
-        <v/>
-      </c>
-      <c r="O22" s="15" t="str">
+      <c r="N21" s="34" t="n">
+        <v/>
+      </c>
+      <c r="O21" s="15" t="str">
         <v>Assignment</v>
       </c>
     </row>
